--- a/dgl_version/gnn_data/copy/故障信息.xlsx
+++ b/dgl_version/gnn_data/copy/故障信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\fault-kg\data_collecter\gnn_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49A98C2-3208-4B84-BAB4-FF35011C2B54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B988CA-A786-4E26-9DEF-DB52233C8162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="668">
   <si>
     <t>Description</t>
   </si>
@@ -88,9 +88,6 @@
     <t xml:space="preserve">端口安全采用MAC地址和PSK的认证方式，并采用本地认证，正确输入PSK密钥后，Client无法关联上线。2.处理步骤 (1)需要确认配置的local-user用户名是否和user-name-format配置的一致。如果不一致，需要使用mac-authenticationuser-name-format命令修改MAC地址认证用户的帐 号格式。 (2)如果MAC地址中有字母的，在配置本地用户的时候有可能写成大写。此时需要使用 mac-authenticationuser-name-format命令将用户的MAC地址大写字母改为小写 字母，同时将密码改为和用户名一致，如下所示。 [Sysname-luser-00-14-6c-72-29-5c]displaythis # local-user00-14-6c-72-29-5cpasswordsimple00-14-6c-72-29-5cauthorization-attributelevel3service-typelan-access # 4.17未开启自动AP配置功能造成AP无法注册 </t>
   </si>
   <si>
-    <t xml:space="preserve">用户在云平台上添加云AP设备后，云AP不能在云平台上线。 </t>
-  </si>
-  <si>
     <t xml:space="preserve">RemoteAP功能不生效，即当AC与AP间隧道断开后，出现在线终端下线和新终端无法接入的故障。 </t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t xml:space="preserve">设备对Telnet登录用户采用Password认证或AAA本地认证的情况下，管理员遗忘Telnet账户密码无法登录设备。 </t>
   </si>
   <si>
-    <t xml:space="preserve">客户端无法通过Web登录CPE，提示无法显示网页，但是从客户端可以Ping通CPE，也可以Telnet登录到CPE。 2.故障处理步骤 (1)关闭Windows防火墙，Windows系统自带的防火墙开启后偶尔会造成此现象。 (2)Telnet登录到CPE，检查CPE配置，将HTTP服务开启。 (3)如果故障仍然未能排除，请联系技术支持人员。 4.2软件升级故障处理 4.2.1设备启动失败 </t>
-  </si>
-  <si>
     <t xml:space="preserve">设备加载软件包后重启时，无法正常启动。 </t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t xml:space="preserve">设备作为SSH客户端，用户使用publickey认证方式登录SSH服务器失败。 </t>
   </si>
   <si>
-    <t xml:space="preserve">FIT模式下的CPE接入AC后，无法修改其通过自动AP方式生成的AP服务模板。 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CPE上电后，发现用户终端的串口接到CPE设备的RJ45口，但是没有打印信息。 2.故障处理步骤 (1)请确认用户终端的串口是否插到了设备的CONSOLE口，如果插到CPE的网口的话就不会有打印信息。 (2)检查用户终端的串口设置，特别是波特率需要设置为115200bps，校验（Parity）设置为none即不需要校验位，数据位（Databits）设置为8。 (3)如果故障仍然未能排除，请联系技术工程师。 2.1.2网口无法连接 </t>
   </si>
   <si>
@@ -475,9 +466,6 @@
     <t xml:space="preserve">EVPN分布式网关场景，同一VXLAN内的VTEP之间隧道无法建立。 </t>
   </si>
   <si>
-    <t xml:space="preserve">EVPN分布式网关场景，不同VXLAN内的VTEP之间隧道无法建立。 </t>
-  </si>
-  <si>
     <t xml:space="preserve">VXLAN网络中，二层VXLAN业务流量不通。 </t>
   </si>
   <si>
@@ -637,15 +625,9 @@
     <t xml:space="preserve">本类故障的常见原因包括三大类：设备掉电重启、人为重启、软件重启。 3.故障分析 不同的重启原因对应不同的排查方法，所以无线接入点重启的排查思路首先是定位重启原因，然后根据重启类型进行具体分析。 •设备掉电重启的主要原因包括：连接线缆异常和供电设备异常。 •人为重启的主要原因包括： 人为通过RESET按钮重启设备。 人为通过命令行、SNMP、Web等管理手段重启设备。 AP长时间未在AC上注册。 •软件重启的主要原因包括内核异常、内存泄漏、看门狗重启和版本自动升级等。 4.处理步骤 •在AC上通过displaywlana(查看AP重启原因的方法一般有两种：)pnameap-nameverbose命令查看AP的详细信息，通过Lastrebootreason显示字段定位AP重启原因。 &lt;Sysname&gt;displaywlanapnameap1verbose APname:ap1 APID:1 APgroupname:default-group State:Run Backuptype:Master Onlinetime:0days1hours25minutes12secondsSystemuptime:0days2hours22minutes12seconds Model:WA6320 Regioncode:CN Regioncodelock:Disable SerialID:219801A28N819CE0002T MACaddress:0AFB-423B-893C IPaddress:192.168.1.50UDPcontrolportnumber:18313 UDPdataportnumber:N/A H/Wversion:Ver.CS/Wversion:E2321Bootversion:1.01 显示信息略…… Sentcontrolpackets:1 Receivedcontrolpackets:1 Echorequests:147 Lostechoresponses:0 Averageechodelay:3 Lastrebootreason:Usersoftreboot Lastrebootreason(APcheck):Theradiophysicalstatuswasdown Lastrebootreason(ACcheck):Theradiophysicalstatuswasdown •Console通过(显示信息略……)方式登录AP，在Probe视图下通过diagboot-infodisplay命令查看设备最近10次的重启时间和原因。 &lt;Sysname&gt;system-view SystemView:returntoUserViewwithCtrl+Z.[Sysname]probe [Sysname-probe]diagboot-infodisplay ****************************************************************************** PowerOnBootTimes:19 WatchdogBootTimes:0 SoftwareBootTimes:262 HardwareBootTimes:1 MotherBoardBootTimes:0 BackupBootTimes:0 SlotOutBootTimes:0 CurrentBootType:Hardware-bootCurrentRunningTime:120(s) RunningTime:83(d)0(h) ***BootHistory(StartupTimeandReason)*** 2022-07-1102:05:19(GMT+0)Hardreboot 2022-07-1102:05:19(GMT+0)Poweron 2022-07-1102:05:19(GMT+0)Usersoftreboot(Stayedinidlestateforalongtime) 2022-07-1101:55:14(GMT+0)Usersoftreboot(Stayedinidlestateforalongtime) 2022-07-1101:45:09(GMT+0)Usersoftreboot(Stayedinidlestateforalongtime) 2022-07-1101:35:04(GMT+0)Poweron 2022-07-1101:35:04(GMT+0)Usersoftreboot(Stayedinidlestateforalongtime) 2022-07-1101:24:59(GMT+0)Poweron 2022-07-1101:24:59(GMT+0)Usersoftreboot(Stayedinidlestateforalongtime) 2022-07-1101:14:54(GMT+0)Usersoftreboot(Stayedinidlestateforalongtime) AP常见的重启原因如表6-1所示。 表6-1AP常见重启原因 字段重启原因排查方式 PoweronAP设备上电重启，即AP掉电后重新上电6.4设备掉电重启 Hardreboot硬重启，即使用RESRT按钮重启AP设备6.5人为重启 Usersoftreboot•通过命令行、SNMP、Web等管理手段重启设备 •AP长时间未在AC上注册 Watchdogreboot看门狗重启6.6软件重启 Unknownreboot未知原因重启 Kernelexceptionsoftreboot内核异常重启 Kerneldeadloopsoftreboot内核死循环重启 Autoupdatesoftreboot版本自动升级 Unknownsoftreboot未知软件原因 Memoryexhausted内存耗尽 Otherunknownsoftreboot其他原因 6.4设备掉电重启 </t>
   </si>
   <si>
-    <t xml:space="preserve">当AP采用PoE供电方式时，本类故障的常见原因包括：网线不符合要求、PoE交换机重启、触发PoE交换机过载保护断电功能。 当AP通过电源适配器或PoE注入器供电时，本类故障的常见原因包括：供电设备不符合要求和供电设备损坏。 3.故障分析 本类故障的诊断流程如图6-1、图6-2所示。 图6-1设备掉电重启的故障诊断流程图（PoE供电方式） 图6-2设备掉电重启的故障诊断流程图（电源适配器或PoE注入器供电方式） 4.处理步骤 当AP采用PoE供电方式时，建议按照如下步骤排查： (1)检查线缆状况 a.检查网线规格 查看网线规格是否符合要求：一般要求使用超五类及以上线缆。2.5/5GE接口请务必使用超五类线（CAT5E）以上标准的线缆。10GE接口请务必使用六类线（CAT6）及以上标准的线缆。如果未满足，请更换符合要求的网线。如果满足，则执行步骤b。 b.检查网线是否损坏查看连接设备的网线水晶头是否松动，使用全新网线后观察一段时间，查看AP是否仍然有重启现象。如果问题得到解决，则为网线损坏。如果问题未解决，则执行步骤c。 c.检查PoE供电距离是否超出正常距离 核实部署AP时，供电距离是否超出可靠供电距离，供电距离一般建议在90米以内，最大不应超过100米。如果超出正常距离，建议缩短供电设备（PSE）与受电设备（PD）之间的距离或尝试其他供电方式。 (2)检查PoE交换机供电状况 a.检查PoE交换机是否重启在PoE交换机上执行displayversion命令，可以查看交换机的运行时间。 &lt;Sysname&gt;displayversion H3CComwareSoftware,Version7.1.070,Feature2607 Copyright(c)2004-2017NewH3CTechnologiesCo.,Ltd.Allrightsreserved. H3CXXXuptimeis0weeks,0days,2hours,14minutes Lastrebootreason:Coldreboot Bootimage:flash:/XXX-cmw710-boot-f2607.bin 显示信息略…… 通过对比交换机的运行时间和AP的运行时间是否相近，可以判断是否是交换机重启造成的AP重启。 b.检查是否触发过载保护断电功能 IEEE先后发布了802.3af（PoE）、802.3at（PoE+）和802.3bt（PoE++）PoE标准，后发布的标准兼容先发布的标准。 表6-2供电技术及对应参数 供电技术PoEPoE+PoE++ 遵循标准IEEE802.3afIEEE802.3atIEEE802.3bt PSE输出功率≤15.4W≤30W≤90W PD最大功率12.95W25.5W71.3W 线缆要求无超五类线（CAT5E）以上标准的线缆超五类线（CAT5E）以上标准的线缆 访问H3C官网查看无线接入点对应的安装指导，获取AP受电口遵循的标准和整机功耗等信息。 −如果AP的整机功耗不超过12.95W，则支持PoE功能的交换机即可满足供电要求； −如果AP的整机功耗大于12.95W，但小于等于25.5W，则可以通过PoE+交换机或电源注入器供电； −如果AP的整机功耗超过25.5W，则需要支持PoE++的交换机或对外供电60W的PoE注入器供电。 如果AP和PoE交换机实际协商遵循IEEE802.3af标准时，则交换机单端口最大输出功率为15.4W。在接入用户数增多的场景下，AP的实际功率可能会超过15.4W，此时会触发交换机上的过载保护断电功能，用户可以尝试通过poemax-powermax-power命令调高PoE接口的最大功率。 (3)如果排查以上方面后，问题得不到解决，请拨打H3C客户服务热线400-810-0504寻求帮助。 当AP通过电源适配器或PoE注入器供电时，建议按照如下步骤进行排查： (1)检查供电设备规格 查看电源适配器或PoE注入器的输出功率（电压和电流）是否满足AP安装手册中的电压要 求。如果未满足，请更换符合要求的电源适配器或PoE注入器。如果满足，则执行步骤(2)。 (2)检查供电设备是否损坏。 更换同型号的电源适配器或PoE注入器进行交叉测试。如果问题得到解决，则为供电侧故障，请更换供电设备。 (3)如果排查以上方面后，问题得不到解决，请拨打H3C客户服务热线400-810-0504寻求帮助。 6.5人为重启 </t>
-  </si>
-  <si>
     <t xml:space="preserve">本类故障的常见原因包括： •人为按压RESET按钮导致设备硬重启 •人为下发重启配置 •配置了定时重启功能•Fit模式下AP未在AC上上线。 3.故障分析 本类故障的诊断流程如图6-3所示。图6-3人为重启问题的故障诊断流程图 4.处理步骤 (1)确认无人按压RESET按钮。 当设备重启原因显示“Hardreboot”时，表示曾通过按压RESET按钮的方式重启AP。设备的RESET按钮示意图如图6-4所示。图6-4设备RESET按钮示意图 (2)确认是否人为通过配置重启设备。 当设备重启原因显示“Usersoftreboot”时，建议按照如下步骤排查：a.确认是否人为下发重启配置 AP重启前，有无人员通过命令行、SNMP、Web等管理手段重启设备，并了解具体执行哪些操作。如果无人下发重启设备操作，则执行步骤b。 b.检查是否配置了定时重启功能 执行displayschedulerjob和disschedulerschedule命令，查看是否为AP配置了定时重启功能。下面以AP工作在Fit模式为例进行介绍。 #在AC上配置ap1于每周六21:00重启。 [Sysname]schedulerjobresetap [Sysname-job-resetap]command1resetwlanapnameap1[Sysname-job-resetap]quit [Sysname]schedulerscheduleresetap [Sysname-schedule-resetap]jobresetap [Sysname-schedule-resetap]timerepeatingat21:00week-daySat #显示Job的配置信息。 [Sysname]displayschedulerjobJobname:resetsp resetwlanapnameap1 #显示定时任务的运行信息。 [Sysname]disschedulerschedule Schedulename:resetap Scheduletype:RunoneverySatat21:00:00 Starttime:SatJul1621:00:002022 Lastexecutiontime:SatJul1621:00:002022 Lastcompletiontime:SatJul1621:00:152022 Executioncounts:1 -----------------------------------------------------------------------JobnameLastexecutionstatusresetapSuccessful c.确认FitAP是否在线 当AP工作在Fit模式时，如果AP未在AC上上线，AP会每隔一段时间（一般为7-8分钟）重启一次，通过displaywlanapnameap-name命令的State显示字段可以确认AP是否在线。 &lt;Sysname&gt;displaywlanapnameap1 APinformation State:I=Idle,J=Join,JA=JoinAck,IL=ImageLoad C=Config,DC=DataCheck,R=RunM=Master,B=Backup APnameAPIDStateModelSerialIDap11IWA6320219801A28N819CE0002T 当AP不在线时，可以通过displaywlanapnameap-nameverbose命令的“Tunneldownreason”显示字段查看CAPWAP隧道断开的原因，显示字段的具体含义请参见“AP管理命令参考”。 &lt;Sysname&gt;displaywlanapnameap1verboseAPname:ap1 APID:1 APgroupname:default-group State:Run Backuptype:Master Onlinetime:0days1hours25minutes12secondsSystemuptime:0days2hours22minutes12seconds Model:WA6320Regioncode:CN 显示信息略…… Lastrebootreason(APcheck):Theradiophysicalstatuswasdown Lastrebootreason(ACcheck):TheradiophysicalstatuswasdownLatestIPaddress:10.1.0.2 CurrentACIP:192.168.1.1 Tunneldownreason:Requestwaittimerexpired (3)如果排查以上方面(显示信息略……)后，问题得不到解决，请拨打H3C客户服务热线400-810-0504寻求帮助。 6.6软件重启 </t>
   </si>
   <si>
-    <t xml:space="preserve">软件重启的主要原因包括内核异常、内存泄漏、看门狗重启和版本自动升级等。此外，无法判断的重启原因也归类为软件重启，例如CPU异常等。 3.故障分析 本类故障建议用户查看产品对应的版本说明书，尝试将设备升级至最新版本后，观察问题是否得到解决。 4.处理步骤 本类问题建议按照如下步骤排查： (1)升级设备版本 查看产品版本说明书中，是否有针对重启问题的解决问题列表或遗留问题列表，如果产品后续版本中将对应重启问题列入“解决问题列表”，则需要对设备进行版本升级。 (2)如果无法通过版本升级解决问题，请拨打H3C客户服务热线400-810-0504寻求帮助。 2故障处理 2.1搜不到无线服务 2.1.1故障描述 无线终端无法搜索到设备上配置的无线服务。 2.1.2常见原因 搜索不到无线服务的常见原因如下： •无线网络布置不合理。 •无线功能配置不正确。 •设备故障。 2.1.3故障处理步骤 无线终端搜索不到无线服务的故障处理流程如下： 图2-1搜不到无线服务的故障处理流程图 (1)确认无线网络布置是否合理。 如果无线终端离设备过远，或者二者中间有遮挡物，会导致无线网络信号强度低，请尝试将终端靠近设备并绕过遮挡物。 如果无线终端的Wi-Fi功能无故障，且无线网络信号强度高，请继续执行步骤。 (2)检查设备指示灯状态，判断设备是否正常工作。 设备指示灯状态请参见表1-2和表1-3。若云网关PWR/SYS指示灯为绿色闪烁或云AP指示灯为黄色闪烁，则按照步骤(5)对设备进行恢复，否则请继续执行步骤(3)。 (3)检查设备的配置。如果设备已关联云平台，请登录云平台检查无线服务是否开启、SSID是否隐藏、射频是否开启。如果无线服务和射频关闭，则设备无法提供无线接入功能，SSID隐藏会导致终端只能手动输入SSID进行接入。如果射频的2.4GHz频段未开启，则仅支持2.4GHz频段的无线客户端无法搜索到无线服务。 查看设备配置的具体步骤如下： •如果设备关联至云平台。 在[网络管理/配置/云AP/无线配置/Wi-Fi配置]中，查看云AP无线服务的配置。 图2-2云平台上云AP的无线服务配置 在[网络管理/配置/云AP/无线配置/射频配置]中，查看云AP射频的配置。 图2-3云平台上云AP的射频配置 在[网络管理/配置/云网关/Wi-Fi配置]中，查看云网关以上功能的配置，仅对云网关自身射频生效。 图2-4云平台上云网关的无线服务配置 在云平台的[网络管理/配置/云网关/射频配置]中，查看云网关以上功能的配置，仅对云网关自身射频生效。与云AP的射频配置类似，故不赘述。 •如果设备未关联云平台，则在本地网管页面检查无线服务是否开启、SSID是否隐藏、射频是否开启等。 在设备的Wi-Fi配置页面和射频配置页面查看配置是否合理，云网关和云AP的页面类似，以下图为例。 图2-5本地Web页面的无线服务配置 图2-6本地Web页面的射频配置 如果设备的配置不正确，请修改设备配置。 如果设备的配置正确，请继续执行步骤(4)。 (4)判断5GHz终端是否符合区域码CN信道使用要求。区域码规定了射频的可用信道，如果终端不符合区域码CN信道要求，可能导致部分5GHz信道不可用。 如果终端不符合区域码CN信道使用要求，请将终端的区域码修改为CN，或者使用其他符合区域码CN信道使用要求的终端接入。 如果设备的配置正确，请继续执行步骤(5)。 (5)若确认配置无误，则尝试以下步骤进行恢复： 关闭无线服务，约半分钟后再开启无线服务，待云AP指示灯常亮、云网关2.4GHz或5GHz指示灯绿色常亮后查看是否可以搜到无线服务。若搜索不到或指示灯异常，请尝试下一步。 重启设备，重启完成后待云AP指示灯常亮、云网关2.4GHz或5GHz指示灯绿色常亮后，查看是否可以搜到无线服务。若搜索不到或指示灯异常，请尝试下一步。 记录上网配置信息（如PPPoE账号和密码等）后，恢复出厂设置。重新配置上网方式后，待云AP指示灯常亮、云网关2.4GHz或5GHz指示灯绿色常亮后，查看是否可以搜到无线服务。 (6)如以上方法均无法解决问题，请获取系统日志，并联系我们。 2.2无线终端无法接入 2.2.1故障描述 无线终端可以搜索到设备上配置的无线服务，但无法接入无线服务。 2.2.2常见原因 终端无法接入的常见原因如下： •无线网络布置不合理。 •无线功能配置不合理。 •设备故障。 2.2.3故障处理步骤 无线终端无法接入的故障处理步骤如下： 图2-7无线终端无法接入的故障处理流程图 (1)检查无线网络布置是否合理。 如果无线终端离设备过远，或者二者中间有遮挡物，会导致无线网络信号强度低，请尝试将终端靠近设备并绕过遮挡物。 如果无线终端的Wi-Fi功能无故障，且无线网络信号强度高，请继续执行步骤(2)。 (2)查看现场是否存在SSID相同但加密和认证配置不同的无线服务。 如果存在同名但加密和认证配置不同的无线服务时，终端可能会尝试接入错误的无线服务，此时会接入失败。可以通过云平台或本地Web页面查看设备的无线服务配置，也可以通过无线终端搜索其他设备是否存在同名的无线服务。 图2-8云平台上查看设备的无线服务 图2-9本地Web页面上查看设备的无线服务 如果存在同名但加密和认证配置不同的无线服务，请依据实际情况区分无线服务的名称，或者统一无线服务的加密与认证配置。 如果不存在同名但加密与认证配置不同的无线服务，请继续执行步骤(3)。 (3)确认是否开启一键网优拨码开关或云平台5G优先功能。 •云网关的一键网优/5G优先功能仅对自身射频生效，不对云AP的射频生效。 •仅部分型号的云网关和云AP支持云平台5G优先功能。 •拨码开关的优先级更高。 部分自身具备射频功能的云网关，前面板带有拨码开关。开启一键网优拨码开关时，如果云网关自身的射频同时开启了5GHz和2.4GHz频段，云网关会拒绝支持双频的终端接入2.4GHz，使终端接入5GHz频段。此时终端可能被2.4GHz射频拒绝，但未能成功接入5GHz射频。 云平台的5G优先功能与一键网优拨码开关相同，云AP可以通过云平台开启本功能。 云平台5G优先功能具体查看步骤如下： 在[网络管理/配置/云AP/无线配置/网络优化]中，查看云AP是否开启5G优先功能。 图2-10云平台上云AP开启5G优先功能 在[网络管理/配置/云网关/无线配置]中，查看云网关是否开启5G优先功能。 图2-11云平台上云网关开启5G优先功能 如果开启一键网优拨码开关或云平台5G优先功能，请配置关闭再尝试接入。 如果未开启/关闭一键网优拨码开关或云平台5G优先功能后仍无法接入，请继续执行步骤 (4)。 (4)确认是否开启弱信号终端优化功能。 弱信号终端优化功能会使得信号较弱的终端无法接入。当前仅支持通过本地Web页面配置本功能。 图2-12本地Web页面查看弱信号终端优化功能 如果开启弱信号终端优化功能，请配置关闭，或配置较小的接入门限和重连接门限值，再尝试接入。 如果未开启/关闭如果开启弱信号终端优化功能后仍无法接入，请继续执行步骤(5)。 (5)如以上方法均无法解决问题，请获取系统日志，并联系我们。 2.3网速慢 2.3.1故障描述 无线终端可以访问网络，但网速慢且ping有丢包。 2.3.2常见原因 网速慢的常见原因如下： •无线网络布置不合理。 •上行网络不稳定。上行网络不稳定时，一定出现此类故障。 •无线功能配置不合理。如果上行网络无问题，但无线配置不合理，也会造成此类故障。 2.3.3故障处理步骤 网速慢的故障处理流程如下： 图2-13网速慢的故障处理流程图 (1)检查无线网络布置是否合理。 检查无线终端是否离设备过远、无线终端和设备之间是否有遮挡物等。 如果无线终端离设备过远，或者二者中间有遮挡物，会导致无线网络信号强度低，请尝试将终端靠近设备并绕过遮挡物。 如果所有无线网络布置无问题，请继续执行步骤(2)。 (2)确认网络的出口带宽是否足够。 若网络内存在某台无线终端在占用大量网络资源，或有大量使用网络的无线终端在线，会导致网络抢占问题。此时可以停用占用大量网络的终端，或考虑升级网络带宽。 若网络内不存在占用大量网络资源的终端，且在线终端数量少，请继续执行步骤(3)。 (3)判断故障源于上行有线网络还是无线网络。 如下两种方式均可以判断故障来源： •将有线终端接入设备，使用尝试ping之前的地址，并查看丢包情况。 若有线终端也存在明显丢包问题，则说明故障源于上行有线网络。若有线终端不存在明显丢包问题，则说明故障源于无线网络。 •获取系统日志，查看网络状态日志uplinkquality.log是否有如下log信息： [FriDec110:21:07CST2020]Good [FriDec110:21:31CST2020]Busy [FriDec110:21:42CST2020]Busy [FriDec110:21:56CST2020]Unreachable [FriDec110:22:20CST2020]Good [FriDec110:22:45CST2020]Busy[FriDec110:23:09CST2020]Busy 若存在以上log信息，即存在上行网络Busy或Unreachable的信息，则说明故障源于上行有线网络。若不存在以上log信息，即上行网络无异常，说明故障源于无线网络。 若故障源于上行有线网络，请继续执行步骤(4)。 若故障源于无线网络，请执行步骤(5)排查无线网络的故障。 (4)查看设备首页组网图，若处于正常工作状态，且上网方式为PPPoE方式，则观察PPPoE连接经常断开。 若PPPoE经常断开，则联系上行网络的运营商排查问题。 若PPPoE未断开，则继续执行步骤(5)。 (5)检查云网关是否配置了限速功能。 云网关可以为下挂的云AP配置用户限速功能，对接入AP的客户端进行限速。静态限速基于每终端进行限速，动态限速基于无线服务整体进行限速；上行对终端发送至设备的流量限速，下行对设备发送至终端的流量限速。限速值配置不合理会导致终端网速慢。 在云平台的[网络管理/配置/云网关/Wi-Fi配置/无线服务配置]中，查看限速功能的配置。 图2-14云平台查看用户限速功能配置 若开启了用户限速功能或配置值不合理，请尝试关闭限速功能或者将限速值调高。 若未开启用户限速功能或配置值合理，则继续执行步骤(6)。 (6)请检查5GHz是否开启，若未开启且无特别的不开启原因，请开启5GHz频段。 如果设备在云平台上线，在[网络管理/配置/云AP/无线配置/射频配置]中，查看云AP的射频配置，在[网络管理/配置/云网关/Wi-Fi配置/Radio配置]中，查看云网关自身射频的配置。二者配置类似，以下图云AP配置为例。 图2-15云平台上查看云AP射频配置 如果设备通过本地管理，可以通过本地Web页面查看射频配置。 图2-16本地Web页面上查看射频配置 若未开启5GHz频段，请配置开启。 若开启开启5GHz频段，则继续执行步骤(7)。 (7)尝试修改工作信道和频宽。 在无线空口资源较为紧张的场景下，可能出现信道拥挤的情况，可以尝试修改射频的信道和频宽解决问题。 配置的具体步骤可以参考图2-15和图2-16中的信道和频宽配置项。若修改后未能解决问题，请继续执行步骤(8)。 (8)如以上方法均无法解决问题，请获取系统日志，并联系我们 2.4设备未关联云平台 2.4.1故障描述 通过云平台查看设备不在线。 2.4.2常见原因 设备未关联云平台的常见原因如下： •云网关开启独立运行拨码开关，无法连接至云平台。 •设备上行链路不通，无法与云简网络通信。 •设备的本地Web页面配置了自定义云连接地址。 •设备已绑定至其他云平台账号。 2.4.3故障处理步骤 设备未关联云平台的故障处理流程如下： 图2-17设备未关联云平台的故障处理流程图 (1)检查云网关是否开启独立运行拨码开关。 部分型号云网关的前面板带有拨码开关，如果开启了独立运行拨码开关，云网关将无法在云简网络上线，请确保云网关的独立运行拨码开关处于关闭状态。如果已经关闭独立运行开关，请继续执行步骤(2)。 (2)检查设备上行链路是否畅通，若设备不通外网，则无法关联至云平台。 有两种方式查看设备上行链路是否畅通： 查看本地Web的主页组网图，上行链路出现感叹号说明上行链路不通，没有感叹号说明畅通。 图2-18主页组网图查看到上行链路不通 在本地Web页面的&lt;高级功能&gt;页面，通过上行链路检测功能，检测设备是否能够与云平台联通。 图2-19上行链路检测功能 若上行链路不通，请检查网络配置，保证设备可以连接外网。 若上行链路通常，则执行步骤(3)。 (3)在本地Web页面的&lt;高级功能&gt;页面检查是否配置了自定义的云连接地址，云平台管理配置是否正确，下图为正确配置。需要注意的是，所有上行设备均不能禁止H3C云平台的端口号，否则设备无法连接至云平台。 图2-20云管理功能 若云管理功能配置不正确，请按照上图修改配置。 若云管理配置正确，则执行步骤(4)。 (4)判断是否需要解绑定。 把设备添加到云平台上时，如果提示设备已经绑定至其他云平台账户，则需要在原账户解绑设备，再绑定至现账户。登录原账户，删除设备完成解绑，在无法登录原账户的场景，可以在现账户使用设备解绑定功能将设备从原账户解绑。 设备解绑定的配置步骤如下： 在现云平台中的[网络管理/设置/设备解绑]中，输入设备的序列号，获取解绑码。 图2-21云平台获取解绑码 在本地Web页面的&lt;高级功能&gt;页面找到设备解绑定功能，输入解绑码，点击&lt;确定&gt;按钮完成解绑。此时可以在现云平台账户添加设备。 图2-22本地Web页面输入解绑码 如果未提示设备绑定至其他云平台账户，则继续执行步骤(5)。 (5)如以上方法均无法解决问题，请获取系统日志，并联系我们。 2.5无线经常断开 2.5.1故障描述 无线终端经常断开Wi-Fi连接。 2.5.2常见原因 无线终端的常见原因如下： •无线终端自身原因或网络布置不合理。 •上行网络的原因。如果上行网络不稳定，则无线网络一定出现此类故障。 •无线环境的原因。如果上行网络无问题，但无线配置不合理，也会造成此类故障。 2.5.3故障处理步骤 无线经常断开的故障处理流程如下： 图2-23无线经常断开的故障处理流程图 (1)检查无线网络布置是否合理。 确认无线终端是否离设备较远，或者二者中间有遮挡物。通过改变无线终端的位置，判断终端是否处于多台设备的覆盖交叉区域。 如果无线终端离设备过远、二者中间有遮挡物或终端处于多台设备的覆盖交叉区域，会导致无线网络信号强度低，请尝试将终端靠近设备并绕过遮挡物。 如果无线网络布置无问题，请继续执行步骤(2)。 (2)确认周围环境中是否有其他无线接入设备提供了同名的无线服务。 当其他无线设备存在同名无线服务时，客户端可能会尝试漫游至其他无线服务。如果同名的无线服务，加密和认证配置却不同，则终端将漫游失败，可能出现与一个无线服务断开，却不能接入另一个无线服务的情况。 如果周围有同名无线服务，请区分无线服务的名称，或统一无线服务的加密和认证配置。 如果周围没有同名无线服务，请继续执行步骤(3)。 (3)确认接入的无线客户端是否已经通过认证。 没有通过认证的客户端，即使连接了无线服务，也无法访问网络，此时终端可能会断开Wi-Fi连接。 如果客户端未认证，请手动认证。 如果客户端已经通过认证，请执行步骤(4)。 (4)切换设备信道，尝试切换信道后无线终端是否能正常稳定接入。 如果周围环境存在较多的无线设备和无线客户端，可能出现无线信道拥堵的情况，严重时可能导致Wi-Fi连接断开。请根据设备的管理方式选择在云平台或本地Web页面进行配置。 图2-24云平台的射频配置 图2-25本地Web页面的射频配置 如果修改射频配置无法解决问题，请执行步骤(6)。 (5)获取系统日志，如果条件允许，请提供客户端掉线前后的无线抓包，并联系我们。 2.6无线终端分配不到IP地址 2.6.1故障描述 无线终端可以接入无线网络，但分配不到IP地址。 2.6.2故障处理步骤 (1)首先请确认无线终端是否离设备过远、其它终端是否能接入此无线服务并正确分配IP地址。 (2)确认组网环境是否创建了对应的VLAN，且VLAN划分正确。 (3)检查对应的VLAN是否开启了DHCPServer。 (4)检查DHCPServer地址是否全部被占用。 (5)检查网络连通性，例如，将终端配置一个与DHCPServer相同网段的静态IP，尝试ping一下DHCPServer。 (6)确认环境中是否有干扰。 2.7无线终端无法上网 2.7.1故障描述 无线终端可以接入无线网络，但无法上网。 2.7.2故障处理步骤 无线终端无法上网的故障处理流程如下： 图2-26无线终端无法上网的故障处理流程图 (1)查看网管页面主页组网图，若上行链路不通，请检查线路，排除线路故障。 (2)排除线路故障后，检查是否所有网址都不能上网，是否有黑名单或有相关安全限制，详细参见 2.8个别网页或软件无法使用。 (3)确认是否所有无线终端都无法正常上网、无线终端是否离设备过远、无线终端和设备之间是否有遮挡物等。 (4)检查IP地址分配方式及结果是否正确： 静态IP方式需要检查IP地址、子网掩码、网关地址、DNS等配置是否正确。 DHCP方式配置了自定义DNS服务器，请检查自定义DNS是否填写正确。 若设备为云AP，检查终端IP是否为上行网络分配，检查上行网络VLAN配置是否正确。 (5)检查客户端是否成功获取IP地址，检查终端上是否有特殊配置，如指定了固定IP、配置了固定DNS等。 (6)在客户端上分别pingWAN口地址、DNS服务器，查看是否可以ping通。 (7)若DNS不可达，需要自定义DNS服务器。 (8)ping任意域名，如www.baidu.com等知名网址，或其他需要使用的特殊域名，若回显为解析地址失败，则配置自定义DNS再次尝试。 (9)检查服务模板是否已开启认证，若开启则检查客户端是否已经通过认证。 (10)检查设备的限速配置。 (11)检查上行网络网速是否过慢，用PC网线直插上行链路网口查看是否能正常上网。 2.8个别网页或软件无法使用 2.8.1故障描述 个别网页无法访问，或个别业务软件无法正常使用，但访问其它公共网络的网址可以正常访问（如百度、新浪、网易等）。 2.8.2故障处理步骤 (1)将终端切换至移动蜂窝网络，检查是否能正常上网。 (2)检查访问的域名是否被加入了域名黑名单中。 (3)客户端从无线服务接入，请确认客户端是否已经通过认证。 (4)请尝试ping该网址或ping软件所使用的域名，若ping不通，提示无法解析IP，请尝试自定义DNS。 (5)若提示能够解析IP但不可达，请确认该域名是否已经失效或对端服务器是否正常。 (6)若可ping通但依然不可访问或不可使用，基本排除网络问题，请尝试其他途径解决。 2.9客户端已认证通过但无法访问网络 2.9.1故障描述 接入的客户端通过认证，但无法正常访问网络资源。 2.9.2故障处理步骤 首先确认网管首页组网是否为正常工作状态，若不是，请首先解决网络不通问题。在网络通畅的情况下，依据本节步骤排查。 (1)认证日志oauth.log 若已经认证过，中途下线切换SSID，需要重新认证，对应的删除放行规则log信息为： authedclient[b8:08:d7:cf:dd:c1]onlineagain,willlogoutbecausessiddifferent [0901_oauthmem_333]! (2)认证日志oauth.log（下线离开超过30分钟） 若已经认证过，中途下线超过30分钟后重新连接，则需要重新认证；删除放行规则log信息为： 认证时触发逃生： Checkusertimeoutclient[b8:08:d7:cf:dd:c1]offlinetimeout Oauthlogoutclient[b8:08:d7:cf:dd:c1] 认证时未触发逃生： Checkusertimeoutclient[b8:08:d7:cf:dd:c1]offlinetimeout Oauthnotifycloudclient[b8:08:d7:cf:dd:c1]offlineandlogout (3)认证日志oauth.log（认证通过后持续在线超过6小时）若已经认证过，认证通过后，持续在线时间超过6小时，则需要重新认证。 删除放行规则log信息为： 认证时触发逃生： Checkusertimeoutclient[b8:08:d7:cf:dd:c1]sessiontimeoutOauthlogoutclient[b8:08:d7:cf:dd:c1] 认证时未触发逃生： Checkusertimeoutclient[b8:08:d7:cf:dd:c1]sessiontimeout Oauthnotifycloudclient[b8:08:d7:cf:dd:c1]offlineandlogout 2.10客户端未认证即可访问网络 2.10.1故障描述 接入的客户端不需要通过认证即可正常访问网络资源。 2.10.2故障处理步骤 根据以下步骤排查放行原因： (1)认证日志oauth.log（下线未超过30分钟） 若已经认证过，中途下线未超过30分钟，重新连接同一无线服务（SSID不变），则不需要重新认证即可访问网络，对应的log信息为： Authedclient[b8:08:d7:dd:c1]at[1510365737]onlineagain,lastofflinetime[1510365737]! (2)认证日志oauth.log（触发逃生） 若此时云平台认证服务器故障，则触发逃生，即客户端不需要认证即可访问网络，对应的log信息为： Authserverisontonline (3)认证日志oauth.log（场所内无感知认证）若场所内无感知认证功能开启，且在开启后已经认证过，若在当天24:00之前重新接入，则认证是无感知的（即不需要用户重新认证），对应的log信息为： [WedNov2219:20:192020][216535][Auth]:Mac_triggerstatusisON,Nextwilljudgeissendrefer. [WedNov2219:20:192020][216695][EVENT]:Clientmacb8:08:d7:cf:dd:c1willsendmacttriggerrequest. [WedNov2219:20:192020][400255][EVENT]:GettheresultisBIND,nextgetaccess_token. 2.11客户端认证失败 2.11.1故障描述 接入的客户端认证失败。 2.11.2故障处理步骤 (1)认证方式：一键认证 a.查看oauth.log日志是否有重定向URL，如下所示： Redirectingclientbrowserto http://oasisauth.h3c.com:80/portal/protocol?response_type=code&amp;redirect_uri=http://192.168.60.1:2060/oauth/auth&amp;nas_id=xb-0-1281397-219801A27VMSG3308091&amp;template_id=552545&amp;ssid=H3C_WiFi_2_22&amp;usermac=1A-B4-DD-E3-B2-94&amp;userip=192.168.60.111&amp;userurl=http%3A%2F%2Fcaptive.apple.com%2Fhotspot-detect.html b.查看是否获取到token和code： Getaccesstokenforclient9a:f5:5c:82:29:17,code[1243077iccacf89d8c414288ab112250] c.查看是否获取到useinfo： Getuserinfoforclient9a:f5:5c:82:29:17 (2)认证方式：短信认证与一键认证的排查方式相同。 2.12配置的域名黑名单不生效 2.12.1故障描述 通过云网关的本地网管页面或云平台配置了域名黑名单，但客户端依然可以访问此域名或地址。 2.12.2故障处理步骤 (1)域名黑名单从配置到生效有一定的延时，请确认设备访问域名是否在此延时范围内。 (2)获取系统日志，查看h3cconfig日志中的域名黑名单，如下所示： SecurityConf Denylist:baidu.com 2.13配置的域名白名单不生效 2.13.1故障描述 通过云网关的本地网管页面或云平台配置了认证后的域名白名单，但客户端访问此域名或地址依然需要认证。 2.13.2故障处理步骤 获取系统日志，查看h3cconfig日志中的域名白名单，如下所示： Portalfreeurllistis: youku.com 2.14配置的无线黑名单不生效 2.14.1故障描述 在云网关本地Web网管页面配置了无线黑名单，但黑名单中的客户端仍然可以连接Wi-Fi。 2.14.2故障处理步骤 获取系统日志，查看h3cconfig日志中的无线黑名单列表，如下所示： macfilter-list‘blacklist’ listmaclist‘4e:91:29:25:d1:ea’ 2.15配置的无线白名单不生效 2.15.1故障描述 在云网关本地Web网管页面配置了无线白名单，但白名单之外的客户端仍然可以连接Wi-Fi。 2.15.2故障处理步骤 获取系统日志，查看h3cconfig日志中的无线白名单列表，如下所示： macfilter-list‘whitelist’ listmaclist‘54:a0:50:70:55:79’ 2.16设备时间信息不准确 2.16.1故障描述 获取系统日志，部分log日志中的时间信息不准确。 2.16.2故障处理步骤 设备启动时是从一个不确定的较早时间开始记录的，设备在网络可用后会通过NTP同步一次网络时间，并把第一次同步网络时间的时间点记录到timesyn.log文件中，如下所示： FriDec110:11:45CST2020 若收集的log日志集中，没有timesyn.log文件： (1)可以先ping任意域名，如www.baidu.com等知名网址或其它需要使用的特殊域名，若回显为解析地址失败，则配置自定义DNS再次尝试，若ping结果显示解析成功，可继续下一步； (2)在与设备相连接的PC的Windows操作系统的命令控制台中输入命令：w32tm/stripchart/computer:registry.h3c.com 若出现下图执行结果，则表示可以通过NTP服务获取时间，需要获取日志进一步分析。 若出现下图执行结果，则表示上行网络问题导致无法通过NTP服务获取时间，请及时联系上行网络运营商解决。 2.17VPN无法建立 2.17.1故障描述 •已按照相关要求完成VPN配置，无法正常建立连接。 •VPN显示已连接成功，设备侧可以访问远端服务设备，但远端服务设备无法访问本设备。 •VPN显示已连接成功，两端也可以相互访问，但经常会出现连接自动断开又自动连接的情况。 2.17.2故障处理步骤 •故障1： 首先排查建立VPN的链路是否通畅，即建立VPN的两端网关设备是否能够正常通信，测试方法为在一端去ping另一端的网关IP；若确认链路连通无问题，接着排查配置是否有误，重点排查IP是否配置正确，两端加密算法是否一致（建立VPN对两端设备的配置校验较为严格），至此可以解决大部分此类问题。 •故障2： 本系列网关设备在建立VPN时默认是强制开启NAT穿透功能的，VPN建立完成后远端设备无法访问本端设备，可能是由于远端设备未配置NAT穿透功能，解决方法是对远端设备开启 VPN的NAT穿透功能。 •故障3： VPN设备两侧配置了不同的PFS分组算法，第一次协商并不会出现问题，在重协商时可能会报PFS分组不一致的错误，注意检查两侧PFS配置是否一致，解决办法是关闭两端设备的 PFS分组算法或将PFS分组算法改成一致。 2.18AP通过CAPWAP无法上线 2.18.1故障描述 在AC上（云网关）无法看到该AP的AP列表，或者该AP的AP列表状态显示为离线；AP的指示灯不是绿灯或绿灯闪烁（注意AP在云平台上线也会呈现绿灯），出现以上两种情形中的任何一种即表明AP没有上线。 2.18.2故障处理步骤 AP通过CAPWAP无法上线的故障处理流程如下： 图2-27AP通过CAPWAP无法上线的故障处理流程图 (1)首先排查AP是否配置了静态的ACIP地址，如果是，请检查该IP是否是目标AC的IP地址。 (2)如果AP是通过OPTION43方式获取到的ACIP地址，请查看DHCPSERVER的配置是否正确。 (3)AP是否在网络中其它AC上线了。 (4)查看AC管理AP的规格是否达到上限。 (5)查看AP是否连接了云平台，如果AP连接云平台就不会在AC上线。 (6)云网关的CAPWAP功能是否开启（AP管理&gt;高级功能&gt;AP管理功能）。 (7)收集日志查看AP是否获取到了br-lan的IP地址。如未获取到请参考2.6无线终端分配不到 IP地址进行排查。 (8)在AP本地Web页面的网络工具中pingAC的IP地址，是否可以ping通。 2硬件类故障处理 2.1.1CPE上电后，串口没有打印信息 </t>
-  </si>
-  <si>
     <t xml:space="preserve">这个问题是由于用户没有清除浏览器缓存所致。由于两个不同的软件版本的Web界面可能存在着差异，重新用Web登录以后，浏览器里面缓存的信息与新版本的Web信息不兼容。 3.故障处理步骤 (1)清理浏览器缓存后，重新登录Web。 (2)如果故障仍然未能排除，请联系技术工程师。 4软件类故障处理 4.1登录设备类故障处理 4.1.1Console口密码遗忘 </t>
   </si>
   <si>
@@ -706,9 +688,6 @@
     <t xml:space="preserve">•同一MAC地址的用户采用802.1X认证重新上线。 •设备上MAC地址认证的相关配置发生变化。 •MAC地址认证用户流量实时计费失败。 •MAC地址认证用户重认证失败。 •服务器强制用户下线。 •开启下线检测后用户下线。 •用户会话超时。 3.故障分析 本类故障的诊断流程如图图4-24所示。 图4-22MAC地址认证用户掉线的故障诊断流程图 4.处理步骤 •Debug开关不能在设备正常运行时随意开启，可在故障发生后复现故障场景时打开。 •请及时保存以下步骤的执行结果，以便在故障无法解决时快速收集和反馈信息。 (1)检查是否因为802.1x用户上线导致同一MAC地址认证用户下线。 当前端口默认的认证方式顺序为：802.1X认证-&gt;MAC地址认证-&gt;Web认证。 如果用户首先通过MAC地址认证，Web认证会立即终止，但802.1X认证仍会继续进行。如果802.1X认证成功，则端口上生成的802.1X认证用户信息会覆盖已存在的MAC地址认证用 通过disp(户信息。)laydot1xconnection命令查看当前MAC地址是否通过了802.1X认证成功 上线。如果已经在线，请判断是否需要通过MAC地址认证重新上线，如果需要，则将相应的 802.1X用户下线并关闭接口的802.1X认证功能，然后再尝试进行MAC地址认证。 (2)检查设备上MAC地址认证的相关配置是否发生变化。 a.通过displaymac-authentication命令查看设备上MAC地址认证的相关配置（使能 开关、认证方式等）是否发生变化。 b.通过displaydomain命令查看用户认证域下的配置（授权属性等）是否发生变化。 (3)检查实时计费是否失败。 执行debuggingmac-authenticationevent命令打开MAC地址认证事件调试信息开关。如果系统打印事件调试信息“Real-timeaccountingfailure.”，则表示实时计费失败。检查设备与计费服务器之间的链路状态，以及设备和计费服务器的相关计费配置是否发生过更改。 (4)检查是否是因为重认证失败而掉线。 a.执行displaymac-authentication命令通过“Periodicreauth”字段查看认证接口 b.通过mac-authenticationaccess(下是否开启了MAC地址重认证功能。)-userlogenablelogoff命令打开MAC地 址认证用户下线的日志信息功能。 c.参考“4.11.1MAC地址认证失败”故障处理定位重认证失败原因。 (5)检查是否为RADIUS服务器强制用户下线。 执行debuggingmac-authenticationevent命令打开MAC地址认证事件调试信息开关。如果系统打印事件调试信息“TheRADIUSserverforciblyloggedouttheuser.”，则表示服务器强制用户下线。请联系服务器管理员定位服务器强制用户下线原因。 (6)检查是否是因为下线检测定时器间隔内未收到用户报文。 a.执行displaymac-authentication命令查看认证接口下“Offlinedetection”字段， b.确认是否buggingmac-authenticationeve(开启了MAC地址认证下线检测功能。执行de)nt命令打开MAC地址认证事件调试信息 开关。如果系统打印事件调试信息“Offlinedetecttimerexpired.”，则表示下线检测定时器间隔内，未收到此端口下某MAC地址认证在线用户的报文，设备切断了用户连接，导致用户下线。 c.检查客户端与设备之间的链路状态，排查客户端未发送报文原因。 (7)检查用户会话是否超时。 a.执行debuggingradiuspacket命令打开RADIUS报文调试信息开关，确认服务器回 b.应的报ebuggingmac-authenticationev(文中是否携带Session-Timeout属性。执行d)ent命令打开MAC地址认证事件调试信息开关。如果系统打印事件调试信息“Usersessiontimedout.”，则表示用户会话超时下线。 c.用户会话超时触发的掉线情况属于正常现象，用户可重新发起上线。 (8)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 rlogenable命令收集的日志信息。 执行debuggingmac-authenticationall、debuggingradiusall命令收集的调试信息。 5.告警与日志 相关告警无 相关日志 •MACA_LOGOFF 4.12802.1X故障处理 4.12.1802.1X用户认证失败 </t>
   </si>
   <si>
-    <t xml:space="preserve">本类故障的常见原因主要包括： •全局或接口802.1X功能未开启。 •802.1X客户端不能正常发送或接收认证报文。 •设备配置的认证方式与RADIUS服务器不一致。 •802.1X用户使用的认证域及相关配置错误。 •RADIUS服务器无回应。 •RADIUS服务器认证拒绝。 •授权属性下发失败。 •802.1X认证用户的MAC地址被其它端口绑定。 •802.1X用户处于静默状态。 •802.1X在线用户数达到最大值。 3.故障分析 本类故障的诊断流程如图4-23所示。 图4-23802.1X用户认证失败的故障诊断流程图 4.处理步骤 •Debug开关不能在设备正常运行时随意开启，可在故障发生后复现故障场景时打开。 •请及时保存以下步骤的执行结果，以便在故障无法解决时快速收集和反馈信息。 (1)检查设备全局或接口802.1X功能是否开启。 通过在设备上执行displaydot1x命令，检查全局和认证接口上的802.1X功能是否开启。 如果提示“802.1Xisnotconfigured.”，表示全局802.1X功能未开启，请在系统视图下执行dot1x命令，开启全局802.1X认证功能。 如果有全局配置信息，无接口下的配置信息显示，则说明接口下未开启802.1X功能，请在认证接口视图下执行dot1x命令。 (2)检查802.1X客户端是否能正常发送或接收认证报文。 检查802.1X客户端版本是否为设备和服务器支持的版本。 检查设备与802.1X客户端间的链路连接是否正常。 通过抓包检查设备与客户端间是否能正常收发数据报文，分析抓包文件进一步定位故障问题。 (3)检查设备上配置的认证方法与RADIUS服务器是否一致。设备上802.1X系统支持两种认证方法：EAP终结（PAP和CHAP）和EAP中继（EAP），配置EAP认证方法时需要注意以下几点： 保证设备和RADIUS服务器配置的认证方法一致，且客户端支持。 本地认证仅支持EAP终结方式。通过在设备上执行displaydot1x命令查看当前802.1X采用的认证方式。 &lt;Sysname&gt;displaydot1xGlobal802.1Xparameters: 802.1Xauthentication:EnabledDRmemberconfigurationconflict:UnknownEAPauthentication:Enabled 如(…)果与服务器不一致，可通过dot1xauthentication-method命令修改。 (4)检查认证域及相关配置是否正确。 802.1X用户按照如下先后顺序选择认证域：端口上指定的强制ISP域--&gt;用户名中指定的ISP域--&gt;系统缺省的ISP域。 a.通过在设备上执行displaydot1x命令查看认证接口下是否配置了802.1X用户的强制 认证域。 &lt;Sysname&gt;displaydot1x … GigabitEthernet1/0/1islink-up 802.1Xauthentication:Enabled … Multicasttrigger:Enabled Mandatoryauthdomain:Notconfigured … 如果配置了强制认证域，请执行displaydomain命令检查强制认证域下的认证方案是否配置准确。 b.如果没有配置强制认证域，若802.1X用户名中包含域名，请确认域名分隔符与RADIUS服务器支持的域名分隔符保持一致，然后根据用户名中包含的域名找到指定域并检查其配置。 c.如果802.1X用户名中未包含域名，则检查缺省认证域的配置。 d.如果不存在缺省认证域，若通过domainif-unknown命令配置了unknown域，则检查unknown域下的认证方案是否配置准确。 e.如果根据以上原则决定的认证域在设备上都不存在，则用户无法完成认证。 (5)检查RADIUS服务器有无响应。 具体的故障定位操作请参见《AAA故障处理手册》的“RADIUS服务器无响应”。 (6)检查下线原因是否为认证拒绝。 执行debuggingdot1xevent命令打开802.1X认证事件调试开关： 若系统打印调试信息“Localauthenticationrequestwasrejected.”，则表示本地认证拒绝。导致本地认证拒绝的原因有本地用户不存在、用户名密码错误、用户服务类型错误等。 若系统打印调试信息“TheRADIUSserverrejectedtheauthenticationrequest.”，则表示RADIUS服务器认证拒绝。RADIUS服务器认证拒绝有多种原因，最常见的有服务器上 未添加用户名、用户名密码错误、RADIUS服务器授权策略无法匹配等。通过执行 debuggingradiuserror命令打开RADIUS错误调试信息开关查看相关的Debug信息，并且同时可以在设备上执行test-aaa命令发起RADIUS请求测试，定位故障问题后，调整服务器、设备及客户端配置。 (7)检查授权属性是否下发失败。 a.执行debuggingdot1xevent打开802.1X认证事件调试开关。如果系统打印调试信 息“Authorizationfailure.”，则表示授权失败。 b.检查设备上是否通过port-securityauthorization-failoffline命令配置了授 权失败用户下线功能。如果未配置授权失败用户下线功能，缺省情况下授权失败用户也可以保持在线，则用户不是因为授权失败而导致认证失败，继续定位其它故障原因。 c.检查服务器上的授权属性（例如授权ACL、VLAN）设置是否正确，确保服务器下发的授 d.执行displayac(权属性内容准确。)l或displayvlan命令检查设备上对应的授权属性是否存在，如果 不存在，需要在设备上创建相应的授权属性，确保用户能够获取到授权的信息。 (8)检查802.1X用户的MAC地址是否绑定失败。 执行debuggingdot1xevent命令打开802.1X事件调试信息开关。如果系统打印调试信息“MACbindingprocessingfailure.”，则表示802.1X用户的MAC地址绑定处理失败。 (9)检查802.1X用户是否处于静默状态。 在设备上执行displaydot1x命令，显示信息中“Quiettimer”和“Quietperiod”字段显示的是静默定时器的开启状态和静默时长，“Online802.1Xusers”字段下如果用户的“Authstate”显示为“Unauthenticated”时，则表示该用户为802.1X静默用户。 静默期间，设备将不对静默用户进行802.1X认证处理。用户需等待静默时间老化后，重新发 起802.1X认证，同时也可通过执行dot1xtimerquiet-period命令重新设置静默时长。 (10)检查802.1X在线用户数是否达到最大值。 a.在设备上执行displaydot1xinterface查看认证接口下的信息，“Maxonlineusers”字段为该接口下配置的最大用户数，“Online802.1Xusers”字段为接口下当前在线用户数，对比两组数据判断802.1X认证在线用户数是否已经达到最大值。 b.如果接口接入的802.1X用户数达到最大值，可以通过dot1xmax-user命令增大最多允许同时接入的802.1X用户数。 c.如果接口接入的802.1X用户数无法再增加，则需要等其他用户下线或切换用户的接入端口。 (11)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警无 相关日志无 4.12.2802.1X用户掉线 </t>
-  </si>
-  <si>
     <t xml:space="preserve">本类故障的常见原因主要包括： •设备上802.1X认证的相关配置变化。 •在线用户握手失败。 •实时计费失败。 •802.1X用户重认证失败 •服务器强制用户下线。 •开启下线检测后用户下线。 •用户会话超时。 3.故障分析 本类故障的诊断流程如图图4-24所示。 图4-24802.1X用户掉线的故障诊断流程图 4.处理步骤 •Debug开关不能在设备正常运行时随意开启，可在故障发生后复现故障场景时打开。 •请及时保存以下步骤的执行结果，以便在故障无法解决时快速收集和反馈信息。 (1)检查设备上802.1X认证的相关配置是否发生变化。 a.通过displaydot1x命令查看设备上MAC地址认证的相关配置是否发生变化。 b.通过displaydomain命令查看用户认证域下的配置是否发生变化。 (2)检查802.1X在线用户握手交互是否失败。 a.执行displaydot1x命令通过“Handshake”字段查看认证接口下是否开启了802.1X b.执行debuggingdo(在线用户握手功能。)t1xevent命令打开802.1X事件调试信息开关。如果系统打印事件调试信息“Handshakeinteractionfailure.”，则表示握手交互失败。可以通过抓包检查设备与客户端间是否能正常收发EAP数据报文，分析抓包文件进一步定位问题。 (3)检查实时计费是否失败。 执行debuggingdot1xevent命令打开802.1X事件调试信息开关。如果系统打印事件调试信息“Real-timeaccountingfailure”，则表示实时计费失败。检查设备与计费服务器之间的链路状态，以及设备和服务器的相关计费配置是否发生过更改。 (4)检查用户是否是因为重认证失败而掉线。 a.执行displaydot1x命令通过“Periodicreauth”字段查看认证接口下是否开启了802.1X 周期性重认证功能。 b.参考“4.12.1802.1X用户认证失败”故障处理定位重认证失败原因。 (5)检查是否为RADIUS服务器强制用户下线。 RADIUS远程认证情况下，执行debuggingdot1xevent命令打开802.1X事件调试信息开关。如果系统打印事件调试信息“TheRADIUSserverforciblyloggedouttheuser”，则表示RADIUS服务器强制用户下线。请联系服务器管理员定位服务器强制用户下线原因。 (6)检查是否是因为下线检测定时器间隔内未收到用户报文。 a.执行displaydot1x命令通过“Offlinedetection”字段查看认证接口下是否开启了 802.1X下线检测功能。 b.执行debuggingdot1xevent命令打开802.1X事件调试信息开关。如果系统打印事件调试信息“Offlinedetecttimerexpired”，则表示下线检测定时器间隔内，未收到此端口下该802.1X在线用户的报文，设备切断了用户连接，导致用户下线。 c.检查客户端与设备之间的链路状态，排查客户端未发送报文原因。 (7)检查用户会话是否超时。 a.检查是否配置了802.1X认证用户会话超时时间。 −RADIUS远程认证情况下，执行debuggingradiuspacket命令打开RADIUS报文调试信息开关，通过调试信息确认服务器回应的报文中是否携带Session-Timeout属性。 −本地认证情况下，执行displaylocal-user命令查看显示信息中是否包含 “Session-timeout”字段。 b.执行debuggingdot1xevent命令打开802.1X事件调试信息开关。如果系统打印事件调试信息“Usersessiontimedout.”，则表示用户会话超时下线。c.用户会话超时触发的掉线情况属于正常现象，用户可重新发起上线。 (8)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 gradiusall命令收集的调试信息。 5.告警与日志相关告警无 相关日志无 4.13AAA故障处理 4.13.1登录设备后无法执行部分命令行 </t>
   </si>
   <si>
@@ -766,9 +745,6 @@
     <t xml:space="preserve">本类故障的常见原因主要包括： •设备的内存使用率达到指定门限。 •设备的本地文件系统存储空间不足。 •设备本地的lauth.dat文件异常。 3.故障分析 本类故障的诊断流程如图4-42所示。图4-42创建本地用户或配置密码失败故障诊断流程图 4.处理步骤 (1)检查设备剩余空闲内存值是否进入指定的内存门限。 如果是修改本地用户密码失败，则无需关注内存门限问题，直接进入步骤（2）。 执行displaymemory-threshold命令查看显示内存告警门限相关信息，通过“Currentfree-memorystate:”字段查看当前内存使用状态。系统内存进入一级（Minor）、二级（Severe）、三级（Critical）告警门限状态期间，不允许创建本地用户。 &lt;Sysname&gt;displaymemory-thresholdMemoryusagethreshold:100% Free-memorythresholds: Minor:96M Severe:64M Critical:48M Normal:128M Currentfree-memorystate:Normal(secure) ... 可在任意视图下通过执行monitorprocess命令查看进程统计信息，输入“m”后按照显示的内存排序定位占用内存资源过多的进程，按需进行内存清理。等待内存门限解除后，再次尝试创建本地用户。 (2)检查设备的本地文件系统存储空间是否不足。 如果设备上输出如下任意一类日志信息，则表示文件系统异常导致此问题： PWDCTL/3/PWDCTL_FAILED_TO_OPENFILE:Failedtocreateoropenthepasswordfile. PWDCTL/3/PWDCTL_FAILED_TO_WRITEPWD:Failedtowritethepasswordrecordstofile. PWDCTL/3/PWDCTL_NOENOUGHSPACE:Notenoughfreespaceonthestoragemediawherethefileislocated. 请在用户视图下执行dir命令查看本地存储介质（例如flash）的剩余容量信息，如果剩余空间不足，则需要删除无用的文件。 (3)检查本地lauth.dat文件是否正常。 开启全局密码管理功能后，设备会自动生成lauth.dat文件记录本地用户的认证、登录信息。如果手工删除或修改该文件，会造成本地认证异常。请在用户视图下执行dir命令查看本地存储介质中（例如flash）的lauth.dat文件存在情况。 &lt;Sysname&gt;dir Directoryofflash:(EXT4) 0drw--Aug16202111:45:37core 1drw--Aug16202111:45:42diagfile 2drw--Aug16202111:45:57dlp 3-rw-713Aug16202111:49:41ifindex.dat 4-rw-12Sep01202102:40:01lauth.dat... 如果该文件不存在、大小为0或者很小（若小于20B，则大概率发生了异常），请优先联系技术支持人员协助处理，若当前配置需求紧迫，可尝试重新开启全局密码管理功能来解决此问题。 &lt;Sysname&gt;system-view [Sysname]undopassword-controlenable [Sysname]password-controlenable 以上问题解决后，请尝试重新创建本地用户或配置用户密码。 (4)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、诊断信息、提示信息。 5.告警与日志 相关告警无 相关日志 •PWDCTL/3/PWDCTL_FAILED_TO_WRITEPWD •PWDCTL/3/PWDCTL_FAILED_TO_OPENFILE •PWDCTL/3/PWDCTL_NOENOUGHSPACE 4.14.3管理员因闲置超时无法登录 本类故障的主要原因为，用户自从最后一次成功登录之后，在配置的闲置时间内再未成功登录过，那么该闲置时间到达之后此用户账号立即失效，系统不再允许使用该账号的用户登录。 3.故障分析 本类故障的诊断流程如图4-43所示。 图4-43管理员因闲置超时无法登录故障诊断流程图 4.处理步骤 (1)确认是否有其它管理员或其它途径可以登录设备。 如果有其它管理员或其它途径（例如Console口）可以登录设备，则表示仅该用户被禁止登录，因此可以由其它管理员登录后删除该本地用户后重新创建此用户，或修改用户账号的闲置时间（通过password-controlloginidle-time命令）。若将闲置时间修改 为0，则会立即关闭闲置超时检查。 如果无其它管理员或其它途径可以登录设备，则执行步骤（2）。 (2)确认设备是否开启了SNMP功能。 尝试是否可以通过NMS（NetworkManagementSystem，网络管理系统）登录设备： 若开启了SNMP功能，则可以使用MIB修改系统时间，将系统时间修改为闲置超时之前的 某个时间点，再使用此管理员帐号登录设备。修改系统时间对应的MIB节点为 HH3C-SYS-MAN-MIB中的hh3cSysLocalClock(1.3.6.1.4.1.25506.2.3.1.1.1)。 管理员再次成功登录后，需要第一时间将系统时间恢复，并关闭用户账号闲置超时检查。 若未开启SNMP功能，则无法使用MIB。可尝试重启设备，并按提示进入BootWare扩展段菜单后，选择跳过console口认证或者跳过配置文件选项来进入系统。建议在技术支持人员指导下执行此步骤。 (3)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、诊断信息、提示信息。 5.告警与日志相关告警无 相关日志无 4.15SSH故障处理 4.15.1SSH客户端登录设备失败 </t>
   </si>
   <si>
-    <t xml:space="preserve">本类故障的常见原因主要包括： •SSH客户端与设备之间路由不通，无法建立TCP连接。 •设备未开启SSH服务器功能。 •设备上配置了对SSH客户端的访问控制，且客户端的IP地址不在ACL定义的permit规则范围内。 •客户端指定的服务端口号与服务器端不一致。 •设备上的SSH版本与客户端不兼容。 •设备上未生成本地密钥对。 •服务器主机密钥与设备上缓存的密钥不匹配。 •用户线的认证方式或接入协议配置不正确。 •设备上的本地用户视图下未配置SSH服务。 •SSH用户的服务类型或认证方式配置不正确。 •设备上SSH2协议使用的算法与客户端不匹配。 •设备上VTY用户线资源不足。 •设备上SSH登录用户数达到上限。 3.故障分析 本类故障的诊断流程如图4-44所示。图4-44SSH登录失败故障诊断流程图 4.处理步骤 (1)检查客户端能否Ping通设备。使用ping命令检查网络连接情况。 如果Ping不通，请参见“Ping不通的定位思路”继续定位，确保SSH客户端能Ping通服务器端。 如果可以Ping通，请执行步骤（2）。 (2)检查SSH服务器功能是否开启。 当设备上出现如下日志时，表示SSH服务器功能未开启。 SSHS/6/SSHS_SRV_UNAVAILABLE:TheSCPserverisdisabledortheSCPservicetypeisnotsupported. 可以在设备上执行displaysshserverstatus命令，检查Stelnet服务器功能、SFTP服务器功能、NETCONFoverSSH服务器功能和SCP服务器功能是否按需开启。 &lt;Sysname&gt;displaysshserverstatus Stelnetserver:Disable SSHversion:2.0 SSHauthentication-timeout:60second(s) SSHserverkeygeneratinginterval:0hour(s)SSHauthenticationretries:3time(s) SFTPserver:Disable SFTPServerIdle-Timeout:10minute(s) NETCONFserver:DisableSCPserver:Disable 如果未开启，请在设备上执行如下命令，开启相关的SSH服务器功能。 &lt;Sysname&gt;system-view [Sysname]sshserverenable [Sysname]sftpserverenable [Sysname]scpserverenable[Sysname]netconfsshserverenable 如果已开启，请执行步骤（3）。 (3)检查是否设置了对客户端的访问控制。首先检查设备上是否通过sshserveracl命令设置了对客户端的访问控制。 如果已设置，请检查客户端的IP地址是否在ACL的permit规则中。当设备上出现如下日志时，表示客户端的IP地址不在ACL的permit规则中。 SSHS/5/SSH_ACL_DENY:TheSSHconnectionrequestfrom181.1.1.10wasdeniedbyACLrule(ruleID=20). SSHS/5/SSH_ACL_DENY:TheSSHconnectionrequestfrom181.1.1.11wasdeniedbyACLrule(defaultrule). −如果不在，请修改ACL配置，使得客户端的IP地址在ACL的permit规则中。如果对所有SSH客户端都不需要进行访问控制，请删除对客户端的访问控制。 −如果在，请执行步骤（4）。 如果未设置，请执行步骤（4）。 (4)检查客户端指定的服务端口号是否与服务器端一致。 如果服务器端修改了SSH服务端口号，客户端仍然使用缺省端口号登录时，会出现登录失败。 以我司设备作为客户端为例，会出现如下错误提示信息：Failedtoconnecttohost10.1.1.1port100. 如果客户端登录时指定的端口号与服务器端不一致，请在服务器端设备上执行displaycurrent-configuration|includessh命令查看服务器端配置的端口号，将客户端登录时指定的端口修改为与服务器端一致。 如果客户端登录时指定的端口号与服务器端一致，请执行步骤（5）。 (5)检查服务器的SSH版本与客户端版本是否兼容。 当设备上出现如下日志时，表示设备的SSH版本与客户端版本不兼容。 SSHS/6/SSHS_VERSION_MISMATCH:SSHclient192.168.30.117failedtologinbecauseofversionmismatch. 如果使用SSH1版本的客户端登录设备，可以在设备上执行displaysshserverstatus命令查看SSHversion字段确认SSH版本。 如果SSHversion显示为1.99，则表示设备可以兼容SSH1版本的客户端，请执行步骤（6）。 如果SSHversion显示为2.0，请在设备上执行sshservercompatible-ssh1xenable命令设置设备兼容SSH1版本的客户端。 (6)检查服务器上是否生成了本地密钥对。 设备作为SSH服务器时，必须配置本地非对称密钥对。虽然一个客户端只会采用DSA、ECDSA或RSA公钥算法中的一种来认证服务器，但是由于不同客户端支持的公钥算法不同，为了确保客户端能够成功登录服务器，建议在服务器上生成DSA、ECDSA和RSA三种密钥对。在设备上执行displaypublic-keylocalpublic命令查看当前设备上的密钥对信息。 如果DSA、ECDSA和RSA三种密钥对都不存在，请执行public-keylocalcreate命令依次进行配置。 如果已配置，请执行步骤（7）。 (7)检查服务器主机密钥与客户端上缓存的服务器主机密钥对是否一致。如果客户端首次登录服务器设备时选择保存了服务器端主机密钥，当服务器设备更新本地密钥对后，将会导致客户端认证服务端失败。以我司设备作客户端为例，当客户端登录时，出现如下提示信息，则表示服务器主机密钥与客户端上本地缓存的密钥不一致。 Theserver'shostkeydoesnotmatchthelocalcachedkey.Eithertheserveradministratorhaschangedthehostkey,oryouconnectedtoanotherserverpretendingtobethisserver.Pleaseremovethelocalcachedkey,beforeloggingin! 如果不一致，请执行undopublic-keypeer命令，删除客户端保存的旧的服务端主机密钥。 如果一致，请执行步骤（8）。 (8)查看VTY用户线下配置的认证方式及允许接入的协议是否正确。当客户端为Stelnet客户端和NETCONFoverSSH客户端时，需要在VTY用户线视图下，执行displaythis命令查看配置的认证方式是否为scheme、允许接入的协议是否包含SSH。 [Sysname]linevty063 [Sysname-line-vty0-63]displaythis #linevty063 authentication-modescheme user-rolenetwork-adminidle-timeout00 # 如果认证方式或者接入协议配置不正确，请将认证方式修改为scheme、将允许接入的协议修改为包含SSH。 如果均配置正确，请执行步骤（9）。 (9)检查本地用户是否授权了SSH服务。（仅针对本地认证） 在本地用户视图下，执行displaythis命令查看用户可以使用的服务类型是否包含SSH。 [Sysname]local-usertest [Sysname-luser-manage-test]displaythis # local-usertestclassmanageservice-typesshauthorization-attributeuser-rolenetwork-admin authorization-attributeuser-rolenetwork-operator 不包含，请在本地用户视图下通过service-type命令修改配置。 如果包含，请执行步骤（10）。 如果为远程认证方式，请参见“AAA故障处理”进行定位。 (10)检查是否配置了SSH用户并指定正确的服务类型和认证方式。 SSH支持Stelnet、SFTP、NETCONF和SCP四种用户服务类型。 首先，根据服务器采用的认证类型，根据如下规则，查看设备上是否创建正确的SSH用户。 如果服务器采用了publickey认证，则必须在设备上创建相应的SSH用户，以及同名的本地用户（用于下发授权属性：工作目录、用户角色）。 如果服务器采用了password认证，则必须在设备上创建相应的本地用户（适用于本地认证），或在远程服务器（如RADIUS服务器，适用于远程认证）上创建相应的SSH用户。 这种情况下，并不需要通过本配置创建相应的SSH用户，如果创建了SSH用户，则必须保证指定了正确的服务类型以及认证方式。 如果服务器采用了keyboard-interactive、password-publickey或any认证，则必须在设备上创建相应的SSH用户，以及在设备上创建同名的本地用户（适用于本地认证）或者在远程认证服务器上创建同名的SSH用户（如RADIUS服务器，适用于远程认证）。 接着，根据检查的结果，进行如下操作： 如果未创建且无需创建，请执行步骤（11）；如果未创建但有需求创建，请通过sshuser命令进行配置。 如果已创建，检查SSH用户的服务类型和认证方式。 −SSH用户指定的服务类型必须与客户端类型（Stelnet客户端、SFTP客户端、SCP客户端和NETCONFoverSSH客户端）相匹配，否则将会因为服务类型不匹配而登录失败。SSH用户服务类型是否正确，通过如下方式来检查： 以SCP客户端为例，如果设备上出现如下日志，表示服务类型不匹配。 SSHS/6/SSHS_SRV_UNAVAILABLE:TheSCPserverisdisabledortheSCPservicetypeisnotsupported. 请在设备系统视图下执行sshuser命令，修改SSH用户的服务类型。 −请在设备上执行displaysshuser-information命令，查看SSH服务器采用的认证方式，根据具体的认证方式检查设备上SSH用户的配置是否正确。 (11)检查设备上SSH2协议使用的算法列表是否与客户端匹配。 通过displayssh2algorithm命令查看当前SSH2协议使用的算法列表，检查客户端支持的算法是否包含在算法列表中。比如，设备上配置了不使用CBC相关的加密算法，但SSH客户端仅支持CBC相关加密算法，将导致该客户端无法登录服务器。 当设备上出现如下日志信息时，表示设备上SSH2协议使用的算法列表是否与客户端不匹配。 SSHS/6/SSHS_ALGORITHM_MISMATCH:SSHclient192.168.30.117failedtologinbecauseofencryptionalgorithmmismatch. 如果客户端使用的算法与设备上的算法不匹配，可通过如下两种方式进行修改： −设备可以通过执行ssh2algorithmcipher、ssh2algorithmkey-exchange、ssh2algorithmmac或ssh2algorithmpublic-key命令修改相关算法列表，增加客户端支持的算法。 −在客户端添加服务端支持的相关算法。 如果客户端使用的算法与设备上的算法能够匹配，请执行步骤（12）。 (12)检查设备上VTY用户数是否达到允许用户数的上限。SSH用户与Telnet用户登录均使用VTY用户线，但是VTY用户线是有限资源。若VTY类型用户线都已被占用，则后续使用Stelnet及NETCONFoverSSH服务的客户端将无法登录，使用SFTP及SCP服务的客户端不占用用户线资源，不受影响，仍可登录。当设备上出现如下日志时，表示设备上VTY用户数已达到允许用户数的上限。 SSHS/6/SSHS_REACH_USER_LIMIT:SSHclient192.168.30.117failedtologin,becausethenumberofusersreachedtheupperlimit.通过displayline命令查看VTY用户线资源是否充足。 如果VTY用户线资源不足，可将空闲且非scheme认证方式的VTY类型用户线认证方式修改为scheme认证方式；若所有VTY类型用户线都已是scheme认证方式且均处于active状态，可执行freelinevty命令强制释放VTY用户线，使得新的SSH用户能够上线。 如果VTY用户线资源充足，请执行步骤（13）。(13)检查登录服务器的SSH用户数是否达到允许用户数的上限。通过displaysshserversession命令查看服务器的会话信息，以及查看通过aaasession-limitssh命令配置的SSH最大用户连接数。 当设备上出现如下日志时，表示登录服务器的SSH用户数已达到允许用户数的上限。 SSHS/6/SSHS_REACH_SESSION_LIMIT:SSHclient192.168.30.117failedtologin.ThenumberofSSHsessionsis10,andexceededthelimit(10). 如果SSH会话数已达到上限，可通过执行aaasession-limitssh命令调大上限；如果配置的最大用户连接数已为可配置的最大值，可执行freessh命令强制释放已建立的部分SSH连接或者执行freelinevty命令强制释放VTY用户线，使得新的SSH用户能够上线。 如果未达上限，请执行步骤（14）。 (14)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志 相关告警 模块名：HH3C-SSH-MIB •hh3cSSHVersionNegotiationFailure(1.3.6.1.4.1.25506.2.22.1.3.0.2)相关日志 •SSHS/5/SSH_ACL_DENY •SSHS/6/SSHS_ALGORITHM_MISMATCH •SSHS/6/SSHS_REACH_SESSION_LIMIT •SSHS/6/SSHS_REACH_USER_LIMIT•SSHS/6/SSHS_SRV_UNAVAILABLE •SSHS/6/SSHS_VERSION_MISMATCH 4.15.2设备作为SSH服务器，用户使用password认证方式登录失败 </t>
-  </si>
-  <si>
     <t xml:space="preserve">本类故障的常见原因主要包括： •SSH客户端与设备之间路由不通，无法建立TCP连接。 •SSH客户端登录密码不正确。 •设备未开启SSH服务器功能。 •SSH服务器上不存在该SSH登录用户。 •设备上配置了对SSH客户端的访问控制，且客户端的IP地址不在ACL定义的permit规则范围内。 •设备上SSH登录用户数达到上限。 •设备上的SSH版本与客户端不兼容。 •SSH用户的服务类型或认证方式配置不正确。 •设备上未生成本地密钥对。 •SCP/SFTP工作目录不正确。3.故障分析 本类故障的诊断流程如图4-45所示。 图4-45SSH客户端使用password认证方式登录服务器失败（设备作为服务器）故障诊断流程图 4.处理步骤 (1)检查客户端能否Ping通设备。使用ping命令查看网络连接情况。 如果Ping不通，请参见“Ping不通的定位思路”继续定位，确保SSH客户端能Ping通服务器端。 如果可以Ping通，请执行步骤（2）。 (2)检查登录密码是否正确。 a.如果服务器采用本地认证，请确认当前用户登录的密码是否与设备上设备管理类本地用户视图下配置的密码一致： −如果不一致，请重新输入正确的密码。若忘记密码，可以进入设备管理类本地用户视图（用户名为当前登录的用户）下，执行password命令重新配置新的密码，确保登录密码与配置的密码一致。 −如果一致，请执行步骤4.15.14.(2)。 b.如果服务器采用远程认证，请确认当前用户登录的密码是否与认证服务器上配置的一致： −如果不一致，请重新输入正确的密码。若忘记密码，可以在服务器上为登录用户重新设置密码，确保登录密码与认证服务器上配置的一致。 −如果一致，请执行步骤4.15.14.(2)。 (3)检查SSH服务器功能是否开启。 当设备上出现如下日志时，表示SSH服务器功能未开启。 SSHS/6/SSHS_SRV_UNAVAILABLE:TheSCPserverisdisabledortheSCPservicetypeisnotsupported. 可以在设备上执行displaysshserverstatus命令，检查Stelnet服务器功能、SFTP服务器功能、NETCONFoverSSH服务器功能和SCP服务器功能是否按需开启。 &lt;Sysname&gt;displaysshserverstatus Stelnetserver:Disable SSHversion:2.0 SSHauthentication-timeout:60second(s) SSHserverkeygeneratinginterval:0hour(s)SSHauthenticationretries:3time(s) SFTPserver:Disable SFTPServerIdle-Timeout:10minute(s) NETCONFserver:DisableSCPserver:Disable 如果未开启，请在设备上执行如下命令，开启相关的SSH服务器功能。 &lt;Sysname&gt;system-view [Sysname]sshserverenable [Sysname]sftpserverenable [Sysname]scpserverenable[Sysname]netconfsshserverenable 如果已开启，请执行步骤（4）。 (4)检查客户端指定的服务端口号是否与服务器端一致。 如果服务器端修改了SSH服务端口号，客户端仍然使用缺省端口号登录时，会出现登录失败。 以我司设备作为客户端为例，会出现如下错误提示信息：Failedtoconnecttohost10.1.1.1port22. 如果客户端登录时指定的端口号与服务器端不一致，请在服务器端设备上执行displaycurrent-configuration|includessh命令查看服务器端配置的端口号，将客户端登录时指定的端口修改为与服务器端一致。 如果客户端登录时指定的端口号与服务器端一致，请执行步骤（5）。 (5)检查是否设置了对客户端的访问控制。首先检查设备上是否通过sshserveracl命令设置了对客户端的访问控制。 如果已设置，请检查客户端的配置是否在ACL的permit规则中，请先在设备上通过sshserveracl-deny-logenable命令开启匹配ACLdeny规则后打印日志信息功能。 当设备上出现如下日志时，表示客户端的IP地址不在ACL的permit规则中。 SSHS/5/SSH_ACL_DENY:TheSSHconnectionrequestfrom181.1.1.10wasdeniedbyACLrule(ruleID=20). SSHS/5/SSH_ACL_DENY:TheSSHconnectionrequestfrom181.1.1.11wasdeniedbyACLrule(defaultrule). −如果不在，请修改ACL配置，使得客户端的IP地址在ACL的permit规则中。如果对所有SSH客户端都不需要进行访问控制，请删除对客户端的访问控制。 −如果在，请执行步骤4.15.14.(5)。 如果未设置，请执行步骤4.15.14.(5)。 (6)检查服务器的SSH版本与客户端版本是否兼容。 当设备上出现如下日志时，表示设备的SSH版本与客户端版本不兼容。 SSHS/6/SSHS_VERSION_MISMATCH:SSHclient192.168.30.117failedtologinbecauseofversionmismatch. 如果使用SSH1版本的客户端登录设备，可以在设备上执行displaysshserverstatus命令查看SSHversion字段确认SSH版本。 如果SSHversion显示为1.99，则表示设备可以兼容SSH1版本的客户端，请执行步骤 4.15.14.(8)。 如果SSHversion显示为2.0，请在设备上执行sshservercompatible-ssh1xenable命令设置设备兼容SSH1版本的客户端。(7)查看VTY用户线下配置的认证方式及允许接入的协议是否正确。当客户端为Stelnet客户端或NETCONFoverSSH客户端时，需要在VTY用户线视图下，执行displaythis命令查看配置的认证方式是否为scheme、允许接入的协议是否包含SSH。 [Sysname]linevty063 [Sysname-line-vty0-63]displaythis #linevty063 authentication-modeschemeuser-rolenetwork-adminidle-timeout00 # 如果认证方式或者接入协议配置不正确，请通过authentication-modescheme命令将认证方式修改为scheme、通过protocolinboundssh命令将允许接入的协议修改为包含SSH。 如果均配置正确，请执行步骤4.15.14.(12)。 (8)检查设备上VTY用户数是否达到允许用户数的上限。 SSH用户与Telnet用户登录均使用VTY用户线，但是VTY用户线是有限资源。若VTY类型用户线都已被占用，则后续使用Stelnet及NETCONFoverSSH服务的客户端将无法登录，使用SFTP及SCP服务的客户端不占用用户线资源，不受影响，仍可登录。当设备上出现如下日志时，表示设备上VTY用户数已达到允许用户数的上限。 SSHS/6/SSHS_REACH_USER_LIMIT:SSHclient192.168.30.117failedtologin,becausethenumberofusersreachedtheupperlimit. 通过displayline命令查看VTY用户线资源是否充足。 如果VTY用户线资源不足，可将空闲且非scheme认证方式的VTY类型用户线认证方式修改为scheme认证方式；若所有VTY类型用户线都已是scheme认证方式且均处于active状态，可执行freelinevty命令强制释放VTY用户线，使得新的SSH用户能够上线。 如果VTY用户线资源充足，请执行步骤（13）。 (9)检查登录服务器的SSH用户数是否达到允许用户数的上限。 通过displaysshserversession命令查看服务器的会话信息，以及查看通过aaasession-limitssh命令配置的SSH最大用户连接数。 当设备上出现如下日志时，表示登录服务器的SSH用户数已达到允许用户数的上限。 SSHS/6/SSHS_REACH_SESSION_LIMIT:SSHclient192.168.30.117failedtologin.ThenumberofSSHsessionsis10,andexceededthelimit(10). 如果SSH会话数已达到上限，可通过执行aaasession-limitssh命令调大上限；如果配置的最大用户连接数已为可配置的最大值，可执行freelinevty命令强制释放 VTY用户线，使得新的SSH用户能够上线。 如果未达上限，请执行步骤（10）。 (10)检查服务器上是否生成了本地密钥对。 为了防止“伪服务器欺骗”，客户端验证服务器身份时，首先判断服务器发送的公钥与本地保存的服务器公钥是否一致，确认服务器公钥正确后，再使用该公钥对服务器发送的数字签名进行验证。如果客户端没有保存服务器的公钥或保存的服务器公钥不正确，则服务器身份验证将会失败，从而导致客户端无法登录服务器。因此，客户端登录服务器之前，需要先在服务器端创建密钥对，并将正确的服务器公钥保存在客户端。 虽然一个客户端只会采用DSA、ECDSA或RSA公钥算法中的一种来认证服务器，但是由于不同客户端支持的公钥算法不同，为了确保客户端能够成功登录服务器，建议在服务器上生成 DSA、ECDSA和RSA三种密钥对。 在设备上执行displaypublic-keylocalpublic命令查看当前设备上的密钥对信息。 如果DSA、ECDSA和RSA三种密钥对都不存在，请执行public-keylocalcreate 命令依次进行配置，并确保将服务器上生成的公钥保存到客户端。 如果已配置，请执行步骤4.15.14.(10)。 (11)检查是否配置了SSH用户并指定正确的服务类型和认证方式。 SSH支持Stelnet、SFTP、NETCONF和SCP四种用户服务类型。 首先，根据服务器采用的认证类型，查看设备上是否创建正确的SSH用户。 由于服务器采用了password认证，必须在设备上创建相应的本地用户（适用于本地认证），或在远程服务器（如RADIUS服务器，适用于远程认证）上创建相应的SSH用户。对于采用远程认证方式的情况，不需要通过本配置创建相应的SSH用户，如果创建了SSH用户，则必须保证指定了正确的服务类型以及认证方式。接着，根据检查的结果，进行如下操作： 如果未创建且无需创建，请执行步骤（12）；如果未创建且需要创建，请通过sshuser命令进行配置。 如果已创建，检查SSH用户的服务类型和认证方式。 −请在设备上执行displaysshuser-information命令，分别通过“Service-type” 和“Authentication-type”字段查看SSH用户的服务类型及认证方式。其中，服务类型必须与客户端类型（Stelnet客户端、SFTP客户端、SCP客户端或NETCONFoverSSH客户端）相匹配，认证方式必须为password。 −请在设备系统视图下执行sshuser命令，将SSH用户的服务类型和认证方式修改正确。 (12)检查SCP/SFTP工作目录配置是否正确。 当SSH用户的服务方式为SCP/SFTP时，需要为用户设置授权目录。如果所配置的授权目录不存在，SCP/SFTP客户端通过该用户连接SCP/SFTP服务器就会失败。对于password认 ributework-directorydirectory-name命令修改授权的工作目录。 如果存在，请执行步骤（13）。 (13)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志 相关告警 模块名：HH3C-SSH-MIB •hh3cSSHVersionNegotiationFailure(1.3.6.1.4.1.25506.2.22.1.3.0.2)相关日志 •SSHS/5/SSH_ACL_DENY •SSHS/6/SSHS_ALGORITHM_MISMATCH •SSHS/6/SSHS_REACH_SESSION_LIMIT •SSHS/6/SSHS_REACH_USER_LIMIT •SSHS/6/SSHS_SRV_UNAVAILABLE •SSHS/6/SSHS_VERSION_MISMATCH 4.15.3设备作为SSH服务器，用户使用publickey认证方式登录失败 </t>
   </si>
   <si>
@@ -781,15 +757,9 @@
     <t xml:space="preserve">本类故障的常见原因主要包括： •SSH客户端与服务器端之间路由不通，无法建立TCP连接。 •服务器上未生成本地密钥对。 •服务器端配置的用户公钥不正确。 •服务器主机密钥与SSH客户端上缓存的密钥不匹配。 •客户端的SSH版本与服务器端不兼容。 3.故障分析 本类故障的诊断流程如图4-48所示。 图4-48设备作为客户端使用publickey认证方式登录SSH服务器失败故障诊断流程图 4.处理步骤 (1)检查客户端能否Ping通服务器端。使用ping命令查看网络连接情况。 如果Ping不通，请参见“Ping不通的定位思路”继续定位，确保SSH客户端能Ping通服务器端。 如果可以Ping通，请执行步骤（2）。 (2)检查服务器端配置的用户公钥和用户使用的私钥是否匹配。 SSH客户端可能支持多种公钥算法，每种公钥算法对应不同的非对称密钥对。只有服务器端保存的用户公钥类型与用户登录时使用的私钥类型一致时，用户认证才会成功。例如，服务器端为某用户指定了DSA类型的公钥，用户也持有与之相匹配的私钥，但是登录时用户使用的 SSH以我司设备作为服务器为例，通过在(私钥类型为RSA，此时用户认证会失败。)服务器上执行displaypublic-keypeer命令查看保存在设备上的客户端公钥信息，判断是否与正在登录用户使用的私钥类型一致： 如果不一致，请执行public-keylocalcreate命令在服务器上生成相应类型的密钥对。 如果一致，请执行步骤（3）。 (3)检查服务器上是否生成了本地密钥对。为了防止“伪服务器欺骗”，客户端验证服务器身份时，首先判断服务器发送的公钥与本地保存的服务器公钥是否一致，确认服务器公钥正确后，再使用该公钥对服务器发送的数字签名进行验证。如果客户端没有保存服务器的公钥或保存的服务器公钥不正确，则服务器身份验证将会失败，从而导致客户端无法登录服务器。因此，客户端登录服务器之前，需要先在服务器端创建密钥对，并将正确的服务器公钥保存在客户端。 虽然一个客户端只会采用DSA、ECDSA或RSA公钥算法中的一种来认证服务器，但是由于不同客户端支持的公钥算法不同，为了确保客户端能够成功登录服务器，建议在服务器上生成 DSA、ECDSA和RSA三种密钥对。 以我司设备作为SSH服务器为例，在服务器上执行displaypublic-keylocalpublic 钥对都不存在，请执行public-keylocalcreate 命令依次进行配置。 如果已配置，请执行步骤（4）。 (4)检查服务器的SSH版本与客户端版本是否兼容。 当服务器上出现如下日志时，表示服务器的SSH版本与客户端版本不兼容。 SSHS/6/SSHS_VERSION_MISMATCH:SSHclient192.168.30.117failedtologinbecauseofversionmismatch. 以我司设备作为SSH服务器为例，如果使用SSH1版本的客户端登录设备，可以在服务器上执行displaysshserverstatus命令查看SSHversion字段确认SSH版本。 如果SSHversion显示为1.99，则表示服务器上可以兼容SSH1版本的客户端，请执行步 如果SSH(骤（5）。)version显示为2.0，请在服务器上执行sshservercompatible-ssh1xenable命令设置设备兼容SSH1版本的客户端。 (5)检查服务器主机密钥与客户端上缓存的服务器主机密钥对是否一致。 如果客户端首次登录服务器设备时选择保存了服务器端主机密钥，当服务器设备更新本地密钥对后，将会导致客户端认证服务端失败。 以我司设备作为SSH服务器为例，当设备作为客户端登录时，若出现如下提示信息，则表示服务器主机密钥与客户端上本地缓存的密钥不一致。 Theserver'shostkeydoesnotmatchthelocalcachedkey.Eithertheserveradministratorhaschangedthehostkey,oryouconnectedtoanotherserverpretendingtobethisserver. Pleaseremovethelocalcachedkey,beforeloggingin! 如果不一致，请在客户端上执行undopublic-keypeer命令，删除客户端保存的旧的服务端主机密钥。 如果一致，请执行步骤（6）。 (6)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警无 相关日志 无 4.16QoS故障处理 4.16.1流量不匹配分类的定位思路 </t>
   </si>
   <si>
-    <t xml:space="preserve">本类故障的常见原因主要包括： •应用了QoS策略的接口状态为Down，没有转发流量。 •流分类配置错误，不能匹配到转发流量。 •流分类中ACL规则匹配的流量执行了更高优先的策略。 3.故障诊断流程本类故障的诊断流程如图4-49所示。图4-49流量不匹配分类的故障诊断流程图 4.故障处理步骤 (1)检查接口物理链路状态是否正常。 在设备上执行displayinterface命令检查接口状态，例如： &lt;Sysname&gt;displayinterfacegigabitethernet1/0/1 GigabitEthernet1/0/1 Interfaceindex:386 Currentstate:AdministrativelyDOWN Lineprotocolstate:DOWN … a.如果Currentstate显示为AdministrativelyDOWN，则在接口下执行undoshutdown命令打开关闭的接口。 b.如果Currentstate显示为DOWN，则检查接口的物理连线。 c.如果接口物理链路正常，问题仍未解决，则请继续执行以下操作。 (2)检查设备接口下应用的QoS策略中的流分类配置。 在设备上执行displaytrafficclassifieruser-defined命令检查用户定义的流分类的配置信息，关于if-match命令的匹配规则详细信息，请参见“ACL和QoS命令参考”中的“QoS”。如果流分类的配置错误，则执行trafficclassifier命令进入该流分类视图，并执行if-match命令修改流分类的匹配规则。例如： [Sysname-classifier-1]if-matchdscpef [Sysname-classifier-1]displaythis trafficclassifieraoperatoror if-matchprotocolipv6if-matchdscpef 请确认Operator字段显示的各规则之间的逻辑关系是否准确。AND表示该流分类下的规则之间是逻辑与的关系，即数据包必须匹配全部规则才属于该类。OR表示该流分类下的规则之间是逻辑或的关系，即数据包匹配任一规则均属于该类。本例中，如果Rule(s)中流分类规则不止一条，且Operator显示字段为AND，则表示该流分类下的规则之间是逻辑与的关系，即数据包必须匹配全部规则才属于该类。此时，请执行trafficclassifier命令指定operator参数为or。 &lt;Sysname&gt;displaytrafficclassifieruser-defined User-definedclassifierinformation: Classifier:1(ID101)Operator:AND Rule(s): If-matchdscpef Classifier:2(ID102)Operator:AND Rule(s): If-matchdscpaf21 Classifier:3(ID103)Operator:AND Rule(s): If-matchdscpaf11 如果QoS策略中的流分类配置正确，问题仍未解决，则请继续执行以下操作。(3)当流分类中引用ACL规则进行流量报文匹配时，也可能由于该ACL规则匹配到的流量报文执行了其他更高优先的策略行为导致MQC方式配置的QoS策略未生效，不同策略行为的优先顺序为：在报文出方向：报文过滤&gt;全局应用MQC方式配置的QoS策略&gt;接口应用MQC方式配置的QoS策略。在报文入方向：报文过滤&gt;接口应用MQC方式配置的QoS策略&gt;全局应用MQC方式配置的QoS策略。 请执行displaycurrent-configuration命令检查当前生效的配置中是否存在上述更高优先级的策略行为相关配置。如果不存在相关配置，问题仍未解决，请继续执行以下操作。 (4)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息。 5.告警与日志 相关告警 无 相关日志 •QOS_POLICY_APPLYIF_CBFAIL •QOS_POLICY_APPLYIF_FAIL 图4-50RADIUS认证服务器下发动态VLAN不生效故障诊断流程图 6.处理步骤(1)检查RADIUSDAE服务功能是否开启。请在系统视图下执行displaycurrent-configuration|includeradius命令查看radiusdynamic-authorserver配置是否存在。 如果该配置存在，则执行radiusdynamic-authorserver命令进入RADIUSDAE服务器视图下检查RADIUSDAE客户端以及RADIUSDAE服务端口配置是否正确。 &lt;Sysname&gt;system-view [Sysname]radiusdynamic-authorserver [Sysname-radius-da-server]displaythis # radiusdynamic-authorserverport3790 clientip3.3.3.3keycipher$c$3$kiAORLht3S3rTCmFq0uWXPgV8PjI2Q==# 如果该配置不存在，则执行radiusdynamic-authorserver命令开启RADIUSDAE服务，并进入RADIUSDAE服务器视图配置RADIUSDAE客户端以及RADIUSDAE服务端口（下例中客户端的IP地址为1.1.1.1、共享密钥为123456、服务端口号为3798）。 &lt;Sysname&gt;system-view [Sysname]radiusdynamic-authorserver [Sysname-radius-da-server]clientip1.1.1.1keysimple123456 [Sysname-radius-da-server]port3798 (2)检查RADIUS服务器下发的VLAN属性内容是否准确。执行debuggingradiuspacket命令打开RADIUS报文调试信息开关，同时让RADIUS服务器尝试再次下发VLAN属性。 RADIUS服务器需要同时下发如下3个标准属性来下发VLAN信息： 64号属性Tunnel-Type，Integer类型，取值固定为13（VLAN） 65号属性Tunnel-Medium-Type，Integer类型，取值固定为6（IEEE802）。 81号属性Tunnel-Private-Group-Id，String类型，取值为具体的VLANID或VLAN名称。查看打印的RADIUS报文调试信息，检查COArequest报文信息中是否携带了上述三个标准属性，如下例所示。 *Aug302:33:18:7002021SysnameRADIUS/7/PACKET: ReceivedaRADIUSpacket ServerIP:128.11.3.48 NAS-IP:128.11.30.69 VPNinstance:--(public) Serverport:55805 Type:COArequest Length:41 PacketID:34User-Name="user" Tunnel-Type:0=VLAN Tunnel-Medium-Type:0=IEEE-802 Tunnel-Private-Group-Id:0="2" 如果打印的授权属性不准确，请联系RADIUS服务器管理员修改授权VLAN配置并尝试重新下发VLAN，否则继续定位。(3)检查用户是否成功获得下发的VLAN信息。 执行displaydot1xconnection或displaymac-authenticationconnection 命令，查看相关在线用户信息中是否存在服务器动态下发的授权VLAN信息：如果存在授权VLAN信息，说明VLAN下发成功。 如果不存在授权VLAN信息，说明VLAN没有下发成功。此时，建议在技术支持人员的指导下，结合RADIUS调试信息继续定位故障发生的原因。 (4)检查授权的VLAN是否存在。 执行displayvlanbrief命令查看动态下发的VLAN是否存在。如果该VLAN不存在，请在系统视图下执行vlanvlan-id命令创建。 (5)检查VLAN所在接口类型是否正确。 不同类型的接口成功加入授权VLAN的要求有所不同，具体配置要求请参见“安全配置指导”中的“802.1X”和“MAC地址认证”。 (6)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、调试信息、诊断信息。 7.告警与日志相关告警无 相关日志无 4.17无线故障处理 4.17.1未开启自动AP配置功能造成AP无法注册 </t>
-  </si>
-  <si>
     <t xml:space="preserve">系统固有实现，不支持在AC上修改自动AP方式下的AP服务模板。 3.故障处理步骤 (1)登录ACCLI，在系统视图下执行wlanauto-appersistent命令将自动AP固化为手工 AP。 (2)如果故障仍然未能排除，请联系技术支持人员。 2Web类故障处理问题 2.1通过Web登录时，提示“用户数超限！” 2.1.1故障描述 用户通过Web方式登录时提示“用户数超限”，在设备上通过命令displaywebusers检查登录的Web用户数可能只有一个，甚至没有Web用户在登录。 2.1.2故障处理步骤 出现这个问题是由于其他用户登录Web后，退出Web时直接关闭了浏览器，没有点击Web右上角的&lt;退出登录&gt;按钮，造成设备上的用户没有真正退出。 在设备上使用命令freewebusersall强制在线Web用户下线，然后再次登录Web，问题解决。 2.2设备升级以后，重新登录Web时失败，提示“功能函数错误” 2.2.1故障描述 设备升级以后，用户终端能够Ping通设备，也可以远程Telnet登录设备，但是重新通过Web进行登录时，Web界面上会弹出一个错误提示对话框，提示“功能函数执行错误”。 2.2.2故障处理步骤 这个问题是由于用户没有清除浏览器缓存所致。由于两个不同的软件版本的Web界面可能存在着差异，重新用Web登录以后，浏览器里面缓存的信息与新版本的Web信息不兼容，因此重新用 Web登录设备以前，请先将浏览器缓存清理一下。 3设备硬件类故障处理 3.1同一台PoE交换机下的部分AP自动重启 3.1.1故障描述 同一台PoE交换机连接的部分AP会自动重新启动（和AC的连接断开）。 3.1.2故障处理步骤 PoE交换机有各自的供电规格及预留空间，所以当对外供电总量超过可以供电量时，交换机会自动断开低优先级的接口，而造成下挂的AP设备重启。 可以通过交换机上的Log信息确认： #Apr611:26:44:3682000YXY-WLAN-04DRV_DEM/5/POEWARNING:-1-Powerbudgetexceeded #Apr611:26:44:4182000YXY-WLAN-04DRV_DEM/5/POEWARNING:-1-PoefunctionofEthernet1/0/6isdisabled. 第一个表示总的功率超过预算，无法再给新的端口供电，第二个表示断掉了一个接口的PoE供电。 解决方案是增加PoE交换机或者使用PoE模块对AP进行单独供电。 3.2AP使用电源适配器供电，系统控制平台无打印信息，同时电源指示灯未亮 3.2.1故障描述 AP只采用电源适配器一种供电方式供电时，系统控制平台无打印信息，同时电源指示灯未亮。 3.2.2故障处理步骤 (1)请检查是否采用系统要求的电源适配器规格，需要确保电源的输入电压在系统规格要求的范围。 (2)AP外观是否有明显被摔痕迹，防止AP内部的器件被摔坏而导致系统不能上电。 (3)AP是否进过水或者设备工作环境温度是否超出规格要求，如果室内型AP被用于室外，有雨 水进入AP或者关键芯片环境温度不满足要求，会导致系统出现工作异常状态，AP无法上电。 3.3AP上电后，串口没有打印信息 3.3.1故障描述 AP上电后，发现用户终端的串口接到AP设备的RJ45口，但是没有打印信息。 3.3.2故障处理步骤 (1)请确认用户终端的串口是否插到了设备的Console口，如果插到AP的网口的话就不会有打印信息。 (2)检查用户终端的串口设置，特别是波特率需要设置为9600bps，校验（Parity）设置为none即不需要校验位，数据位（Databits）设置为8。 3.4网口无法连接 3.4.1故障描述 系统上电启动后，发现AP与其他设备对接时网口无法建立连接。 3.4.2故障处理步骤 (1)请确认网线是否插错，如果插到Console口就不会建立连接； (2)请确认网线长度是否超过了规格要求（如100米），如果网线长度超过了规格要求也可能会出现不能建立连接现象； (3)请检查一下网线的线序是否有误，如果既不是直连也不是交叉网线的线序也不能建立连接。 3.5采用PoE-MH通过网口给AP供电时，发现AP不能上电 3.5.1故障描述 采用电源适配器和PoE-MH通过网口给AP供电时，发现AP不能上电。 3.5.2故障处理步骤 确保给AP供电的网线接到PoE-MH的正确位置。PoE-MH除了供电源适配器插入的电源口外，还有两个RJ-45口，其中一个RJ-45（#1）和电源在一侧，另外一个RJ-45口（#2）在另外一侧。给设备供电的网线应该插在RJ-45#2，如果插到了RJ-45#1的话是无法给AP供电的。 3.6光模块插入设备的光口时反插导致设备光口工作异常 3.6.1故障描述 当光模块插入设备时，如果插反，会将光口的I2C总线的SCL时钟信号拉到GND，这样的话有的CPU的I2C就会挂死，导致后续光口的I2C工作异常，且CPU会一直在访问I2C的现象，影响CPU处理其他业务。设备的光口工作异常，不能link，同时串口打印也可能出现异常。 3.6.2故障处理步骤 重启设备，同时确保光模块的Tx和Rx没有插反。 3.7AP设备信号弱 3.7.1故障描述 AP设备信号弱。 3.7.2故障处理步骤 (1)根据设备的型号选择配置内置或外置天线。 (2)正确安装外置天线，并检查2.4GHz和5GHz天线是否安装错位置（比如把2.4GHz天线安装在了5GHz天馈口）。 (3)用max-power命令将AP的射频传输功率设置成大。 4设备软件配置类故障处理 4.1交换机通过OAP方式登录无线控制器业务板失败 4.1.1故障描述 登录到交换机上以后，试图通过OAP方式登录到无线控制器业务板上进行查询或者配置，却发现无法登录成功，提示“TheOAPconnectionisbusy,pleasetryagainlater!”。 &lt;Sysname&gt;oapconnectslot1 TheOAPconnectionisbusy,pleasetryagainlater! 4.1.2故障处理步骤 (1)确认当前是否有其他人在使用OAP连接。 (2)登录到无线控制器业务板，通过displayusers命令收集当前访问无线控制器业务板的用户信息： &lt;Sysname&gt;displayusers IdxLineIdleTimePidType 0CON000:00:00Aug1110:06:511249 +1VTY000:00:00Aug1110:09:241273TEL Followingaremoredetails. VTY0: Username:adminLocation:180.10.1.1 +:Currentoperationuser. F:Currentoperationuserworksinasyncmode. 通过该命令可以看到当前登录到无线控制器业务板的用户（此信息说明当前有两个用户，其中“+”开头的用户为自己）可以多次执行上面的命令，如果Idle时间始终为00:00:00，则很大可能是该用户使用了OAP链接。 上面给出了Console用户的显示信息，如果通过Telnet登录发现con0在线，而且Idle时间始终为00:00:00，则很有可能说明Console用户已经离开，但是使用了OAP连接，所以需要将该用户踢掉，以恢复OAP连接。 (3)在无线控制器业务板的用户视图下执行freeuser-interface命令踢掉怀疑使用OAP连接的用户，其中下面的参数VTY和0分别为displayusers中的Line信息： &lt;Sysname&gt;freeuser-interfacevty0 Areyousuretofreeuser-interfacevty0?[Y/N]:y [OK] (4)如果踢掉用户成功，再次进行OAP登录，应该可以连接成功，否则可以踢掉所有的用户进行测试。 (5)如果踢掉所有的用户也没有效果，只有重新启动设备或者联系厂商的维护人员确认。 4.2使用本地转发时FITAP注册成功后一会儿连接断开 4.2.1故障描述 (1)FITAP启用本地转发后，在AC上可以看到AP状态为“Run”，但是大约30秒后又切换为 “Idle”状态； (2)在设备上可以看到如下打印信息： %Aug1110:25:04:2252018H3CCWS/4/CWS_AP_DOWN:CAPWAPtunneltoAP2610iwentdown.Reason:Failedtoretransmitmessage. %Aug1110:25:04:2732018H3CAPMGR/6/APMGR_AP_OFFLINE:AP2610iwentoffline.StatechangedtoIdle. 4.2.2故障处理步骤 这是由于下发到FITAP的本地配置文件将上行以太网接口的PVID修改了，不再是原来的VLAN1，终导致AP和AC不通，AC的状态机超时，并断开连接。因此需要修改本地转发文件，保证上行接口PVID为1。 •目前的FITAP使用VLAN1获取地址并和AC进行注册，所以必须保证AP上使用VLAN1能够成功从网络中获取地址，也就是上行口必须支持VLAN1。 •如果FITAP上行交换机为AP分配地址不在VLAN1中，则FITAP上行接口的PVID必须配置为VLAN1。 •如果FITAP上行交换机为AP分配地址在VLAN1中，且要将FITAP上行接口PVID修改为其他的VLAN，则FITAP上行接口必须设置支持VLAN1，而且为tag方式，同时上行交换机也必须保证接口为VLAN1的tag方式。 •对于无线用户接入的VLAN，尽量在FITAP上行接口使用tag方式，否则属于PVID的无线用户报文将在上行交换机被接入到上行交换机接口的PVID的VLAN中。 4.3主、备AC切换，主AC无法回切 4.3.1故障描述 主AC故障恢复后，AP和Client仍然连在备AC上，不能自动回切。 4.3.2故障处理步骤 使用priority命令将主AC上配置的AP优先级设为7，在AC热备功能中，必须将优先级设置为7才支持回切。 &lt;Master_AC&gt;system-view [Master_AC]wlanapap1modelWA4320i-ACN [Master_AC-wlan-ap-ap1]priority7 4.4客户端无法弹出Portal认证页面 4.4.1故障描述 无线客户端上线后，无法触发Portal认证或者客户端无法弹出Portal认证页面。 4.4.2故障处理步骤 (1)首先检查客户端的设置。 •检查客户端是否分配到正确的VLANIP地址，检查所在VLAN是否是需要进行Portal认证的 VLAN，如果有误请检查DHCP服务器相关配置是否正确。 •如果客户端分配到的地址是正确的，检查客户端的网关IP地址是否是AC上启用Portal认证的接口IP地址。 •检查是否还有别的网卡在使用，导致路由有问题，可在DOS下修改客户端的路由配置。 (2)检查AC上Portal相关配置是否正确。 •无线服务模板下Portal配置：选择正确的PortalWeb服务器和认证方式； •全局下Portal配置：配置正确的Portal认证服务器IP地址和PortalWeb服务器URL，配置正确的免认证规则，放行免认证流量。 (3)确保以上无误后，仍无法弹出页面，进一步检查Portal认证服务器的配置。 •检查Portal认证服务器上配置的设备IP地址、密钥是否和AC上配置相同； •检查Portal认证服务器上配置IP地址组范围，必须是Portal认证VLAN的IP地址。 4.5Portal认证失败 4.5.1故障描述 无线客户端可以弹出Portal认证页面，但是输入用户名和密码，提示认证失败。 4.5.2故障处理步骤 (1)首先确保用户名和密码正确。 (2)如果用户名和密码无误，检查AC上的RADIUS和认证域相关配置：a.检查AC是否能和RADIUS服务器互相访问； b.检查AC配置的RADIUS认证、授权、计费服务器的IP地址、密钥是否正确； c.检查认证域是否配置正确； d.检查nas-ip地址是否和RADIUS服务器配置的接入设备IP地址相同。 (3)确保AC上的配置无误后，进一步检查RADIUS服务器配置： a.检查RADIUS服务器上配置的接入设备是否添加了该AC的IP地址以及密钥是否正确；b.检查RADIUS服务器上配置的接入服务配置中认证类型是否正确，有无下发不存在的 UserProfile、ACL等（AC上必须配置相应的UserProfile和ACL）； c.Portal认证不支持下发规则中匹配了源的ACL以及rule中带log参数的ACL。 4.6AP多只能与两台AP建立Mesh连接，无法与第三台AP建立Mesh连接 4.6.1故障描述 AP多只能与两台AP建立Mesh连接，无法与第三台AP建立Mesh连接。 4.6.2故障处理步骤 AP默认多只能与其他两台AP建立Mesh连接，如果想与多台AP建立Mesh连接，需要修改 Mesh策略。 •如果AP的射频口下配置了Mesh策略： a.首先使用undomesh-policy命令将Mesh策略与绑定的射频口解绑定； b.然后在Mesh策略视图中使用link-maximum-number命令根据实际情况配置允许建立的大链路数； c.后使用mesh-policy命令将Mesh策略重新绑定到射频。 •如果AP的射频口下没有配置Mesh策略： a.首先使用wlanmesh-policy命令用创建一个新的Mesh策略； b.然后在Mesh策略视图中使用link-maximum-number命令根据实际情况配置允许建立的大链路数； c.后使用mesh-policy命令将Mesh策略绑定到射频；d.使用radioenable命令开启射频。 4.7两台或更多台AP建立Mesh连接后，Mesh连接经常up/down 4.7.1故障描述 使用两台或多台AP建立Mesh连接，虽然Mesh可以建立成功，但经常up/down。 4.7.2故障处理步骤 •两台AP建立Mesh连接后，可能一台AP启动了STP，另外一个没有启动STP协议，引起 Mesh不稳定，所以当只有两台AP建立Mesh连接时，可以不在AP上启动STP协议，或者在两台AP上都启动STP协议。 •多台AP建立Mesh连接后，可能没有启动STP，造成环路，此时需要在每台AP上都启动 STP协议，避免造成环路。 4.8两台FITAP无法建立Mesh连接或经过MAP的ping操作失败 4.8.1故障描述 与AC相连的MPPCAPWAP连接正常，MeshProfile也绑定到射频，但MAP却无法与其建立正常Mesh链路，或经过MAP的ping操作失败。 4.8.2故障处理步骤 (1)MPP上需要使用portal-serviceenable命令配置MPP停止发送邻居探测请求。 (2)MPP和MAP所在的信道应该相同。 4.9快速漫游失败 4.9.1故障描述 Client不能在AC间快速漫游，Client在切换AP时都是重新走认证上线流程，没有走快速漫游流程。 4.9.2故障处理步骤 快速漫游需要几个条件，必须满足这些条件才能快速漫游： •网卡要支持快速漫游。如果一个Client可以协商采用802.1X（RSN）认证方式，并且在发给 FA的reasso消息中携带了PMKID，则该终端具有AC间快速漫游能力； •AC间建立漫游组，且漫游组处于run状态； •服务模板是CCMP+WPA2+dot1x方式。 4.10Client不停的在几个AP间漫游或Client漫游困难 4.10.1故障描述 (1)Client不停的在几个AP间漫游； (2)Client漫游困难，Client原来关联的AP信号已经很差，但Client仍然不会主动漫游到信号较好的AP上。 4.10.2故障处理步骤 •如果Client不停的在几个AP间漫游，需要将Client的漫游主动性（漫游趋势或漫游灵敏度，且仅部分网卡支持，请以网卡的实际情况为准）调低。 •如果Client漫游困难，需要将Client的漫游主动性（漫游趋势或漫游灵敏度，且仅部分网卡支持，请以网卡的实际情况为准）调高。 4.11802.1X远程服务器认证失败问题 4.11.1故障描述 端口安全配置802.1X采用RADIUS认证，用户关联不成功。 4.11.2故障处理步骤 (1)确认设备和RADIUS服务器之间可以互通。 (2)检查无线服务模板下配置的WLAN用户接入认证模式是否为dot1x。 (3)检查AC上的nas-ip地址与服务器端配置是否一致，key配置是否一致。 (4)如果采用CHAP或PAP认证，需要检查AC上配置的是否携带域名与服务器上的配置是否保持一致。 (5)通过使用debuggingradiuspacket命令，查看RADIUS服务器和AC报文交互情况。 (6)检查AC上配置的port-mode和服务器上配置证书认证类型是否一致。 (7)查看服务器端配置是否和设备匹配。 (8)查看客户端的配置是否正确。 4.12802.1X和ACS配合认证时，Client关联成功并下线后，再关联时无法关联成功 4.12.1故障描述 802.1X和ACS配合认证时，Client关联到无线服务，下线后再关联，无法关联成功。 4.12.2故障处理步骤 在ACS的“SystemConfiguration-&gt;GlobalAuthenticationSetup“中将“EnableFastReconnect”后面的钩去除。 图4-1关闭快速重关联功能 4.13802.1X认证配置都正确，客户端上线时一直处于验证身份阶段 4.13.1故障描述 802.1X认证过程中，设备端的配置都是正确的，输入用户名和密码也是正确的，但客户端网卡显示一直处于验证身份阶段。 4.13.2故障处理步骤 在无线服务模板视图下配置了dot1xhandshakeenable命令，开启了802.1X在线用户握手功能，就会出现这样的情况，需要使用undodot1xhandshakeenable命令关闭802.1X在线用户握手功能。 4.14802.1X本地认证失败问题 4.14.1故障描述 端口安全配置802.1X采用本地认证，用户关联不成功。 4.14.2故障处理步骤 (1)使用debuggingport-security命令检查是否因为没有配置全局端口安全导致没有进行端口安全认证功能。 (2)确认是否是设备上配置的port-mode不正确，设备上没有PKI证书或者PKI证书过期。 (3)查看客户端的配置是否正确。 4.15使用RADIUS服务器进行MAC地址认证和PSK认证时，用户上不了线 4.15.1故障描述 端口安全配置MAC地址认证和PSK认证并采用RADIUS服务器，正确输入PSK密钥后用户关联不成功。 4.15.2故障处理描述 (1)确认设备和RADIUS服务器之间互通。 (2)检查是否配置了全局开启端口安全。 (3)检查AC上的nas-ip地址与服务器端配置是否一致，key配置是否一致。 (4)用户名是否携带域名要和服务器上配置的用户名一致。 (5)查看RADIUS服务器端配置是否和设备匹配。 4.16采用本地MAC地址认证时，用户上不了线 4.16.1故障描述 端口安全采用MAC地址和PSK的认证方式，并采用本地认证，正确输入PSK密钥后，Client无法关联上线。 4.16.2故障处理步骤 (1)需要确认配置的local-user用户名是否和user-name-format配置的一致。如果不一致，需要使用mac-authenticationuser-name-format命令修改MAC地址认证用户的帐号格式。 (2)如果MAC地址中有字母的，在配置本地用户的时候有可能写成大写。此时需要使用 mac-authenticationuser-name-format命令将用户的MAC地址大写字母改为小写字母，同时将密码改为和用户名一致，如下所示。 [Sysname-luser-00-14-6c-72-29-5c]displaythis #local-user00-14-6c-72-29-5cpasswordsimple00-14-6c-72-29-5cauthorization-attributelevel3service-typelan-access # 4.17未开启自动AP配置功能造成AP无法注册 4.17.1故障描述 在AC上打开调试信息，AC上能够收到AP的报文，但无法注册。 4.17.2故障处理步骤 缺省情况下，自动AP功能处于关闭状态，这种情况的调试信息显示如下： *Aug1115:26:16:7662018H3CCWS/7/RCV_PKT:ReceiveddiscoveryrequestfromAP:IPaddress=180.10.1.67,MACaddress=c4ca-d98e-c350,serialID=219801A0CLC11B000010. *Aug1115:26:16:7672018H3CCWS/7/ERROR:FailedtoprocessdiscoveryrequestfromAPwithserialID219801A0CLC11B000010:在设备上使用wlanauto-apenable命令开启自动AP功能。5非设备故障类故障处理 5.1FITAP无法获取IP地址，但是用客户端替换FITAP后能够获取IP地址 5.1.1故障描述 (1)FITAP无法成功注册到AC上，AC收不到任何该AP的报文，该AP无法动态获取IP地址； (2)使用客户端替换FITAP后，客户端可以成功获取IP地址并使用网络资源； (3)通过抓包和调试可以发现AP已经正常发送了DHCPdiscover报文申请IP地址，然而却没有收到DHCPoffer报文，而通过DHCPserver信息发现已经收到了Discover报文并且回应offer报文。 5.1.2故障处理步骤 (1)FITAP配置静态IP地址可以和AC互通，并且注册到AC设备上； (2)在DHCPserver位置挂一台PC1，将AP替换成PC2，两台PC都配置静态IP地址（IP地址为DHCPserver要分配的网段地址）； (3)清除两台PC的ARP，此时PC1无法ping通PC2，但是PC2可以ping通PC1； (4)因此可以断定广播上行OK，但是下行不通； (5)通过逐个设备上镜像抓包，确定丢包位置，排查下行广播报文丢失情况。 5.2Client连接到信号较弱的AP，而未连接到信号较强且距离较近的AP 5.2.1故障描述 Client连接到了一个信号相对较弱的AP上，而没有连接到相对信号较强且距离较近的AP上。 5.2.2故障处理步骤 (1)请确认客户端分布是否合理，不要造成大量客户端聚集在某个AP附近，否则即使负载均衡到其他的AP上，也会因为信号强度相差太大而触发频繁的漫游。 (2)如果发生Client无法连接的情况，要关闭负载均衡后再进行观察。 (3)基于流量的负载均衡不宜控制，不建议使用，尤其是有些加密、安全配置限制了AP的接入数 量的情况下（例如TKIP加密使得AP只能接入28个用户），建议使用基于会话的负载均衡。5.3同时支持网口PSE供电和电源适配器供电的AP设备，在电源适配器供电状态下，断开电源适配器时系统会重启 5.3.1故障描述 AP同时具备网口PSE供电和电源适配器供电的情况下，如果电源适配器处于供电工作状态，此时断开电源适配器时系统会重启，同时系统会切换到由网口PSE供电。 5.3.2故障处理步骤 AP存在网口PSE供电和电源适配器供电两种供电方式，如果AP处于电源适配器供电工作状态，而网口PoE在此次上电期间没有供过电，当断开电源适配器供电时，网口PoE会依次进行检测&gt;分级&gt;供电，在网口PoE重新供电过程中，设备经过了断电重新上电的过程，所以系统会重启。 可以通过系统的电源指示灯确认，因为电源指示灯会灭，然后再常亮。该问题属于系统网口PoE供电固有的特性造成，不算问题，无需解决。 5.4WMM不支持分片 5.4.1故障描述 设置AP分片门限为256，Client关联到AP上后，从AP上ping客户端，指定选项–s500，抓包确认，发现ping包并未分片。 5.4.2故障处理步骤 WMM协议规定，开启WMM功能后不支持报文分片，所以需要使用wmmdisable命令将WMM功能关掉后再测试报文分片功能。 5.5无线网卡提示Windows无法配置无线连接，而WirelessZeroConfigure服务已经启动 5.5.1故障描述 打开客户端上的无线网卡后，刷新无线网络列表，提示Windows无法配置无线连接，而 WirelessZeroConfigure服务已经启动。 5.5.2故障处理步骤 客户端上安装了该无线网卡自己携带的或者其它无线网卡客户端管理软件（例如H3CiNode无线客户端软件）。此时需要卸载或者退出该无线网卡客户端管理软件和其它相关客户端管理软件（包括 H3CiNode客户端等），然后开启WirelessZeroConfigure服务。 5.6国家码为CN时，11n网卡在设置无线模式为仅11an模式后，无法关联到11an的网络 5.6.1故障描述 国家码设置为CN时，设备所支持的11an信道有149，153，157，161，165五个信道。而国内销售的一些宣称支持11a/b/g/n的网卡（比如intel）在11an模式下所支持的信道是36，40，44，48等非CN国家码下的信道，即这些网卡没有遵循当地的标准，导致无法扫描到11an的网络，而其它网卡能扫描到网络。 5.6.2故障处理步骤 (1)将国家码设置为HK或者US等，以支持36等信道。设置接入点的工作信道为网卡所支持的信道。 (2)更换为符合当地标准无线网卡。 5.7客户端可以ping通AC，也能telnet到AC，但是无法通过Web登录成功 5.7.1故障描述 客户端无法通过Web登录AC，提示无法显示网页，但是从客户端可以ping通AC，也可以telnet登录到AC。 5.7.2故障处理步骤 (1)关闭Windows防火墙，Windows系统自带的防火墙开启后偶尔会造成此现象。 (2)Telnet登录到AC，检查AC配置，将http功能开启。 5.8无法修改自动AP方式生成的AP服务模板 5.8.1故障描述 无法修改自动AP方式生成的AP服务模板。 5.8.2故障处理步骤 系统固有实现，不支持修改自动AP方式下的AP服务模板。用户需要通过wlanauto-appersistent命令将自动AP固化为手工AP后才能修改AP服务模板。 6设备常见启动问题 6.1启动过程中串口无输出或打印乱码 6.1.1故障描述 启动过程中串口无输出或打印乱码。 6.1.2故障处理步骤 (1)设备的默认串口速率是9600，但可能部分设备设置的串口速率不是9600，需要修改设备串口速率与登录软件的串口速率一致即可。 (2)部分设备会发生内存条接口接触不良或接口磨损情况，这个时候可以尝试拔出来擦拭接口再插入（该方法只适用于允许插拔内存条的设备），确保插入没有问题；如果内存条本身损坏了，开始启动（内存低端损坏）或者启动过程中（内存高端损坏）会打印乱码，可以在进入Bootware菜单后，按Ctrl+U进入如下菜单，测试内存是否完好（如下的菜单选择&lt;1&gt;即可）。如果内存损坏了，只能更换内存了。 ===========================&lt;BASIC-ASSISTANTMENU&gt;=========================== |&lt;1&gt;RAMTest| |&lt;0&gt;ExitToMainMenu| ============================================================================ Enteryourchoice(0-1):1 Warning:TestMemorywilltakealongtime?[Y/N]Y..................... 526385152bytesmemorytestok.Memorytestedsuccess. (3)Bootware菜单的基本段被破坏的情况，请参见6.2.2中的Bootware菜单的加载问题。 6.2系统启动不了 6.2.1故障描述 上电后，设备无法启动。 6.2.2故障处理步骤 查看Bootware菜单的加载信息，如果没有输出Systemimageisstarting...消息就停住了，则是Bootware菜单加载问题，如果已经输出了这个消息，则是版本文件有问题。 •针对Bootware被破坏的情况：如果基本段被破坏了，应该是什么都不输出或者输一行乱码，这个时候没有其它办法，返厂烧片才能解决。如果是扩展段破坏了，找到产品对应的Bootware文件，重新升级Bootware即可。 •针对启动文件信息破坏的情况：表现为扩展段找不到启动文件，可以进入扩展段重新设置启动文件，或者下载新的启动文件。 •针对文件系统损坏的情况：也表现为找不到启动文件，并且设置启动文件和下载文件不成功。 那么可以格式化文件系统，再下载启动文件。 •版本文件问题不常出现，如果开启了看门狗，表现为异常重启或直接地反复重启；如果没有开启看门狗，表现为系统阻塞。在排除下载了错误的版本原因后，只能联系研发的支持解决；更推荐的做法，就是更换其它的正常启动版本。 2硬件类故障处理 2.1.1CPE上电后，串口没有打印信息 </t>
   </si>
   <si>
-    <t xml:space="preserve">软件重启的主要原因包括内核异常、内存泄漏、看门狗重启和版本自动升级等。此外，无法判断的重启原因也归类为软件重启，例如CPU异常等。 3.故障分析 本类故障建议用户查看产品对应的版本说明书，尝试将设备升级至最新版本后，观察问题是否得到解决。 4.处理步骤 本类问题建议按照如下步骤排查： (1)升级设备版本 查看产品版本说明书中，是否有针对重启问题的解决问题列表或遗留问题列表，如果产品后续版本中将对应重启问题列入“解决问题列表”，则需要对设备进行版本升级。 (2)如果无法通过版本升级解决问题，请拨打H3C客户服务热线400-810-0504寻求帮助。 3硬件类故障处理 3.1系统类故障 3.1.1终端无显示或显示乱码 </t>
-  </si>
-  <si>
     <t xml:space="preserve">本类故障的常见原因主要包括： •电源工作异常。 •主控板工作异常。 •配置电缆未连接到设备/主控板的配置口。 •配置终端参数设置错误。 •配置电缆故障。 3.故障分析 本类故障的诊断流程如图1所示： 图1故障诊断流程图 4.处理步骤 (1)检查电源工作是否正常。 如果电源模块指示灯状态异常，请参考电源故障处理章节进行处理。 (2)检查主控板工作是否正常。 如果主控板指示灯状态异常，请参考主控板故障处理章节进行处理。 (3)检查配置电缆是否已经连接到设备/主控板的配置口。 (4)检查配置终端COM口连接是否正确，实际选择的串口与终端设置的串口要一致，串口参数设置是否正确。 串口参数如下：波特率为9600，数据位为8，奇偶校验为无，停止位为1，流量控制为无，选择终端仿真为VT100。不同设备配置的串口参数请以设备实际情况为准。 (5)更换配置电缆。 (6)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警 无 相关日志无 3.1.2设备异常重启 </t>
   </si>
   <si>
@@ -805,9 +775,6 @@
     <t xml:space="preserve">本类故障的常见原因主要包括： •路由振荡 •报文攻击 •链路环路 3.故障分析 本类故障的诊断流程如图5所示： 图5CPU占用率高故障诊断流程图 4.处理步骤 (1)检查是否发生路由振荡路由表中条目频繁变化，可能导致CPU占用率过高。当发生路由震荡时，请收集信息并联系H3C技术人员寻求技术支持。首次查看路由表： [Sysname]displayiprouting-table Destinations:9Routes:9 Destination/MaskProtoPreCostNextHopInterface 0.0.0.0/32Direct00127.0.0.1InLoop0 10.1.1.0/24OSPF150111.2.1.1Vlan100127.0.0.0/8Direct00127.0.0.1InLoop0 127.0.0.0/32Direct00127.0.0.1InLoop0 127.0.0.1/32Direct00127.0.0.1InLoop0 127.255.255.255/32Direct00127.0.0.1InLoop0 224.0.0.0/4Direct000.0.0.0NULL0 224.0.0.0/24Direct000.0.0.0NULL0 255.255.255.255/32Direct00127.0.0.1InLoop0再次查看路由表： [Sysname]displayiprouting-table Destinations:8Routes:8 Destination/MaskProtoPreCostNextHopInterface 0.0.0.0/32Direct00127.0.0.1InLoop0 127.0.0.0/8Direct00127.0.0.1InLoop0 127.0.0.0/32Direct00127.0.0.1InLoop0 127.0.0.1/32Direct00127.0.0.1InLoop0 127.255.255.255/32Direct00127.0.0.1InLoop0 224.0.0.0/4Direct000.0.0.0NULL0 224.0.0.0/24Direct000.0.0.0NULL0 255.255.255.255/32Direct00127.0.0.1InLoop0 (2)检查是否受到报文攻击部分机型Probe视图下支持debugrxtxsoftcarshow命令，可以查看软件收包是否堵塞丢包。 &lt;Sysname&gt;system-view [Sysname]probe [Sysname-probe]debugrxtxsoftcarshowslot1 IDTypeRcvPpsRcv_AllDisPkt_AllPpsDynSwiHashACLmax 0ROOT000300SOnSMAC0 1ISIS000200DOnSMAC8 2ESIS000100SOnSMAC8 3CLNP000100SOnSMAC8 4VRRP0001024SOnSMAC8 5UNKNOWN_IPV4MC000100SOnSMAC8 6UNKNOWN_IPV6MC000100SOnSMAC8 7IPV4_MC_RIP000150DOnSMAC8 8IPV4_BC_RIP000150DOnSMAC8 9MCAST_NTP000100SOnSMAC8 10BCAST_NTP000100SOnSMAC8 如果某类报文的统计计数在不断增长，说明有攻击存在，可通过抓包确认攻击源。在设备端口抓包，使用报文捕获工具（如Sniffer、Wireshark、WinNetCap等）分析报文特征，确认攻击源。然后针对攻击源配置报文防攻击。关于报文防攻击的详细介绍和配置，请参见“安全配置指导”中的“攻击检测与防范”。 (3)检查是否存在链路环路链路存在环路时，可能出现广播风暴和网络振荡，大量的协议报文上送CPU处理可能导致 CPU占用率升高，设备很多端口的流量会变得很大，端口使用率达到90%以上： &lt;Sysname&gt;displayinterfacegigabitethernet3/0/1 GigabitEthernet3/0/1Currentstate:UP Lineprotocolstate:UP Description:GigabitEthernet3/0/1Interface Bandwidth:1000000kbps Maximumtransmissionunit:1500 Internetaddress:2.1.1.2/24(primary) IPpacketframetype:EthernetII,hardwareaddress:0000-fc00-9276 IPv6packetframetype:EthernetII,hardwareaddress:0000-fc00-9276 Loopbackisnotset Mediatypeistwistedpair,porthardwaretypeis1000_BASE_TPortpriority:0 1000Mbps-speedmode,full-duplexmode Linkspeedtypeisautonegotiation,linkduplextypeisautonegotiation Flow-controlisnotenabled Maximumframelength:9216 Lastclearingofcounters:Never Peakinputrate:8bytes/sec,at2016-03-1909:20:48 Peakoutputrate:1bytes/sec,at2016-03-1909:16:16 Last300secondinput:26560packets/sec123241940bytes/sec99% Last300secondoutput:0packets/sec0bytes/sec0% …… 如链路出现环路： 排查链路连接、端口配置是否正确。 对于二层口，是否使能STP协议，配置是否正确。 对于二层口，邻接设备STP状态是否正常。 如以上配置均正确，可能为STP协议计算错误或协议计算正确但端口驱动层没有正常Block阻塞，可以shutdown环路上端口、拔插端口让STP重新计算来快速恢复业务。 (4)确定CPU占用率高的任务如果通过上述步骤无法解决故障，请通过displayprocesscpu命令观察占用CPU最多的任务。 &lt;Sysname&gt;displayprocesscpuslot1 CPUutilizationin5secs:2.4%;1min:2.5%;5mins:2.4% JID5Sec1Min5MinName10.0%0.0%0.0%scmd 20.0%0.0%0.0%[kthreadd] 30.0%0.0%0.0%[migration/0]40.0%0.0%0.0%[ksoftirqd/0] 50.0%0.0%0.0%[watchdog/0] 60.0%0.0%0.0%[migration/1] 70.0%0.0%0.0%[ksoftirqd/1] 80.0%0.0%0.0%[watchdog/1] 90.0%0.0%0.0%[migration/2] 100.0%0.0%0.0%[ksoftirqd/2] 110.0%0.0%0.0%[watchdog/2] …… 各列分别表示某任务平均5sec、1min、5min占用CPU的百分比和任务名。某任务占用率越高，说明相应的任务占用CPU的资源越多。正常情况任务对CPU的占用率一般低于5%，这个命令可以查看明显高出正常占用率的任务。 (5)确认异常任务的调用栈通过Probe视图下的followjobjob-id命令确认异常任务的调用栈，请查询5次以上，发送给技术支持人员分析，以便于分析该任务具体在做什么处理导致CPU占用率持续升高。此处以显示JID145的调用栈为例。 &lt;Sysname&gt;system-view [Sysname]probe [Sysname-probe]followjob145slot1Attachingtoprocess145([dGDB]) Iteration1of5 ------------------------------ Kernelstack: [&lt;ffffffff80355290&gt;]schedule+0x570/0xde0 [&lt;ffffffff80355da8&gt;]schedule_timeout+0x98/0xe0 [&lt;ffffffff802047e4&gt;]ep_poll+0x4b4/0x5e0 [&lt;ffffffffc05587a8&gt;]DRV_Sal_EVENT_Read+0x1f8/0x290[system] [&lt;ffffffffc07351e4&gt;]drv_sysm_gdb_console+0xc4/0x2d0[system] [&lt;ffffffffc1a04114&gt;]thread_boot+0x84/0xa0[system] [&lt;ffffffff8015c420&gt;]kthread+0x130/0x140 [&lt;ffffffff801183d0&gt;]kernel_thread_helper+0x10/0x20 Iteration2of5 ------------------------------ Kernelstack: [&lt;ffffffff80355290&gt;]schedule+0x570/0xde0 [&lt;ffffffff80355da8&gt;]schedule_timeout+0x98/0xe0 [&lt;ffffffff802047e4&gt;]ep_poll+0x4b4/0x5e0 [&lt;ffffffffc05587a8&gt;]DRV_Sal_EVENT_Read+0x1f8/0x290[system] [&lt;ffffffffc07351e4&gt;]drv_sysm_gdb_console+0xc4/0x2d0[system] [&lt;ffffffffc1a04114&gt;]thread_boot+0x84/0xa0[system] [&lt;ffffffff8015c420&gt;]kthread+0x130/0x140 [&lt;ffffffff801183d0&gt;]kernel_thread_helper+0x10/0x20 Iteration3of5 ------------------------------ Kernelstack: [&lt;ffffffff80355290&gt;]schedule+0x570/0xde0 [&lt;ffffffff80355da8&gt;]schedule_timeout+0x98/0xe0 [&lt;ffffffff802047e4&gt;]ep_poll+0x4b4/0x5e0 [&lt;ffffffffc05587a8&gt;]DRV_Sal_EVENT_Read+0x1f8/0x290[system] [&lt;ffffffffc07351e4&gt;]drv_sysm_gdb_console+0xc4/0x2d0[system] [&lt;ffffffffc1a04114&gt;]thread_boot+0x84/0xa0[system] [&lt;ffffffff8015c420&gt;]kthread+0x130/0x140 [&lt;ffffffff801183d0&gt;]kernel_thread_helper+0x10/0x20 Iteration4of5 ------------------------------ Kernelstack: [&lt;ffffffff80355290&gt;]schedule+0x570/0xde0 [&lt;ffffffff80355da8&gt;]schedule_timeout+0x98/0xe0 [&lt;ffffffff802047e4&gt;]ep_poll+0x4b4/0x5e0 [&lt;ffffffffc05587a8&gt;]DRV_Sal_EVENT_Read+0x1f8/0x290[system] [&lt;ffffffffc07351e4&gt;]drv_sysm_gdb_console+0xc4/0x2d0[system] [&lt;ffffffffc1a04114&gt;]thread_boot+0x84/0xa0[system] [&lt;ffffffff8015c420&gt;]kthread+0x130/0x140 [&lt;ffffffff801183d0&gt;]kernel_thread_helper+0x10/0x20 Iteration5of5 ------------------------------ Kernelstack: [&lt;ffffffff80355290&gt;]schedule+0x570/0xde0 [&lt;ffffffff80355da8&gt;]schedule_timeout+0x98/0xe0[&lt;ffffffff802047e4&gt;]ep_poll+0x4b4/0x5e0 [&lt;ffffffffc05587a8&gt;]DRV_Sal_EVENT_Read+0x1f8/0x290[system] [&lt;ffffffffc07351e4&gt;]drv_sysm_gdb_console+0xc4/0x2d0[system] [&lt;ffffffffc1a04114&gt;]thread_boot+0x84/0xa0[system] [&lt;ffffffff8015c420&gt;]kthread+0x130/0x140 [&lt;ffffffff801183d0&gt;]kernel_thread_helper+0x10/0x20 (6)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志 相关告警无 相关日志 •CPU_STATE_NORMAL •CPU_MINOR_RECOVERY •CPU_MINOR_THRESHOLD •CPU_SEVERE_RECOVERY •CPU_SEVERE_THRESHOLD 3.1.6USB状态异常 </t>
   </si>
   <si>
-    <t xml:space="preserve">本类故障的常见原因主要包括： •USB设备故障。 •USB口无法识别插入的USB设备。 3.故障分析 本类故障的诊断流程如图6所示：图6USB状态异常故障诊断流程图 4.处理步骤 (1)查看设备USB的信息，检查USB状态是否正常 &lt;Sysname&gt;displaydeviceusbslot1: DeviceName:usbaState:Absent 如果USB状态显示为Absent，则表示设备的USB口未识别插入的USB设备。 (2)尝试更换其他USB设备插入设备USB口 (3)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警无 相关日志无 3.2电源类故障 3.2.1电源模块状态异常 </t>
-  </si>
-  <si>
     <t xml:space="preserve">本类故障的常见原因主要包括： •电源模块型号和主机不匹配。 •电源模块安装不到位。 •电源线缆没有插牢。 •电源模块温度过高。 •电源模块故障。 3.故障分析 本类故障的诊断流程如图7所示。 图7故障诊断流程图 4.处理步骤 (1)检查电源模块的型号是否和主机型号匹配。 (2)检查设备连接的供电系统：确认供电系统正常供电，电压正常。 (3)通过电源模块上的指示灯初步判断电源模块是否存在输出短路、输出过流、输出过压、输入欠 压、温度过高等问题。不同主机电源指示灯状态有所差异，具体请参见相应主机的硬件手册。 (4)检查电源模块状态。 使用displaypower命令显示电源模块状态，查看是否存在Fault、Error或Absent状态的 电源模块。 &lt;Sysname&gt;displaypower Slot1: PowerIDStateModeCurrent(A)Voltage(V)Power(W) 1NormalDC----0 2FaultAC----0 (5)如果电源模块状态为Absent，请按如下子步骤进行定位处理。 a.请将该电源模块拆卸后重新安装，重新安装前请检查电源连接器是否完好。 b.重新安装后，该电源模块的状态未恢复为Normal，则请将该电源模块与正常的电源模块更换槽位再做一次交叉验证。 c.如果该电源模块仍然显示为Absent，则请更换新的电源模块。 d.更换新的电源模块后，此故障仍然存在，请执行步骤7。 (6)如果电源模块状态为Fault或Error，请按如下子步骤进行定位处理。 a.检查电源线是否脱落或者是否正确连接。 b.如果电源线连接正常，交叉验证下电源线是否故障。 c.如果电源线正常，可能是电源模块本身温度过高导致。请查看电源模块积灰情况，如果灰尘较多，请清理灰尘，并将电源模块拆卸后重新安装。 d.重新安装后，电源模块状态未恢复为Normal，请将该电源模块与正常的电源模块更换槽位做一次交叉验证。 e.如果该电源模块仍然显示为Fault状态，请更换电源模块。 f.更换新电源模块后，此故障仍然存在，请执行步骤7。 (7)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警无 相关日志 •DEV/2/POWER_FAILED •DEV/3/POWER_ABSENT 3.3风扇类故障 3.3.1风扇模块状态异常 </t>
   </si>
   <si>
@@ -889,9 +856,6 @@
     <t xml:space="preserve">•只有一条路由，无法形成ECMP •BGP团体属性和扩展团体属性配置不同 •路由中携带了default-gateway扩展团体属性 •存在其他路由协议干扰 3.故障分析 本类故障的诊断流程如图34所示。 图34故障处理流程图 4.故障处理步骤 (1)检查是否存在到达同一目的网络的多条路由 通过displaybgpl2vpnevpnroute-distinguisherroute-typeip-prefix 命令查看是都存在到达同一目的网络RD相同、下一跳不同的多条路由。如果只有一条路由，则无法进行ECMP；如果存在多条路由，则继续进行以下操作。 (2)检查路由的团体属性和扩展团体属性是否一致 通过displaybgpl2vpnevpnroute-distinguisherroute-distinguisherevpn-routeroute-length命令查看EVPN路由的详细信息。判断到达同一目的网络的多条路由携带的BGP团体属性和扩展团体属性是否相同。如果不同，则修改通过配置修改路由的BGP团体属性和扩展团体属性；否则，无法形成ECMP。 (3)检查路由是否携带default-gateway属性 通过displaybgpl2vpnevpnroute-distinguisherroute-distinguisherevpn-routeroute-length命令查看EVPN路由的详细信息，判断路由中是否携带default-gateway扩展团体属性。若携带该扩展团体属性，则路由之间不能形成ECMP。 (4)检查是否存在其他路由协议的路由通过displayiprouting-tablevpn-instance命令查看是否存在其他路由协议生成 的到达该目的网络的路由。如果存在，请通过preference命令修改BGP路由的优先级，使得BGP路由优于其他路由协议生成的路由（优先级数值越小表明优先级越高）。 (5)检查是否配置进行BGP负载分担的路由条数 通过displaybgprouting-tableipv4vpn-instance命令查看是否存在相同前缀 的多条路由，如果存在多条，但是只有一条为最优路由（带有“&gt;”标记），则执行displaycurrent-configurationconfigurationbgp命令检查BGP-VPNIPv4单播地址族视 图下是否配置了balance命令。如果没有配置，则执行balance命令配置进行BGP负载分担的路由条数大于1。 5.告警与日志 相关告警无 相关日志 无 5基础配置类故障处理 5.1登录设备类故障处理 5.1.1Console口密码遗忘 </t>
   </si>
   <si>
-    <t xml:space="preserve">本类故障的常见原因主要包括： •Telnet客户端和设备间网络不畅通。 •Telnet客户端未启用Telnet相关功能。 •设备未开启Telnet服务。 •VTY用户线下未配置支持Telnet协议。 •登录用户名、密码不正确。 •登录设备的用户数达到了上限。 •设备上配置了对Telnet用户的访问控制，Telnet客户端不在所引用ACL的规则中permit的用户范围之内。 •认证方式配置不正确。 •当Telnet客户端和Telnet服务器均为我司设备时，用户未从Telnet客户端上指定的发送Telnet报文的源地址或源接口登录Telnet服务器。 3.故障分析 本类故障的诊断流程如图37所示。 图37Telnet登录失败的故障诊断流程图 4.处理步骤 (1)检查客户端能否Ping通设备。 用户在Telnet客户端上执行ping命令查看Telnet客户端和设备之间网络连接情况。如果不能Ping通设备的IP地址，表示Telnet客户端和设备无法建立Telnet连接，则Telnet客户端登录将失败。无法Ping通设备，也可能是终端设备禁Ping导致。请参见“Ping和Tracert故障处理手册”继续定位，确保Telnet客户端与设备之间的网络畅通。 (2)检查客户端上是否启用Telnet相关功能。通常，在PC机上新建Telnet连接前，需要在PC上的“打开或关闭Windows功能”中启用“Telnet客户端”功能。移动端等其他类型的设备作为Telnet客户端时，开启Telnet相关功能的详细介绍和使用方法请参见该设备的使用指导。 (3)检查设备侧是否开启Telnet服务。缺省情况下，Telnet服务处于关闭状态。如果系统视图下执行displaythis命令后，没有显示telnetserverenable的配置信息，表示Telnet服务处于关闭状态。请先执行telnetserverenable命令开启Telnet服务，确保设备允许客户端通过Telnet登录。 (4)查看VTY用户线支持的协议是否包含Telnet协议。 在VTY用户线或VTY用户线类视图下执行displaythis命令， 如果显示配置信息中不包含protocolinboundtelnet或protocolinboundall，表示用户线下不支持Telnet协议。 非FIPS模式下，由于系统默认支持所有协议，如果显示配置信息中包含undoprotocolinbound，或者不包含protocolinbound相关配置，表示系统支持所有协议。若用户线下不支持Telnet协议，请配置protocolinboundtelnet或protocolinboundall命令来允许Telnet协议类型的登录用户接入。 &lt;Sysname&gt;system-view [Sysname]linevty063 [Sysname-line-vty0-63]authentication-modescheme [Sysname-line-vty0-63]protocolinboundall 需要注意的是，修改protocolinbound的配置将在用户下次使用该用户线登录时生效。 (5)检查客户端登录设备的用户名和密码是否正确。当用户向设备发起Telnet连接，在Telnet客户端按照提示输入登录设备的用户名和密码后，若系统提示认证失败，则建议重新输入用户名和密码，再次尝试登录设备。如果依旧登录失败， 可以查看LOGIN/5/LOGIN_INVALID_USERNAME_PWD日志，若日志中显示类似如下内容时表示用户输入无效的用户名或密码： LOGIN/5/LOGIN_INVALID_USERNAME_PWD:Invalidusernameorpasswordfromvty0. 如果忘记正确的登录用户名或密码，请修改认证方式为不认证，或重置密码，并通知用户再次 户线类视图下执行authentication-modenone命令，设置用户登 录设备时的认证方式为不认证，用户不需要输入用户名和密码，就可以使用该用户线登录设备，但这种方式存在安全隐患，请谨慎配置。 &lt;Sysname&gt;system-view [Sysname]linevty063 [Sysname-line-vty0-63]authentication-modenone 如果登录用户的认证方式为密码认证，在用户线视图或用户线类视图下执行setauthenticationpassword命令来重新设置认证密码。 &lt;Sysname&gt;system-view [Sysname]linevty063 [Sysname-line-vty0-63]authentication-modepassword [Sysname-line-vty0-63]setauthenticationpasswordsimplehello12345&amp;！ 如果登录用户的认证方式为AAA认证，请参见“AAA&amp;PasswordControl故障处理手册”重置密码。(6)检查登录设备的用户数是否达到了上限。从Console口登录到设备，在任意视图下执行displayusers命令查看当前的Telnet用户数。缺省情况下，同时在线的Telnet用户数上限为32个。可以查看TELNETD/6/TELNETD_REACH_SESSION_LIMIT日志，若日志中显示类似如下内容，表示Telnet登录用户达到上限： TELNETD/6/TELNETD_REACH_SESSION_LIMIT:Telnetclient1.1.1.1failedtologin.ThecurrentnumberofTelnetsessionsis10.Themaximumnumberallowedis(10). 如果登录设备的用户数已经达到了上限，可以先断开其他空闲Telnet用户的连接，或者执行aaasession-limittelnet命令增加允许同时在线的最大用户连接数，然后再向设备发起Telnet连接。(7)查看设备上是否引用了ACL对Telnet用户的访问进行控制。 在系统视图下执行displaythis命令，如果显示telnetserveracl、telnetserveripv6acl相关配置信息，表示引用了ACL对访问设备的Telnet的用户进行控制。 确认所引用的ACL规则中允许了Telnet客户端的IP地址、端口号、协议号等。可以查看TELNETD_ACL_DENY日志，若日志中显示类似如下内容，表示TelnetACL规则限制登录IP地址： TELNETD/5/TELNETD_ACL_DENY:TheTelnetConnection1.2.3.4(vpn1)requestwasdeniedaccordingtoACLrules. 执行undotelnetserveracl或undotelnetserveripv6acl命令来取消 ACL对Telnet用户的访问限制。(8)检查设备上认证方式配置是否正确。在任意视图下执行displayline命令查看用户线下用户登录设备时的认证方式，其中“Auth”字段表示使用该用户线登录的用户的认证方式，取值为“A”表示使用AAA认证方式，取值为“N”表示无需认证，取值为“P”表示使用当前用户线的密码进行认证。 如果使用命令authentication-modepassword配置了VTY用户线下的登录认证方 如果使用命令authentication-modesche(式为密码认证，还需要确保设置了认证密码。)me设置认证方式为AAA，则必须确保已经创建了AAA认证用户。具体请参见“AAA&amp;PasswordControl故障处理手册”。 (9)当Telnet客户端和Telnet服务器均为我司设备时，检查Telnet客户端上是否配置了发送Telnet 在系统视图下执行displ(报文的源地址或源接口。)aythis命令，如果显示中包含telnetclientsource的相关配置信息，表示Telnet客户端上指定了发送Telnet报文的源IPv4地址和源接口，请确保用户从Telnet客户端上指定的源IPv4地址或源接口登录Telnet服务器。若登录失败，请选择以下配置后重新尝试登录： 执行telnetclientsource命令重新配置发送Telnet报文的源IPv4地址或源接口。 执行undotelnetclientsource命令来恢复缺省情况，即不指定发送Telnet报文的源IPv4地址和源接口，使用报文路由出接口的主IPv4地址作为Telnet报文的源地址。需要注意的是， 在用户视图下执行telnet命令也可以指定Telnet报文的源接口或源IPv4地址，若同时使用telnetclientsource命令和telnet命令指定源IPv4地址或源接口，则以telnet命令指定的源IP地址或源接口为准。 在IPv6组网环境下，可以通过用户视图下的telnetipv6命令来指定Telnet报文的源接口或源IPv6地址。 (10)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志 相关告警无 相关日志 •LOGIN/5/LOGIN_FAILED •LOGIN/5/LOGIN_INVALID_USERNAME_PWD •TELNETD/5/TELNETD_ACL_DENY •TELNETD/6/TELNETD_REACH_SESSION_LIMIT 5.2硬件资源管理故障处理 5.2.1CPU占用率高 本类故障的常见原因主要包括： •网络攻击。 •协议震荡，通常为STP震荡、路由协议震荡等。 •网络环路。 •设备上配置了流采样功能，需要处理的流量太大或者设备采样频率太高，导致采样功能占用大量CPU资源。 •设备产生海量日志，设备生成和管理这些日志需要占用大量CPU资源。 3.故障分析 本类故障的诊断流程如图38所示。 图38CPU占用率高的故障诊断流程图 4.处理步骤 (1)确认设备是否受到网络攻击。 现网中，导致设备CPU占用率高最常见的原因是网络攻击。攻击者发起大量非正常网络交互对设备产生冲击，例如短时间内发送大量TCP连接建立请求报文或者ICMP请求报文，设备忙于处理这些攻击报文，导致CPU占用率高，从而影响设备正常业务的运行。 如果受到了网络攻击，则先解决网络攻击问题。 如果未受到网络攻击，则执行步骤(2)。 (2)确认设备是否出现协议震荡。协议震荡会导致设备不断地处理协议报文、计算拓扑、更新表项，引起CPU占用率高。在实际应用中，最常见的协议震荡为STP协议震荡和OSPF协议震荡。 对于STP协议震荡，在系统视图执行stpport-log命令打开端口状态变化日志显示开关，如果命令行界面频繁输出以下日志，则说明出现了STP协议震荡。 STP/6/STP_DETECTED_TC:Instance0'sportGigabitEthernet1/0/1detectedatopologychange. STP/6/STP_DISCARDING:Instance0'sportGigabitEthernet1/0/1hasbeensettodiscardingstate. STP/6/STP_NOTIFIED_TC:Instance0'sportGigabitEthernet1/0/1wasnotifiedatopologychange. −如果STP协议震荡，请先排除STP协议震荡问题。 对(−)OSPF协议震荡，执行于displayip(如果STP协议没有震荡，则继续定位。)routing-table命令，查看路由信息。如果路由表项中相同网段的路由条目被频繁反复地创建和删除，则表示路由震荡。 −如果路由震荡，或者路由一直不存在，则先排除链路问题和IGP路由问题。−如果路由没有震荡，则执行步骤(3)。 (3)确认是否存在网络环路。 当以太网接口工作在二层模式并且链路存在环路时，可能出现广播风暴和网络振荡。大量的协议报文上送CPU处理，从而导致CPU占用率升高。当存在网络环路时，设备很多端口的流量会明显变大，且广播和组播报文占比较大。可通过以下步骤来确认设备是否存在网络环路，设备是否存在广播、组播、未知单播报文风暴。a.清除接口的统计信息。 &lt;Sysname&gt;resetcountersinterface b.多次执行displaycountersrateinboundinterface命令查看端口使用率是否 明显增大。 &lt;Sysname&gt;displaycountersrateinboundinterfaceUsage:Bandwidthutilizationinpercentage InterfaceUsage(%)Total(pps)Broadcast(pps)Multicast(pps)GE5/3/00.017----MGE0/31/00.011----MGE0/32/00.015---- VMC1/1/00.0560---- VMC1/2/00.0452---- Overflow:Morethan14digits. --:Notsupported. c.如果端口使用率明显增大，可继续多次执行displaycountersinboundinterface 命令查看接口收到的总报文数、广播和组播报文的数量，分别对应显示信息中Total(pkt)、Broadcast(pkt)、Multicast(pkt)字段的取值。如果广播和组播报文的增长速度快，广播、组播报文在接口收到的总报文数中占比大，则可能出现广播/组播风暴。如果广播和组播报文数量没有明显增加，但是接口收到的总报文数明显增加，则可能出现未知单播报文风暴。 &lt;Sysname&gt;displaycountersinboundinterface InterfaceTotal(pkt)Broadcast(pkt)Multicast(pkt)Err(pkt)GE5/3/0141271110MGE0/31/0274866476960--MGE0/32/010630346848082--VMC1/1/0111577977274558500 VMC1/2/096538985619640520 Overflow:Morethan14digits(7digitsforcolumn"Err"). --:Notsupported. 如链路出现环路，可进行如下处理：−排查链路连接，避免物理拓扑出现环路。 −使用displaystp命令检查STP协议是否使能，配置是否正确。如果配置错误，请 −使用displ(修改配置。)aystpbrief和displaystpabnormal-port命令检查邻接设备STP状态是否正常。请根据displaystpabnormal-port命令显示信息中的BlockReason字段的取值，定位并解决STP异常问题。如STP配置均正确，可能为STP协议计算错误或协议计算正确但端口驱动层没有正常Block阻塞，可以在发生环路的接口上执行shutdown/undoshutdown命令或者拔插网线让STP重新计算来快速恢复STP功能，消除环路。 −在以太网接口视图下，使用broadcast-suppression命令开启端口广播风暴抑制功能，使用multicast-suppression命令开启端口组播风暴抑制功能，使用unicast-suppression命令开启端口未知单播风暴抑制功能。或者使用flow-control命令配置流量控制功能。（broadcast-suppression、multicast-suppression、unicast-suppression和flow-control命令仅部 分设备支持，如不支持这些命令请忽略此处理方式）−使用QoS策略针对组播、广播和未知单播报文进行限速。 如未出现环路，请执行步骤(4)或步骤（5）。 (4)对于支持流统计和采样功能的设备：确认是否配置了流统计和采样功能，以及配置的参数是否合适。当设备上配置了NetStream、sFlow等网络流量监控功能后，设备会对网络流量进行统计分析。如果网络流量较高，可能会导致CPU占用率偏高。此时，可进行以下处理：配置过滤条件来精确匹配流量，仅统计分析用户关心的流量。 配置采样器，调整采样比例，使得NetStream、sFlow收集到的统计信息既能基本反映整个网络的状况，又能避免统计报文过多影响设备转发性能。 (5)对于仅支持采样功能的设备：确认是否配置了采样功能，以及配置的参数是否合适。当设备上配置了sFlow等网络流量监控功能后，设备会对网络流量进行统计分析。如果网络流量较高，可能会导致CPU占用率偏高。此时，可进行以下处理：配置采样器，调整采样比例，使得sFlow收集到的统计信息既能基本反映整个网络的状况，又能避免统计报文过多影响设备转发性能。 (6)确认设备当前是否正在生成海量日志。某些异常情况下，例如，设备受到攻击、运行中发生了错误、端口频繁Up/Down等，设备会不停地产生诊断信息或日志信息。此时系统软件要频繁的读写存储器，会造成CPU占用率升高。 允许日志信息输出到当前终端。 &lt;Sysname&gt;terminalmonitor Thecurrentterminalisenabledtodisplaylogs. 配置该命令后，如果有大量异常日志或者重复日志输出到命令行界面，则说明设备正在生 重复执行dis(成海量日志。)playlogbuffersummary命令，如果日志信息总量有明显的增加，再使用displaylogbufferreverse命令查看日志详情，确认是否有大量异常日志或者某一条信息大量重复出现。 &lt;Sysname&gt;displaylogbuffersummary SlotEMERGALERTCRITERRORWARNNOTIFINFODEBUG 1002924121280 5000417282097004211147400 &lt;Sysname&gt;displaylogbufferreverse Logbuffer:Enabled Maxbuffersize:1024 Actualbuffersize:512 Droppedmessages:0 Overwrittenmessages:0 Currentmessages:410 %Jan1508:17:24:2592021SysnameSHELL/6/SHELL_CMD: -Line=vty0-IPAddr=192.168.2.108-User=**;Commandisdisplaylogbuffer %Jan1508:17:19:7432021SysnameSHELL/4/SHELL_CMD_MATCHFAIL: -User=**-IPAddr=192.168.2.108;Commanddisplaylogfileinviewshellfailedtobematched. ... 如果设备正在生成海量日志，可以通过以下方法减少日志的生成： ess命令禁止指定模块日志的输出。 使用info-centerloggingsuppressduplicates命令开启重复日志抑制功能。如果设备未生成海量日志，则执行步骤(6)。 (7)收集CPU占用率相关信息，找到CPU占用率高的业务模块。 a.确定对CPU占用率高的任务。 #在设备上执行displayprocesscpu命令查看一段时间内占用CPU最多的任务。下面以slot1上的操作为例。 &lt;Sysname&gt;displayprocesscpuslot1 CPUutilizationin5secs:0.4%;1min:0.2%;5mins:0.2% JID5Sec1Min5MinName 10.0%0.0%0.0%scmd 25.5%5.1%5.0%[kthreadd]30.0%0.0%0.0%[ksoftirqd/0] ...如果某个进程的CPU占用率高于3%（经验值供参考），则需要针对该进程继续定位。#在设备上执行monitorprocessdumbtty命令实时查看进程在指定CPU上的占用率。下面以slot1CPU0为例。 &lt;Sysname&gt;system-view [Sysname]monitorprocessdumbttyslot1cpu0 206processes;342threads;5134fds Threadstates:4running,338sleeping,0stopped,0zombie CPU0:99.04%idle,0.00%user,0.96%kernel,0.00%interrupt,0.00%steal CPU1:98.06%idle,0.00%user,1.94%kernel,0.00%interrupt,0.00%steal CPU2:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%stealCPU3:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%steal CPU4:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%steal Memory:7940Mtotal,5273Mavailable,pagesize4K JIDPIDPRIStateFDsMEMHH:MM:SSCPUName 322322115R00K01:48:0320.02%[kdrvfwdd2] 323323115R00K01:48:0320.02%[kdrvfwdd3] 324324115R00K01:48:0320.02%[kdrvfwdd4] 376376120S22159288K00:00:070.37%diagd 11120S1830836K00:00:020.18%scmd 379379120S22173492K00:00:110.18%devd 22120S00K00:00:000.00%[kthreadd] 33120S00K00:00:020.00%[ksoftirqd/0] … −在monitorprocessdumbtty命令显示信息中找到CPU占用率超过3%（经验值供参考）的进程的JID，再对这些进程执行displayprocessjob命令，收集进程的详细信息，并确认该进程是否运行在控制核上。 如果displayprocessjob命令的显示信息中LAST_CPU字段的取值为控制核的编号（例如0～1），则说明该进程运行在CPU控制核上，则需要进一步定位；如果显示信息中LAST_CPU字段的取值为非控制核的编号，则说明该进程运行在CPU转发核上，无需关注，请执行步骤(7)。下面以pppd进程为例，通过显示信息可以看到，该进程包含多个线程，这些线程都运行在控制核上。 &lt;Sysname&gt;displayprocessnamepppd JobID:515PID:515 ParentJID:1 ParentPID:1 Executablepath:/sbin/pppd Instance:0 Respawn:ON Respawncount:1 Max.spawnsperminute:12 Laststarted:WedNov309:52:002021 Processstate:sleeping Max.core:1 ARGS:--MaxTotalLimit=2000000 --MaxIfLimit=65534--CmdOption=0x01047fbf--bSaveRunDb--pppoechastenflag=1 --pppoechastennum=6--pppoechastenperiod=60--pppoechastenblocktime=300 --pppchastenflag=1--pppchastennum=6--pppchastenperiod=60 --pppchastenblocktime=300--PppoeKChasten--bSoftRateLimit--RateLimitToken=2048 TIDLAST_CPUStackPRIStateHH:MM:SS:MSECName5150136K115S0:0:0:90pppd 5490136K115S0:0:0:0ppp_misc 5570136K115S0:0:0:10ppp_chasten 6100136K115S0:0:0:0ppp_work06111136K115S0:0:0:0ppp_work1 6121136K115S0:0:0:0ppp_work2 6131136K115S0:0:0:0mp_main 6181136K115S0:0:0:110pppoes_main6191136K115S0:0:0:100pppoes_mesh 6201136K115S0:0:0:120l2tp_mesh 6211136K115S0:0:0:20l2tp_main −对于运行在控制核、CPU占用率超过5%的进程，查看进程的Name字段的取值来确定该进程是否为用户态进程。 如果Process的Name取值中包含“[]”，表示它是内核线程，无需执行monitorthreaddumbtty命令；如果Process的Name取值中未包含“[]”，表示它是用户态进程，它可能包含多个线程。对于多线程的用户态进程，还需要对该用户态进程执行monitorthreaddumbtty命令，如果显示信息中某线程LAST_CPU字段的取值为CPU控制核的编号，且CPU字段取值大于5%，则该线程可能为导致CPU控制核占用率高的线程，需要进一步定位。 &lt;Sysname&gt;monitorthreaddumbttyslot1cpu0 206processes;342threads;5134fds Threadstates:4running,338sleeping,0stopped,0zombie CPU0:98.06%idle,0.97%user,0.97%kernel,0.00%interrupt,0.00%steal CPU1:97.12%idle,0.96%user,0.96%kernel,0.96%interrupt,0.00%steal CPU2:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%stealCPU3:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%steal CPU4:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%steal Memory:7940Mtotal,5315Mavailable,pagesize4K JIDTIDLAST_CPUPRIStateHH:MM:SSMAXCPUName 3223222115R00:04:21020.15%[kdrvfwdd2]3233233115R00:04:21020.15%[kdrvfwdd3] 3243244115R00:04:21020.15%[kdrvfwdd4] 111120S00:00:02210.19%scmd 3763761120S00:00:0010.19%diagd220120S00:00:0000.00%[kthreadd] ... b.确认异常任务的调用栈。 在Probe视图下执行followjob命令确认异常任务的调用栈。下面以Sysname上（slot 1）pppd进程（进程编号为515）的操作为例。 &lt;Sysname&gt;system-view [Sysname]probe [Sysname-probe]followjob515slot1 Attachingtoprocess515(pppd) Iteration1of5 ------------------------------ ThreadLWP515:Switches:3205 Userstack: #00x00007fdc2a3aaa8cinepoll_wait+0x14/0x2e #10x0000000000441745inppp_EpollSched+0x35/0x5c #20x0000000000000004in?? Kernelstack: [&lt;ffffffff811f0573&gt;]ep_poll+0x2f3/0x370 [&lt;ffffffff811f06c0&gt;]SyS_epoll_wait+0xd0/0xe0 [&lt;ffffffff814aed79&gt;]system_call_fastpath+0x16/0x1b[&lt;ffffffffffffffff&gt;]0xffffffffffffffff ThreadLWP549:Switches:20 Userstack: #00x00007fdc2a3aaa8cinepoll_wait+0x14/0x2e #10x00000000004435d4inppp_misc_EpollSched+0x44/0x6c Kernelstack: [&lt;ffffffffffffffff&gt;]0xffffffffffffffff ... c.根据a和b步骤找到任务名称，再根据任务名称找到对应的业务模块，定位并处理业务模块的问题。例如，如果任务snmpd的CPU占用率较高，可能是因为设备受到了SNMP攻击，或者NMS对设备的访问太频繁。需要进一步定位SNMP业务模块的问题；如果任务nqad的CPU占用率较高，可能是因为NQA探测太频繁，需要进一步定位NQA业务模块的问题。 (8)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志 相关告警 •hh3cEntityExtCpuUsageThresholdNotfication •hh3cEntityExtCpuUsageThresholdRecover •hh3cCpuUsageSevereNotification •hh3cCpuUsageSevereRecoverNotification •hh3cCpuUsageMinorNotification •hh3cCpuUsageMinorRecoverNotification 相关日志 •DIAG/5/CPU_MINOR_RECOVERY •DIAG/4/CPU_MINOR_THRESHOLD •DIAG/5/CPU_SEVERE_RECOVERY •DIAG/3/CPU_SEVERE_THRESHOLD 5.3软件升级故障处理 5.3.1设备启动失败 </t>
-  </si>
-  <si>
     <t xml:space="preserve">本类故障的常见原因主要包括： •IRF成员设备数量超出了产品支持的规格，导致新设备无法加入现有的IRF。 •配置不符合IRF要求，导致无法组建IRF，或者新设备无法加入现有的IRF。 •IRF物理端口、线缆和物理拓扑不符合IRF要求，导致IRF链路无法达到up状态。 3.故障分析 本类故障的诊断流程如图40所示。 图40IRF组建失败故障诊断流程图 4.处理步骤 本文仅列出组建IRF的常规要求，以供参考。组建IRF的完整要求请参见产品配套的《IRF配置指导》。 (1)检查IRF成员数量是否已达到系统支持的最大值。 请使用displayirf命令查看当前IRF中的成员设备数量。如果IRF成员数量已经达到系统支持的最大值，则不允许再加入成员设备。 同一IRF域内，不同型号的产品支持的IRF成员最大数量不同，请以设备的实际情况为准。 (2)检查各成员设备使用的软件版本是否一致。 使用displayversion命令查看每台设备当前运行的软件版本，只有使用相同软件版本的设备才能组成IRF。 IRF系统启动文件自动加载功能（缺省为开启状态）可以自动将成员设备的软件版本与IRF中主设备进行同步，但是在成员设备与主设备的软件版本差异过大时，自动升级可能无法成功执行。此时，需要分别升级每台成员设备，使得所有成员设备的软件版本一致，之后再组建IRF。如果成员设备使用双主控，请同时升级两块主控板，保证所有成员设备的所有主控板上运行的软件版本相同。 (3)检查IRF的配置是否满足相关要求。 a.确保设备运行在IRF模式。 部分产品出厂即为IRF模式，且不支持模式切换；部分产品出厂为独立运行模式，支持模式切换。如果设备当前支持displayirflink或者displayirftopology命令， 则说明设备运行在IRF模式。否则，设备运行在独立运行模式，需要先在系统视图执行chassisconvertmodeirf命令将设备切换到IRF模式。 &lt;Sysname&gt;displayirf? &gt;Redirectittoafile &gt;&gt;Redirectittoafileinappendmode configurationIRFconfigurationthatwillbevalidafterrebootlinkDisplaylinkstatustopologyTopologyinformation |Matchingoutput &lt;cr&gt; 不支持模式切换的设备，请忽略此步骤。 b.确保设备的成员编号在IRF中唯一。 请使用displayirf命令查看IRF中各成员设备的成员编号。IRF中各成员设备必须使用不同的编号，编号相同的设备不能建立或加入IRF。设备缺省成员编号为1，在独立运行模式下可通过irfmember命令修改，在IRF模式下可通过irfmemberrenumber命令修改（不支持模式切换的产品，可通过irfmemberrenumber命令修改成员编号）。 修改后需要保存配置并重启该设备，新编号才能生效。 c.确保各成员设备的出厂桥MAC地址不同 具有相同出厂桥MAC的成员设备之间不能组成IRF。通常情况下，设备出厂会携带全网唯 一的桥MAC地址。如果IRF组建失败，且输出了日志信息“FailedtostackbecauseofthesamebridgeMACaddresses.”，则表明两台设备的出厂桥MAC相同，可在其中一台设备上执行irfmac-address命令修改桥MAC。（不支持irfmac-address命令的设备，请忽略此步骤） d.确保同一IRF系统中所有成员设备的IRF域编号一致。IRF域编号不影响IRF的组建和合并，但是会影响MAD检测。为了使MAD功能正常工作，请确保同一IRF系统中所有成员设备的IRF域编号一致。IRF域编号缺省值为0。在单台设备上执行displayirf命令，可通过显示信息中的DomainID字段查看IRF域编号。 如果设备的IRF域编号和其它设备不同，可在该设备上执行irfdomain命令修改。 (4)检查IRF端口的状态，使其变成UP状态。 IRF端口是一种专用于IRF连接的逻辑接口，需要与物理端口绑定后才能生效。请通过displayirftopology命令显示信息的Link字段来确认IRF端口的状态。 &lt;Sysname&gt;displayirftopology TopologyInfo ------------------------------------------------------------------------- IRF-Port1IRF-Port2 MemberIDLinkneighborLinkneighborBelongTo 2DIS---UP15e40-08d9-0104 1UP2DIS---5e40-08d9-0104 如果Link字段取值为UP，则表示IRF端口连接正常，无需处理。 如果Link字段取值为DIS，则表示该IRF端口还没有和任何IRF物理端口绑定。请根据组网需要在IRF端口视图下使用portgroupinterface命令进行绑定。 如果Link字段取值为DOWN，请使用displayirflink命令进一步检查IRF物理端口的状态是否为UP。 −如果IRF物理端口的状态为UP，但IRF端口的状态为DOWN，原因可能是IRF端口的配置未激活。请在系统视图下执行irf-port-configurationactive命令激活IRF端口。 −如果IRF物理端口的状态不是UP，请参照步骤(5)定位IRF物理端口的问题。 如果Link字段取值为TIMEOUT，表明IRFHello报文超时，IRF链路通信存在问题。可参照以下步骤先定位IRF报文超时问题。 −确认是否因为对端IRF端口状态异常，导致IRF报文无法互通：登录IRF链路的对端设备，在对端设备上执行displayirftopology和displayirflink，根据显 −确认是否存在网络环路，导(示的状态信息进行定位。)致IRF报文丢包：使用displaycountersrateinboundinterface命令查看IRF物理端口的报文速率统计信息，确认IRF链路上是否存在报文风暴。如果存在报文风暴，请检查是否存在物理环路以及VLAN和STP配置是否正确等，先解决报文风暴问题。 −使用displaydevice命令检查网板状态是否正常。如果不正常，请先定位网板问题。 如果Link字段取值为ISOLATE，表明该成员设备处于隔离状态。执行displaylogbuffer|include“STMstackabilitycheck”，并根据显示结果处理： −如果显示信息中包含“STMstackabilitycheck:Productseriesisinconsistency”字样，则说明成员设备的型号不符合IRF要求，请参考步骤(7)处理。 −如果显示信息中包含“STMstackabilitycheck:Productxxxisinconsistency”字样， xxx取值可能为systemworkingmode等，则说明当前系统参数配置不符合IRF要求，请参考步骤(8)处理。 (5)检查IRF物理端口的状态，使其变成UP状态。请通过displayirflink命令查看IRF物理端口的状态。如果显示信息中： Interface字段取值为disable，表示该IRF端口还没有和IRF物理端口绑定。 Interface字段为物理接口的名称，请继续检查Status字段。Status字段的取值及含义如下： −UP：链路up，无需处理 −DOWN：链路down，请检查IRF物理端口的光模块/光纤或者电缆是否工作正常。请使用符合产品要求的物理接口作为IRF物理端口，使用符合产品要求的线缆来连接IRF物理端口，并执行步骤(6)。 −ADM：表示该接口通过shutdown命令被关闭，即管理状态为关闭。您需要执行undoshutdown命令将其开启。 −ABSENT：接口不存在。请插入单板或接口模块扩展卡。 (6)检查IRF物理连线是否符合要求。 可通过以下步骤来定位IRF物理连接问题： a.在每台成员设备上通过displayirfconfiguration命令查看IRF端口与IRF物理 端口的绑定关系。检查绑定的物理接口和实际连接的物理接口是否一致，如果不一致，请重新配置绑定关系或重新进行物理连接。 b.检查IRF物理端口的连接状况，是否满足相邻设备的连接要求。连接两台相邻的成员设备时，一台设备上IRF-Port1绑定的IRF物理端口只能和邻居成员设备IRF-Port2绑定的IRF物理端口相连。且当两台成员设备组建IRF时，只能使用链型拓扑，不允许使用环形拓扑。 (7)检查成员设备的硬件是否符合IRF的要求。请使用符合产品要求的硬件组建IRF，例如设备型号、主控板、接口板、IRF物理接口的类型必须符合要求。可以通过如下方式查看当前设备的型号、主控板型号等，以判断设备硬件是否符合IRF要求。例如：S10500X-G系列交换机仅支持同一型号的交换机之间建立IRF且IRF中所有成员设备的主控板型号必须相同。 #使用displayversion命令查看设备型号。 &lt;Sysname&gt;displayversion H3CComwareSoftware,Version7.1.070,ESS7752P01 Copyright(c)2004-2022NewH3CTechnologiesCo.,Ltd.Allrightsreserved. H3CS10506X-Guptimeis0weeks,0days,18hours,11minutes Lastrebootreason:USERreboot … #使用displaydevice命令查看主控板的型号。 &lt;Sysname&gt;displaydevice SlotTypeStateSubslotSoftVerPatchVer 1/0LSEM1SUPA0Master0S10500XG-7752P01None1/1NONEAbsent0NONENone 1/2NONEAbsent0NONENone 1/3LSEM1GT48TSSD0Normal0S10500XG-7752P01None1/4NONEAbsent0NONENone 1/5NONEAbsent0NONENone 1/6NONEAbsent0NONENone 1/7NONEAbsent0NONENone1/8LSEM1SF06D0Normal0S10500XG-7752P01None1/9NONEAbsent0NONENone 1/10NONEAbsent0NONENone 1/11NONEAbsent0NONENone… (8)检查系统参数配置是否满足IRF的要求。 通常组成IRF的设备上要求某些系统参数或软件特性配置相同，例如： 在组成IRF的所有设备上，系统工作模式的配置（通过system-working-mode命令配 IRF在组成的所有设备上，硬件资源模式(置）必须相同，否则这些设备将无法组成)的配置(IRF。)（通过hardware-resourceswitch-mode命令配置）必须相同，否则这些设备将无法组成IRF。 请确保两个IRF上都配置或都取消IRF增强功能，否则，它们不能合并为一个IRF。 同时配置MDC和IRFMAD检测功能的情况下，请将IRF物理端口和MAD检测VLAN都配置在缺省MDC中，并请先为MDC分配物理接口再配置MAD功能。 在IRF分裂后，以及再次合并前，请确保各成员设备上MDC的相关配置以及IRF的相关undomdc命令删除使用M(配置和分裂前的保持一致。)DC时，建议先使用displayirflink命令查看该MDC中是否有IRF物理端口，如果该MDC中有IRF物理端口，请先取消IRF物理端口与IRF端口的绑定关系并保存配置后再删除MDC。 在组成IRF的所有设备上，以下路由相关配置必须相同，否则这些设备将无法组成IRF。−最大等价路由条数（通过max-ecmp-num命令配置）。 −等价路由模式（通过ecmpmode命令配置）。 −前缀大于64位的IPv6路由功能（通过hardware-resourcerouting-modeipv6-128命令配置）。 在组成IRF的所有设备上，ACL硬件模式的相关配置都必须相同，否则这些设备将无法组成IRF。 在组成IRF的所有设备上，VXLAN硬件资源模式的配置（通过hardware-resourcevxlan命令配置）必须相同，否则这些设备将无法组成IRF。以上仅例举典型产品的情况，不同产品的具体要求不同，请以设备的实际情况为准，具体可参见产品配套的配置指导。 (9)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志 相关告警 模块名：HH3C-STACK-MIB •hh3cStackPhysicalIntfLinkDown(1.3.6.1.4.1.25506.2.91.6.0.8)•hh3cStackPhysicalIntfRxTimeout(1.3.6.1.4.1.25506.2.91.6.0.9)相关日志 •STM/3/STM_LINK_DOWN •STM/2/STM_LINK_TIMEOUT •STM/6/STM_LINK_UP •STM/4/STM_SAMEMAC •STM/3/STM_SOMER_CHECK 6.1.2IRF成员设备异常重启 </t>
   </si>
   <si>
@@ -928,9 +892,6 @@
     <t xml:space="preserve">本类故障的常见原因主要包括： •链路连通性故障。 •本端和对端的操作key、属性类配置不一致。 •聚合成员端口数配置错误。 3.故障分析 本类故障的诊断思路如下： (1)查看成员端口是否UP，排除端口物理故障影响。 (2)使用debugginglink-aggregationlacppacket命令查看动态聚合的成员端口LACP 协议交互情况。 (3)检查本端和对端聚合接口配置，排除配置影响。 本类故障的诊断流程如图55所示。 图55聚合成员端口无法选中的故障诊断流程图 4.处理步骤 (1)排查物理连线是否正确。 根据聚合接口的组网规划进行线路检查，确认物理链接线路是否完全按照规划连接。 如果物理连线正确，则执行步骤(2)。 (2)聚合组中成员端口是否UP。通过displayinterface命令查看聚合组中的成员端口是否处于UP状态，如果没有UP，请按照端口不UP故障流程处理。 如果端口处于UP状态，则执行步骤(3)。 (3)本端成员端口的属性类配置与聚合接口是否相同。 a.执行displaylink-aggregationverbose命令查看本端处于Unselected状态的成员端口。 以二层聚合接口为例，Status字段显示为“U”时，表示该成员处于Unselected状态： &lt;Sysname&gt;displaylink-aggregationverbose LoadsharingType:Shar--Loadsharing,NonS--Non-Loadsharing PortStatus:S--Selected,U--Unselected,I--Individual Port:A--Autoport,M--Managementport,R--Referenceport Flags:A--LACP_Activity,B--LACP_Timeout,C--Aggregation, D--Synchronization,E--Collecting,F--Distributing, G--Defaulted,H--Expired AggregateInterface:Bridge-Aggregation1CreationMode:Manual AggregationMode:DynamicLoadsharingType:Shar ManagementVLANs:None SystemID:0x8000,2a41-21c1-0100 Local: PortStatusPriorityIndexOper-KeyFlag GE1/0/1(R)S3276811{ACDEF} GE1/0/2S3276821{ACDEF}GE1/0/3U3276832{AC}Remote: ActorPriorityIndexOper-KeySystemIDFlag GE1/0/132768110x8000,36f6-c0aa-0200{ACDEF} GE1/0/232768210x8000,36f6-c0aa-0200{ACDEF} GE1/0/332768310x8000,36f6-c0aa-0200{AC} b.执行displaycurrent-configurationinterface命令查看本端处于Unselected 状态的成员端口的属性类配置（VLAN等配置）与聚合接口是否相同，如果不同，则将其配置相同。 以如下显示为例，处于Unselected状态的成员端口GigabitEthernet1/0/3与参考端口GigabitEthernet1/0/1的属性类配置不同，导致该成员端口无法选中，需要修改成员端口 GigabitEthernet1/0/3的属性类配置。 &lt;Sysname&gt;displaycurrent-configurationinterfacegigabitethernet1/0/1 # interfaceGigabitEthernet1/0/1 portlink-modebridgeportlink-typetrunkporttrunkpermitvlan1to20portlink-aggregationgroup1 #return &lt;Sysname&gt;displaycurrent-configurationinterfacegigabitethernet1/0/3 # interfaceGigabitEthernet1/0/3portlink-typetrunkporttrunkpermitvlan1to100portlink-aggregationgroup1 #return如果本端成员端口的属性类配置与聚合接口相同，则执行步骤(4)。 (4)本端成员端口的操作key与参考端口是否相同。 a.执行displaylink-aggregationverbose命令查看本端处于Unselected状态的成员端口。 以二层聚合接口为例，Status字段显示为“U”时，表示该成员处于Unselected状态： &lt;Sysname&gt;displaylink-aggregationverbose LoadsharingType:Shar--Loadsharing,NonS--Non-Loadsharing PortStatus:S--Selected,U--Unselected,I--Individual Port:A--Autoport,M--Managementport,R--Referenceport Flags:A--LACP_Activity,B--LACP_Timeout,C--Aggregation, D--Synchronization,E--Collecting,F--Distributing, G--Defaulted,H--Expired AggregateInterface:Bridge-Aggregation11CreationMode:Manual AggregationMode:DynamicLoadsharingType:Shar ManagementVLANs:None SystemID:0x8000,2a41-21c1-0100 Local: PortStatusPriorityIndexOper-KeyFlag GE1/0/1(R)S3276811{ACDEF} GE1/0/2S3276821{ACDEF}GE1/0/3U3276832{AC}Remote: ActorPriorityIndexOper-KeySystemIDFlag GE1/0/132768110x8000,36f6-c0aa-0200{ACDEF} GE1/0/232768210x8000,36f6-c0aa-0200{ACDEF} GE1/0/332768310x8000,36f6-c0aa-0200{AC} b.执行displaycurrent-configurationinterface命令查看本端处于Unselected 状态的成员端口的操作key（包括该端口的速率、双工模式等）与参考端口是否相同，如果不同，则将其配置相同。 以如下显示为例，处于Unselected状态的成员端口GigabitEthernet1/0/3与参考端口GigabitEthernet1/0/1的操作key不同，导致该成员端口无法选中，需要修改该端口速率配置。 &lt;Sysname&gt;displaycurrent-configurationinterfacegigabitethernet1/0/1 # interfaceGigabitEthernet1/0/1portlink-modebridgecomboenablefiber portlink-aggregationgroup11 #return &lt;Sysname&gt;displaycurrent-configurationinterfacegigabitethernet1/0/3 # interfaceGigabitEthernet1/0/3portlink-modebridgecomboenablefiberspeed100 portlink-aggregationgroup11 #return如果本端成员端口的操作key与参考端口相同，则执行步骤(5)。 (5)本端聚合接口是否为动态聚合。如果是动态聚合，则执行步骤(6)；如果是静态聚合，否则进行步骤(8)。(6)LACP报文收发是否正确。 执行debugginglink-aggregationlacppacket命令确认LACP报文收发是否正确。执行命该令后，查看成员端口send信息中Actor信息和receive信息中Partner信息。如果sys-mac、key和port-index字段的显示不一致，则LACP协议报文收发不正常，请排除收发光纤错接问题；如果sys-mac、key和port-index字段的显示一致，则LACP协议报文收发正常，请执行步骤(7)。打开聚合组成员端口GigabitEthernet1/0/1的LACP报文调试信息开关，查看该端口收发LACP协议报文的情况。 &lt;Sysname&gt;debugginglink-aggregationlacppacketallinterfacegigabitethernet1/0/1*Nov215:51:21:152021SysnameLAGG/7/Packet:PACKET.GigabitEthernet1/0/1.send.size=110,subtype=1,version=1 Actor:type=1,len=20,sys-pri=0x8000,sys-mac=00e0-fc02-0300,key=0x1,pri=0x8000,port-index=0x2,state=0xc5 Partner:type=2,len=20,sys-pri=0x0,sys-mac=0000-0000-0000,key=0x0,pri=0x0,port-index=0x0,state=0x32 Collector:type=3,len=16,col-max-delay=0x0Terminator:type=0,len=0 *Nov215:55:21:152021SysnameLAGG/7/Packet:PACKET.GigabitEthernet1/0/1.receive.size=110,subtype=1,version=1 Actor:type=1,len=20,sys-pri=0x8000,sys-mac=00e0-fc00-0000,key=0x1,pri=0x8000,port-index=0x6,state=0xd Partner:type=2,len=20,sys-pri=0x8000,sys-mac=00e0-fc02-0300,key=0x1,pri=0x8000,port-index=0x2,state=0xc5 Collector:type=3,len=16,col-max-delay=0x0 Terminator:type=0,len=0 (7)本端成员端口的对端端口的操作key和属性类配置与参考端口的对端端口是否相同。 在本端Unselected端口的对端设备上执行displaycurrent-configuration interface命令查看对端Unselected端口的属操作key和属性类配置与参考端口的对端端口是否相同，如果不同，则将其配置相同。 如果本端成员端口的对端端口的操作key和属性类配置与参考端口的对端端口相同，则执行步骤(8)。 (8)聚合成员端口数量是否达到阈值。 聚合成员端口数超过上限。 可在聚合接口视图下通过link-aggregationselected-portmaximum命令配置聚合组中的最大选中端口数。通过displaylink-aggregationverbose命令查看聚 合组中成员端口数是否超过上限，如果超过上限，则多出来的端口为Unselected状态， Selected端口按照端口编号从小到大排序。请在成员端口视图下使用undoport link-aggregationgroup命令将Selected端口中不适用的端口从聚合组中删除，以 使必须使用的端口能够选中。 聚合成员端口数低于下限。 可在聚合接口视图下执行link-aggregationselected-portminimum命令配置聚合组中的最小选中端口数。通过displaylink-aggregationverbose命令查看聚 合组中成员端口是否低于下限，如果低于下限，则所有成员端口为Unselected状态。请执行link-aggregationselected-portminimum命令修改最小选中端口数值或者为 聚合组添加成员端口，使其满足最小选中要求。 如果聚合成员端口数量未达到聚合组的阈值，则执行步骤(9)。 (9)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警无 相关日志无 8.3生成树故障处理 8.3.1设备连接成环时业务中断 </t>
   </si>
   <si>
-    <t xml:space="preserve">本类故障的常见原因主要包括： •学习到的ARP表项参数异常。 •学习到的ARP表项没有成功下发驱动。 3.故障分析 本类故障的诊断流程如图61所示。 图61已有ARP表项但无法转发流量故障诊断流程图 4.处理步骤 (1)检查ARP表项是否成功创建。通过displaysysteminternaladj4entry命令查看 ARP表项信息，以接口GigabitEthernet1/0/1、对端IP地址为1.1.1.2为例。 &lt;Sysname&gt;system-view [Sysname]probe [Sysname-probe]displaysysteminternaladj4entry1.1.1.2interfacegigabitethernet 1/0/1 ADJ4entry: Entryattribute:0x0 Servicetype:Ethernet Linkmediatype:Broadcast Actiontype:Forwarding Entryflag:0x0Forwardtype:0x0 Slot:0 MTU:1500 Driverflag:2 SequenceNo:17 Physicalinterface:GE1/0/1 Logicalinterface:N/A Virtualcircuitinformation:65535 ADJindex:0xdc731e70 Peeraddress:0.0.0.0 Referencecount:0 ReferenceSequence:9 MicroSegmentID:0 Nexthopdriver[0]:0xffffffff Nexthopdriver[1]:0xffffffff Drivercontext[0]:0xffffffffDrivercontext[1]:0xffffffffDrivercontext[2]:0xffffffff Drivercontext[3]:0xffffffff Drivercontext[4]:0xffffffff Drivercontext[5]:0xffffffff Linkheadinformation(IP):68cb9c3f020668cb978f01060800Linkheadinformation(MPLS):68cb9c3f020668cb978f01068847 如果“Actiontype”字段为“Forwarding”，则代表设备正常转发来自1.1.1.2的流量，设备无故障。 如果“Actiontype”字段为“Drop”，则表示没有成功创建ARP表项。 −如果“Driverflag”字段为“4”，代表驱动资源不足，请检查驱动的使用情况。 −如果“Driverflag”字段不为“4”，请继续执行第(2)步。 (2)检查ARP表项是否成功下发到驱动。通过debuggingsysteminternaladj4命令并指定hardware参数打开IPv4邻接表下驱动调试功能。通过resetarp命令清除ARP表项，然后通过ping命令向对端设备发送报文来触发ARP表项的学习，查看ARP表项下发驱动的情况。 &lt;Sysname&gt;system-view [Sysname]probe [Sysname-probe]debuggingsysteminternaladj4hardware [Sysname-probe]ping1.1.1.2 Ping1.1.1.2(1.1.1.2):56databytes,pressCTRL+Ctobreak 56bytesfrom1.1.1.2:icmp_seq=0ttl=255time=2.015ms *Apr2215:57:56:1732022SysnameARP/7/ARP_SEND:-MDC=1;SentanARPmessage,operation:1,senderMAC:68cb-978f-0106,senderIP:1.1.1.1,targetMAC:0000-0000-0000,targetIP:1.1.1.2 *Apr2215:57:56:1732022SysnameARP/7/ARP_RCV:-MDC=1;ReceivedanARPmessage,operation:2,senderMAC:68cb-9c3f-0206,senderIP:1.1.1.2,targetMAC:68cb-978f-0106,targetIP:1.1.1.1 *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_ENTRY:-MDC=1; -------------ADJ4Entry------------ IPaddress:1.1.1.2Routeinterface:GE1/0/1 Servicetype:Ethernet Actiontype:Forwarding Linkmediatype:Broadcast Physicalinterface:GE1/0/1 Logicalinterface:N/A VSIIndex:4294967295 VPNIndex:0 MicroSegmentID:0 MicSegOrigin:5 VirtualCircuitinformation:0xffff Sequence:1Sequenceforaging:1Slot:0 MTU:1500 *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_ENTRY:-MDC=1; AddADJentryfinished,Result:0 *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_HARDWARE:-MDC=1; ====StartADJLINKAdd==== *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_HARDWARE:-MDC=1; ---------------NewEntry-------------Servicetype:Ethernet Linkmediatype:Broadcast Actiontype:Forwarding EntryAttr:0 IPaddress:1.1.1.2Routeinterface:GE1/0/1 Portinterface:N/ASlot:0 MTU:1500 VLANID:65535 SecondVLANID:65535 Physicalinterface:GE1/0/1 Logicalinterface:N/A VRFindex:0 VSIindex:-1 VSIlinkID:65535 UsrID:-1 MACaddress:68cb-9c3f-0206 Linkheadlength(IP):14 Linkheadlength(MPLS):14 Linkheadinformation(IP):68cb9c3f020668cb978f01060800 Linkheadinformation(MPLS):68cb9c3f020668cb978f01068847 *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_HARDWARE:-MDC=1; -----------NewEntryDrvContext--------- Nexthopdriver [0]:0xffffffff[1]:0xffffffffDrivercontext [0]:0xffffffff[1]:0xffffffff[2]:0xffffffff[3]:0xffffffff[4]:0xffffffff[5]:0xffffffff TRILLVNdrivercontext [0]:0xffffffffffffffff[1]:0xffffffffffffffff *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_HARDWARE:-MDC=1; ====EndADJLINKOperate==== Result:0x0,Referenceflag:0x0,Synflag:0x0 56bytesfrom1.1.1.2:icmp_seq=1ttl=255time=1.061ms 56bytesfrom1.1.1.2:icmp_seq=2ttl=255time=0.908ms 56bytesfrom1.1.1.2:icmp_seq=3ttl=255time=0.625ms 56bytesfrom1.1.1.2:icmp_seq=4ttl=255time=0.580ms ---Pingstatisticsfor1.1.1.2--- 5packet(s)transmitted,5packet(s)received,0.0%packetlossround-tripmin/avg/max/std-dev=0.580/1.038/2.015/0.520ms [Sysname-probe]%Apr2215:57:56:9862022SysnamePING/6/PING_STATISTICS:-MDC=1;Pingstatisticsfor1.1.1.2:5packet(s)transmitted,5packet(s)received,0.0%packetloss,round-tripmin/avg/max/std-dev=0.580/1.038/2.015/0.520ms. 如果“Result”字段为“0x0”，则代表ARP表项成功下发到驱动，请继续执行第(3)步。 如果“Result”字段不为“0x0”，则代表ARP表项没有下发到驱动，请在H3C技术支持工程师的指导下检查硬件资源的使用情况。(3)请执行如下命令，并收集显示信息，发送给H3C技术支持工程师。 执行debuggingsysteminternaladj4命令并指定notify参数。 执行debuggingsysteminternalipv4fibprefix命令。 (4)请收集如下信息，并联系H3C技术支持工程师。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 9.2ND故障处理 9.2.1无法学习到ND表项 </t>
-  </si>
-  <si>
     <t xml:space="preserve">本类故障的常见原因主要包括： •接口收到的NS报文的目的IPv6地址不是本机IPv6地址。 •对端设备触发了源MAC地址固定的ND攻击检测功能。 •对端设备触发了NDDetection功能。 3.故障分析 本类故障的诊断流程如图63所示。 图63不回应NS报文故障诊断流程图 4.处理步骤 (1)查看ARP报文信息，确认ARP报文是否已上送。 a.先通过debuggingipv6packet命令用来打开ND的报文调试信息开关，再使用对端 设备向本端发送NS报文。 &lt;Sysname&gt;debuggingipv6packet *Apr2613:33:34:8972022SysnameIP6FW/7/IP6FW_PACKET:-MDC=1; Receiving,interface=GigabitEthernet1/0/1,version=6,trafficclass=0,flowlabel=0,payloadlength=64,protocol=58,hoplimit=64,Src=1::2,Dst=1::1,prompt:ReceivedanIPv6packet. 如果“Dst”不是本机IPv6地址，请检查对端设备的路由表和转发表。 b().通过debugging(如果“Dst”是本机)ipv6error命(IP，请执行b。)令用来打开ND的错误调试信息开关，根据表10中的 内容确认设备不回应ND报文的原因。 表10debuggingipv6error命令输出信息描述表 (2)以本端接口接口GigabitEthernet1/0/1为例，通过displayipv6ndsource-mac命令显 示检测到的源MAC地址固定的ND攻击检测表项，查看对端设备的MAC是否被加入攻击表项中。 &lt;Sysname&gt;displayipv6ndsource-macinterfacegigabitethernet1/0/1 SourceMACVLANIDInterfaceAgingtime(sec)Packetsdropped 23f3-1122-33444094GE1/0/11084467 如果存在源MAC地址固定的ND攻击检测表项，且表项的MAC地址是对端设备的MAC地址，请根据业务情况通过ipv6ndsource-macthreshold命令配置源MAC地址固定的ND报文攻击检测阈值。 如果不存在对端设备MAC地址对应的源MAC地址固定的ND攻击检测表项，请执行(3)。 (3)通过displayipv6nddetectionstatistics命令显示NDDetection丢弃ND报文的统计信息，查看对端设备是否触发了NDDetection功能。 &lt;Sysname&gt;displayipv6nddetectionstatistics NDpacketsdroppedbyNDdetection:InterfacePacketsdropped GE1/0/178 如果与对端设备相连的接口丢弃的报文不为0，请检查NDDetection相关配置。 如果与对端设备相连的接口丢弃的报文为0，请执行(4)。 (4)通过displaysysteminternalarpstatistics命令显示各单板的ARP统计信息， (5)收集“Errorstatistics”字段中的内容，发送给systeminternalndstatistics(H3C技术支持工程师。以slot1为例，通过display)命令显示各单板的ND统计信息，确认是否有单板发生故障。 [Sysname-probe]displaysysteminternalndstatisticsslot1 Entrystatistics: Valid:1Dummy:0Packet:1OpenFlow:0Longstatic:0Shortstatic:0Tempnode:0Rule:0 Staticstatistics: Short:0Longinterface:0 Longport:0 Processstatistics: Input:7Resolving:11 Errorstatistics: Memory:0Sync:0Packet:0Parameter:0Anchor:0Getaddress:0RefreshFIB:0DeleteFIB:0RealtimeSync:0Tempnode:0 Exceedlimit:0Refreshrule:0Deleterule:0Smoothrulestart:0 Smoothruleend:0RA:0Origin:0FinalRA:0 通过“Input”字段查看单板是否正常的接收ND报文。 收集“Errorstatistics”字段中的内容，发送给H3C技术支持工程师。 (6)请收集如下信息，并联系H3C技术支持工程师。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志 相关告警无 相关日志无 9.2.3已有ND表项但无法转发流量 </t>
   </si>
   <si>
@@ -1120,9 +1081,6 @@
     <t xml:space="preserve">本类故障的常见原因主要包括： •网管通过SNMP协议无法成功连接设备。 •网管使用的SNMP版本和MIB节点不匹配。 •网管没有访问设备的权限。 •设备上的SNMP进程忙，无法对当前SNMP请求做出应答。 3.故障分析 本类故障的诊断流程如图175所示。 图175网管无法管理设备的故障诊断流程图 4.处理步骤 (1)检查网管是否可以通过SNMP协议连接设备。 如果网管通过SNMP协议无法成功连接设备，请参照SNMP连接失败故障处理流程进行处理。 (2)检查网管当前使用的SNMP协议版本是否支持访问该MIB节点。 例如snmpUsmMIB只支持通过SNMPv3协议访问；Integer32、Unsigned32和Counter64 数据类型仅SNMPv2c和SNMPv3版本支持。如果网管使用SNMPv1版本和设备相连，网管将无法访问Integer32、Unsigned32和Counter64数据类型的MIB节点。MIB节点的数据类型可通过MIB文件中节点的SYNTAX字段查看。 hh3cDhcpServer2BadNumOBJECT-TYPE SYNTAXCounter64 MAX-ACCESSread-only STATUScurrent DESCRIPTION "Thetotalnumberofthebadpacketsreceived." ::={hh3cDhcpServer2StatGroup1} 如果因为版本原因导致网管无法访问MIB节点，请将网管切换到SNMPv2c或SNMPv3版本后，与设备重新建立连接，再执行Get和Set操作。 (3)检查MIB节点是否支持当前的访问操作。请根据MIB节点支持的操作类型来访问设备。MIB节点支持的操作类型可通过MIB文件中节点的MAX-ACCESS字段查看。 hh3cDhcpServer2BadNumOBJECT-TYPE SYNTAXCounter64 MAX-ACCESSread-only STATUScurrent DESCRIPTION "Thetotalnumberofthebadpacketsreceived." ::={hh3cDhcpServer2StatGroup1} (4)检查网管的访问权限。如果访问权限不够，请在设备上修改对应配置，给网管授权。SNMP支持的访问控制方式包括： VACM（View-basedAccessControlModel，基于视图的访问控制模型）：将团体名/用户 名与指定的MIB视图进行绑定，可以限制NMS能够访问哪些MIB对象，以及对MIB对象不同的操作权限。通过displaycurrent-configuration|includeview命令可查看MIB视图相关配置，通过displaysnmp-agentmib-view命令可查看MIB视图的详细信息。如果配置错误，请修改MIB的相关配置。设备支持三种MIB视图： −Read-view：网管只能读取该视图中节点的值。 −Write-view：网管可读和写该视图中节点的值。 −Notify-view：当该视图中包含的Trap节点到达触发条件，网管会收到对应的Trap/Inform报文。 RBAC（RoleBasedAccessControl，基于角色的访问控制）：我司设备通过RBAC进行用户访问权限控制。RBAC的基本思想就是给用户指定角色，这些角色中定义了允许用户操作哪些系统功能以及资源对象。创建SNMPv3用户名时，可以绑定对应的用户角色，通过用户角色下制定的规则，来限制NMS能够访问哪些MIB对象，以及对MIB对象不同的操作权限。如果RBAC权限配置错误，可以通过rolename命令进入用户角色视图修改用户角色的规则。 −拥有network-admin、mdc-admin或level-15用户角色的SNMP团体/用户，可以对所有的MIB对象进行读写操作； −拥有network-operator或mdc-operator用户角色的SNMP团体/用户，可以对所有的 MIB对象进行读操作； −拥有自定义用户角色的SNMP团体/用户，可以对角色规则中指定的MIB对象进行操作。 为了安全起见，只有具有network-admin、mdc-admin或者level-15用户角色的用户登录设备后才能配置SNMP团体、用户或组。请确保登录用户具有network-admin、mdc-admin或者level-15用户角色，以免配置失败。 (5)检查SNMP进程是否繁忙。 网管对设备执行SNMPSet或Get等操作，设备无响应或者提示操作失败，还可能因为SNMP 进程忙，无法对当前SNMP请求做出应答，请参照SNMP操作超时故障处理流程进行处理。 (6)其它建议 建议网管通过业务接口访问设备，因为业务接口的报文处理能力优于网管口，以便SNMP报文能尽快得到处理。 当有多个NMS同时访问设备，且设备反应缓慢时，建议降低访问频率来减轻设备分担，例如将访问频率设置成大于等于5分钟。 (7)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警 模块名：SNMPv2-MIB •authenticationFailure(1.3.6.1.6.3.1.1.5.5) 相关日志 •SNMP/3/SNMP_ACL_RESTRICTION •SNMP/4/SNMP_AUTHENTICATION_FAILURE •SNMP/4/SNMP_IPLOCK（仅部分机型支持本日志） •SNMP/4/SNMP_IPLOCKSTAT（仅部分机型支持本日志） •SNMP/4/SNMP_SILENT（仅部分机型支持本日志） •SNMP/5/SNMP_IPUNLOCK（仅部分机型支持本日志） •SNMP/5/SNMP_IPUNLOCKSTAT（仅部分机型支持本日志） 21.5.4网管无法收到设备发送的Trap </t>
   </si>
   <si>
-    <t xml:space="preserve">本类故障的常见原因主要包括： •设备和网管之间路由不可达，或者SNMP功能异常，导致无法建立SNMP连接。 •设备侧和网管侧配置错误，导致网管无法收到设备发送的告警。 •设备侧业务模块没有产生告警。 •告警报文丢失，导致网管未收到设备发送的告警。 •SNMPTrap报文过大，超过SNMP模块对Trap报文大小的限制。 3.故障分析 本类故障的诊断流程如图176所示。 图176网管无法收到设备发送的Trap的故障诊断流程图 4.处理步骤 (1)在系统视图下通过snmp-agenttraplog命令开启SNMP告警日志功能。当设备向网管发 (2)送告警时，会同时在设备buffer|includeSNMP_NOTIFY通过(上生成一条日志来记录该Trap。displaylog)命令可以查看设备上是否生成Trap以及生成的Trap详情。 如果有显示信息，说明设备有Trap生成。请执行步骤(3)。 如果没有显示信息，说明SNMP模块未向外发送Trap。请执行步骤(4)。 (3)如果设备生成了Trap，但网管未收到Trap，请参照以下步骤定位。 a.检查设备是否可以和网管建立SNMP连接。如果连接建立失败，请参见SNMP连接失败 b.故障处isplaycurrent-configuration|(理流程解决SNMP连接建立失败问题。通过d)includesnmp命令查看snmp-agenttarget-hosttrap命令配置是否正确。如果不正确，请修改配置，保证指定的IP地址（VPN参数）和端口号与网管用来接收Trap报文的IP地址（网管所属VPN）和端口号一致，以及设备和网管使用的SNMP协议、安全字一致。 −如果使用SNMPv1或SNMPv2c版本，则安全字为团体名，请在设备上使用snmp-agentcommunity命令创建SNMP团体。 −如果使用SNMPv3版本，则安全字为用户名，且设备和网管使用的认证和加密级别必须相同。您需要在设备上使用snmp-agentgroup和snmp-agentusm-userv3命 令创建SNMPv3用户，创建用户时配置的认证和加密模式、认证密码和加密密码（如果用到）必须和网管侧一致，且创建用户时配置的认证和加密级别必须比snmp-agenttarget-hosttrap命令中指定的认证和加密级别高。安全级别分为：不认证不加密、认证不加密和认证加密，安全级别依次升高。 −团体名和用户名可访问的MIBview必须包含对应的MIB告警节点，否则，会因为权限 c.执debuggingudppacket命令打开UDP行(问题导致备不会将Trap报文发送给网管。)报文的调试信息开关，查看设备发送的Trap报文是否过大。如果业务模块封装的数据较多，可能会导致Trap报文大于设备能发送的 SNMP报文的最大长度，这样的Trap报文会被丢弃。此时可结合网络的MTU值以及是否支持分片情况，通过snmp-agentpacketmax-size命令修改设备能发送的SNMP报 文的最大长度。 *Dec2722:35:41:2032021SysnameSOCKET/7/UDP:-MDC=1; UDPOutput: UDPPacket:vrf=0,src=192.168.56.121/30912,dst=192.168.56.1/162len=79,checksum=0xd98fd.检查网络中是否存在防火墙过滤Trap报文。 −如果防火墙对报文的源IP进行了过滤，可使用snmp-(如果网络中设置了防火墙，可采用以下措施来解决问题：)agenttrapsource命令修改 Trap报文的源IP地址。 −修改防火墙的规则，放行Trap报文。 e.检查网络是否不稳定，存在丢包。 如果网络中存在丢包，可采用以下措施来解决问题： −检查网络，解决网络丢包问题。 −配置使用Inform报文发送告警信息。Inform有确认机制，比Trap更可靠。Inform仅 SNMPv2c和SNMPv3支持。 (4)SNMP模块未向外发送Trap，请参照以下步骤定位。 a.通过displaysnmp-agenttrap-list查看业务模块的告警功能是否开启。如未开启，可通过snmp-agenttrapenable命令开启。 b.检查是否达到告警条件。例如接口状态告警会在接口状态发生变化时产生，CPU和内存告警会在CPU、内存的利用率超过阈值时产生等。 −如未达到告警条件，未产生Trap，属正常现象，无需处理。 −如果达到告警条件，设备未向外发送Trap，请执行步骤(c)。 c.使用displaysnmp-agenttrapqueue命令查看Trap缓冲区是否被占满。如果 Messagenumber大于Queuesize，表示Trap缓冲区可能被占满，新生成的Trap报文可能被丢弃。此时，可在系统视图下使用snmp-agenttrapqueue-size和snmp-agenttraplife命令来调整Trap缓冲区性能参数。 (5)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警无 相关日志 •SNMP/6/SNMP_NOTIFY •SNMP/3/SNMP_INFORM_LOST 21.6镜像故障处理 21.6.1配置流镜像后监控设备收不到镜像报文 </t>
-  </si>
-  <si>
     <t xml:space="preserve">本类故障的常见原因主要包括： •目的接口与被监控网络间链路存在故障。 •QoS策略未被应用或者报文未匹配QoS策略。 •配置流行为时，指定的流镜像接口错误。 3.故障分析 本类故障的诊断流程如图177所示。 图177配置流镜像后监控设备收不到镜像报文的故障诊断流程图 4.处理步骤 (1)检查镜像源端口能否成功收发报文。 在源设备上执行displayinterfaceinterface-typeinterface-number命令，通 过显示信息中的“Input(total)”、“Output(total)”字段查看端口收发报文的统计值。 如果镜像源端口收发的报文的统计信息为0或者不变化，此时设备与被监控的网络之间可能存在链路故障（比如端口Down等），请排查解决。 如果镜像源端口收发的报文的统计信息不为0且不断变化，请执行步骤(2)。 (2)检查QoS策略是否被正确应用。 排查匹配待镜像报文的QoS策略是否被应用以及应用的QoS策略是否正确。 在源设备上执行displayqospolicyinterface命令检查镜像源端口上是否应用QoS 策略。 如果未应用，请根据实际组网需要，在镜像源端口上应用QoS策略。 如果已应用，继续检查QoS策略配置是否正确。在设备上执行displayqospolicy命令检查QoS策略的配置信息。显示信息中Classifier字段和Behavior字段分别对应配置的流分类和流行为。 −如果引用的错误，则在系统视图下执行qospolicy命令进入对应的QoS策略视图，执行classifierbehavior命令来修改QoS策略引用的流分类和流行为。QoS策 略的具体的定位修改，请参见“MQC方式配置的QoS策略未生效”。 −如果引用正确，请执行步骤(3)。 (3)检查目的端口是否有报文发出。 在目的设备上执行displayinterfaceinterface-typeinterface-number命令， 通过显示信息中的“Output(total)”字段查看端口发送的报文的统计值。 如果目的端口发出的报文的统计信息为0或者不变化。在设备上执行display interfaceinterface-typeinterface-number命令查看显示信息中的“Currentstate”字段，确认接口的物理状态是否为Up。 −如果为Up，请执行步骤。 −如果为Down，请排查处理接口物理Down的问题。 如果目的端口发出的报文的统计信息不为0且不断变化，请执行步骤(5)。 (4)检查在目的端口上应用的QoS策略中，流行为视图下配置的流镜像接口（通过mirror-tointerface命令配置）是否为目的端口。 如果不是，请通过mirror-tointerface命令将流镜像接口重新配置为正确的接口。 如果是，请执行步骤(5)。 (5)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警无 相关日志 •QOS_POLICY_APPLYIF_CBFAIL •QOS_POLICY_APPLYIF_FAIL •QOS_POLICY_APPLYGLOBAL_CBFAIL •QOS_POLICY_APPLYGLOBAL_FAIL 21.6.2配置端口镜像后监控设备收不到镜像报文 </t>
   </si>
   <si>
@@ -1800,14 +1758,6 @@
   </si>
   <si>
     <t>终端通过RA方式自动获取IPv6地址失败。无状态地址配置是指主机根据自己的链路层地址及路由器发布的前缀信息自动配置IPv6地址及相关信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端通过RA方式自动获取IPv6DNS信息失败。RA配置方式是指路由侧通过RA报文（Option25携带DNS信息）来进行IPv6DNS信息下发，也称为无状态地址配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端通过DHCPv6方式自动获取IPv6DNS信息失败。DHCPv6（DynamicHostConfigurationProtocolforIPv6）是针对IPv6编址方案设计的，为主机分配IPv6前缀、IPv6地址和其他网络配置参数的协议，其中就包括DNSServer地址信息，其工作机制与IPv4网络中的DHCP协议类似，也称为有状态地址配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2014,6 +1964,1502 @@
       </rPr>
       <t>如果相同，则执行步骤(7)。</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户在云平台上添加云AP设备后，云AP不能在云平台上线。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本类故障的常见原因主要包括： •应用了QoS策略的接口状态为Down，没有转发流量。 •流分类配置错误，不能匹配到转发流量。 •流分类中ACL规则匹配的流量执行了更高优先的策略。 3.故障诊断流程本类故障的诊断流程如图4-49所示。图4-49流量不匹配分类的故障诊断流程图 4.故障处理步骤 (1)检查接口物理链路状态是否正常。 在设备上执行displayinterface命令检查接口状态，例如： &lt;Sysname&gt;displayinterfacegigabitethernet1/0/1 GigabitEthernet1/0/1 Interfaceindex:386 Currentstate:AdministrativelyDOWN Lineprotocolstate:DOWN … a.如果Currentstate显示为AdministrativelyDOWN，则在接口下执行undoshutdown命令打开关闭的接口。 b.如果Currentstate显示为DOWN，则检查接口的物理连线。 c.如果接口物理链路正常，问题仍未解决，则请继续执行以下操作。 (2)检查设备接口下应用的QoS策略中的流分类配置。 在设备上执行displaytrafficclassifieruser-defined命令检查用户定义的流分类的配置信息，关于if-match命令的匹配规则详细信息，请参见“ACL和QoS命令参考”中的“QoS”。如果流分类的配置错误，则执行trafficclassifier命令进入该流分类视图，并执行if-match命令修改流分类的匹配规则。例如： [Sysname-classifier-1]if-matchdscpef [Sysname-classifier-1]displaythis trafficclassifieraoperatoror if-matchprotocolipv6if-matchdscpef 请确认Operator字段显示的各规则之间的逻辑关系是否准确。AND表示该流分类下的规则之间是逻辑与的关系，即数据包必须匹配全部规则才属于该类。OR表示该流分类下的规则之间是逻辑或的关系，即数据包匹配任一规则均属于该类。本例中，如果Rule(s)中流分类规则不止一条，且Operator显示字段为AND，则表示该流分类下的规则之间是逻辑与的关系，即数据包必须匹配全部规则才属于该类。此时，请执行trafficclassifier命令指定operator参数为or。 &lt;Sysname&gt;displaytrafficclassifieruser-defined User-definedclassifierinformation: Classifier:1(ID101)Operator:AND Rule(s): If-matchdscpef Classifier:2(ID102)Operator:AND Rule(s): If-matchdscpaf21 Classifier:3(ID103)Operator:AND Rule(s): If-matchdscpaf11 如果QoS策略中的流分类配置正确，问题仍未解决，则请继续执行以下操作。(3)当流分类中引用ACL规则进行流量报文匹配时，也可能由于该ACL规则匹配到的流量报文执行了其他更高优先的策略行为导致MQC方式配置的QoS策略未生效，不同策略行为的优先顺序为：在报文出方向：报文过滤&gt;全局应用MQC方式配置的QoS策略&gt;接口应用MQC方式配置的QoS策略。在报文入方向：报文过滤&gt;接口应用MQC方式配置的QoS策略&gt;全局应用MQC方式配置的QoS策略。 请执行displaycurrent-configuration命令检查当前生效的配置中是否存在上述更高优先级的策略行为相关配置。如果不存在相关配置，问题仍未解决，请继续执行以下操作。 (4)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息。 5.告警与日志 相关告警 无 相关日志 •QOS_POLICY_APPLYIF_CBFAIL •QOS_POLICY_APPLYIF_FAIL 图4-50RADIUS认证服务器下发动态VLAN不生效故障诊断流程图 6.处理步骤(1)检查RADIUSDAE服务功能是否开启。请在系统视图下执行displaycurrent-configuration|includeradius命令查看radiusdynamic-authorserver配置是否存在。 如果该配置存在，则执行radiusdynamic-authorserver命令进入RADIUSDAE服务器视图下检查RADIUSDAE客户端以及RADIUSDAE服务端口配置是否正确。 &lt;Sysname&gt;system-view [Sysname]radiusdynamic-authorserver [Sysname-radius-da-server]displaythis # radiusdynamic-authorserverport3790 clientip3.3.3.3keycipher$c$3$kiAORLht3S3rTCmFq0uWXPgV8PjI2Q==# 如果该配置不存在，则执行radiusdynamic-authorserver命令开启RADIUSDAE服务，并进入RADIUSDAE服务器视图配置RADIUSDAE客户端以及RADIUSDAE服务端口（下例中客户端的IP地址为1.1.1.1、共享密钥为123456、服务端口号为3798）。 &lt;Sysname&gt;system-view [Sysname]radiusdynamic-authorserver [Sysname-radius-da-server]clientip1.1.1.1keysimple123456 [Sysname-radius-da-server]port3798 (2)检查RADIUS服务器下发的VLAN属性内容是否准确。执行debuggingradiuspacket命令打开RADIUS报文调试信息开关，同时让RADIUS服务器尝试再次下发VLAN属性。 RADIUS服务器需要同时下发如下3个标准属性来下发VLAN信息： 64号属性Tunnel-Type，Integer类型，取值固定为13（VLAN） 65号属性Tunnel-Medium-Type，Integer类型，取值固定为6（IEEE802）。 81号属性Tunnel-Private-Group-Id，String类型，取值为具体的VLANID或VLAN名称。查看打印的RADIUS报文调试信息，检查COArequest报文信息中是否携带了上述三个标准属性，如下例所示。 *Aug302:33:18:7002021SysnameRADIUS/7/PACKET: ReceivedaRADIUSpacket ServerIP:128.11.3.48 NAS-IP:128.11.30.69 VPNinstance:--(public) Serverport:55805 Type:COArequest Length:41 PacketID:34User-Name="user" Tunnel-Type:0=VLAN Tunnel-Medium-Type:0=IEEE-802 Tunnel-Private-Group-Id:0="2" 如果打印的授权属性不准确，请联系RADIUS服务器管理员修改授权VLAN配置并尝试重新下发VLAN，否则继续定位。(3)检查用户是否成功获得下发的VLAN信息。 执行displaydot1xconnection或displaymac-authenticationconnection 命令，查看相关在线用户信息中是否存在服务器动态下发的授权VLAN信息：如果存在授权VLAN信息，说明VLAN下发成功。 如果不存在授权VLAN信息，说明VLAN没有下发成功。此时，建议在技术支持人员的指导下，结合RADIUS调试信息继续定位故障发生的原因。 (4)检查授权的VLAN是否存在。 执行displayvlanbrief命令查看动态下发的VLAN是否存在。如果该VLAN不存在，请在系统视图下执行vlanvlan-id命令创建。 (5)检查VLAN所在接口类型是否正确。 不同类型的接口成功加入授权VLAN的要求有所不同，具体配置要求请参见“安全配置指导”中的“802.1X”和“MAC地址认证”。 (6)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、调试信息、诊断信息。 7.告警与日志相关告警无 相关日志无 4.17无线故障处理 4.17.1未开启自动AP配置功能造成AP无法注册 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本类故障的常见原因主要包括： •AC版本过低，不支持通过RA报文下发IPv6DNSServer信息。 •Windows终端不支持通过RA方式自动获取IPv6DNS信息。 •设备侧RA配置错误，导致终端获取不到IPv6DNS信息。 •网络中设备VLAN配置不正确，导致二层网络不通，终端获取不到IPv6DNS信息。 •网络中设备的接口配置不正确，导致二层网络不通，终端获取不到IPv6DNS信息。 •无线终端与设备间的RS/RA报文交互流程出现问题，导致终端获取不到IPv6DNS信息。 3.故障分析 本类故障的诊断流程如图5-11所示。图5-11通过RA方式自动获取IPv6DNS信息失败故障排查流程图 4.处理步骤 (1)检查设备侧版本 E5420或者R5420之后的版本才支持通过RA方式下发IPv6DNS信息，AC版本过低会导致终端无法获取IPv6DNS信息。 在AC的任意视图下执行displayversion命令查看版本信息。 &lt;AC&gt;displayversion H3CComwareSoftware,Version7.1.064,Release5457 … 如果AC的版本过低，请升级AC版本。访问H3C官网获取版本文件，版本升级的操作步骤请参见H3C官网对应产品配置指导中的“基础配置指导/软件升级”。 如果AC的版本支持RA方式下发IPv6DNS信息，则继续执行步骤(2)。 (2)查看终端类型 部分安卓终端是不支持IPv6单协议栈。只有在IPv4+IPv6混合组网下，此类安卓终端才可能获取DNS相关信息。 Windows终端只支持通过DHCPv6的方式获取DNS地址信息，不支持通过RA报文自动获取IPv6DNS信息。 如果无线终端是Windows系统，请配置DHCPv6方式获取IPv6DNS信息，配置步骤请参见5.154.(4)。 如果无线终端不是Windows系统，请继续执行步骤(3)。 (3)检查网络中设备的VLAN配置 如果设备的VLAN配置不正确，会导致中间链路不通，此时无线终端无法获取IPv6地址。无线网络分为本地转发和集中转发两种转发方式，设备VLAN配置不同，具体配置原则如下。 集中转发： 集中转发模式下，客户端的数据流量由AP通过CAPWAP隧道透传到AC，由AC转发数据报文。实际使用中通常会划分AP上线的管理VLAN和无线终端接入的业务VLAN，数据报文通过管理VLAN发送至AC，AC再通过业务VLAN转发数据报文，所以需要在AC转发业务报文的链路上放通业务VLAN，否则终端无法取得IP地址。 业务VLAN有多种配置方式，其优先级为认证授权VLAN＞Radio接口绑定VLAN＞服务模板指定VLAN。 如图5-12所示，核心交换机作为网关，AC旁挂在核心交换机上，AP与接入交换机相连。 需要在AC转发无线业务报文的链路，即AC-Switch1链路放通业务VLAN200。 图5-12集中转发组网VLAN配置 GE1/0/2Vlan100Vlan200 本地转发： 本地转发模式下，无线终端和AC间会通过CAPWAP隧道交互控制报文，并由AP转发数据报文。实际使用中通常会区别AP上线的管理VLAN和无线终端接入的业务VLAN，所以需要在AP转发业务报文的链路上放通业务VLAN，否则终端无法取得IP地址。 业务VLAN有多种配置方式，其优先级为认证授权VLAN＞Radio接口绑定VLAN＞服务模板指定VLAN。 如图5-13所示，核心交换机作为网关，AC旁挂在核心交换机上，AP与接入交换机相连。 在AP转发无线业务报文的链路，即Switch1-Switch2-AP链路放通业务VLAN200。 图5-13本地转发组网AC配置 在设备的任意视图下执行displaycurrent-configuration命令查看全部VLAN配置。 如果网络中设备的VLAN配置不正确，请参照上文排查VLAN配置。 如果网络中设备的VLAN配置正确，请继续执行步骤(4)。 (4)检查网络中设备的接口配置物理接口配置错误可能导致VLAN放通失败，正确的接口配置如下。 集中转发：如图5-12所示组网中，需要将AC与网关Switch1链路的物理接口GE1/0/1和GE1/0/2配置为Trunk模式并允许业务VLAN200通过。 本地转发：如图5-13所示组网中，需要将AP的与上行设备的物理接口加入客户端上线的VLAN。可以在AC上通过编辑好的MAP文件，或远程配置功能下发给AP，本章节以MAP文件为例进行介绍。 无线终端在VLAN200上线，则需要将AP与Switch相连的接口interfaceGigabitEthernet 1/0/1加入VLAN200，MAP文件的内容如下： apcfg.txt的内容，要求为文本文件，按照命令行配置的顺序编写文本文件上传至AC即可，AC与AP关联后，通过map-configuration命令下发至AP生效。从而完成对AP的配置。 #apcfg.txt配置文件为：system-viewvlan200quit interfaceGigabitEthernet1/0/1portlink-typetrunkporttrunkpermitvlan200 还需要将网关Switch1下行接口、接入交换机链路Switch2的上下行物理接口配置为Trunk模式并允许VLAN200通过，Switch2与AP连接的GE1/0/2接口的PVID配置为 100。在设备的任意视图下执行displaycurrent-configuration命令查看全部VLAN配置。 如果网络中设备的接口配置不正确，请参照上文排查接口配置。 如果网络中设备的接口配置正确，请继续执行步骤(5)。 (5)检查设备侧RA配置设备侧RA配置不正确会导致无线终端无法通过RA方式获取IPv6DNS信息。通常以网关 Switch作为路由通告发布的设备，以下面配置为例： ComwareV7/V9设备： &lt;Switch&gt;system-view [Switch]interfaceVlan-interface2 [Switch-Vlan-interface2]ipv6address2001::1/64//配置设备接口IPv6地址及前缀长度信息 [Switch-Vlan-interface2]ipv6ndradnsserver2001::2100000sequence1//配置dnsserver信息 [Switch-Vlan-interface2]undoipv6ndrahalt//开启设备IPv6NDRA报文发送能力 ComwareV5设备： &lt;Switch&gt;system-view [Switch]ipv6//V5Switch需要全局使能IPv6功能，V7Switch默认已使能，不需要配置该命令 [Switch]interfaceVlan-interface2 [Switch-Vlan-interface2]ipv6address2001::1/64//配置设备接口IPv6地址及前缀长度信 [Sw(息)itch-Vlan-interface2]ipv6ndradnsserver2001::2100000sequence1//配置dnsserver信息 [Switch-Vlan-interface2]undoipv6ndrahalt//开启设备IPv6NDRA报文发送能力 在设备的任意视图下执行displaycurrent-configuration命令查看设备的全部配置。 如果设备侧RA配置不正确，请参照举例修改配置。 如果设备侧RA配置正确，请继续执行步骤(6)。 (6)如果故障仍然未能排除，请收集如下信息，并拨打热线400-810-0504求助。 在AC的进出口方向或无线终端侧抓包来查看终端和AC的RS/RA报文交互过程，判断交互过程中的哪一环节出错，以缩小故障处理范围。 查看终端是否发送RS请求报文： RS（路由器请求，RouterSolicitation）是一个组播报文，由主机侧发送，用于请求路由器迅速提供路由器公告，要求路由器立即产生路由器通告消息，而不必等待下一个预定时间。IP部分源地址为发送接口IPv6地址或全0，目的地址是链路本地范围内所有路由器的组播地址FF02::2。RS报文属于ICMP报文，在抓包软件（以Wireshark为例）中可以通过“icmpv6”关键字进行报文过滤。图5-14RS报文抓包示意图 查看AC是否回应终端RA报文： RA（路由器公告，RouterAdvertisement）。RA报文由路由器侧周期发送，通告它的存 在以及配置的链路和网络参数（这其中就包括DNS信息），或者以公告响应路由器请求。IP部分源地址为发送接口链路本地地址，目的地址为所有节点多播地址FF02::1。RA报文也属于ICMP报文，在Wireshak中可以通过“icmpv6”关键字进行报文过滤。 查看RA报文中是否有携带option25属性，是否包含了DNSServer的地址信息： 图5-15RA报文抓包示意图 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.15终端通过DHCPv6方式自动获取IPv6DNS信息失败 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>终端通过RA方式自动获取IPv6DNS信息失败。RA配置方式是指路由侧通过RA报文（Option25携带DNS信息）来进行IPv6DNS信息下发，也称为无状态地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本类故障的常见原因主要包括： •USB设备故障。 •USB口无法识别插入的USB设备。 3.故障分析 本类故障的诊断流程如图6所示：图6USB状态异常故障诊断流程图 4.处理步骤 (1)查看设备USB的信息，检查USB状态是否正常 &lt;Sysname&gt;displaydeviceusbslot1: DeviceName:usbaState:Absent 如果USB状态显示为Absent，则表示设备的USB口未识别插入的USB设备。 (2)尝试更换其他USB设备插入设备USB口 (3)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警无 相关日志无 3.2电源类故障 3.2.1电源模块状态异常 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">软件重启的主要原因包括内核异常、内存泄漏、看门狗重启和版本自动升级等。此外，无法判断的重启原因也归类为软件重启，例如CPU异常等。 3.故障分析 本类故障建议用户查看产品对应的版本说明书，尝试将设备升级至最新版本后，观察问题是否得到解决。 4.处理步骤 本类问题建议按照如下步骤排查： (1)升级设备版本 查看产品版本说明书中，是否有针对重启问题的解决问题列表或遗留问题列表，如果产品后续版本中将对应重启问题列入“解决问题列表”，则需要对设备进行版本升级。 (2)如果无法通过版本升级解决问题，请拨打H3C客户服务热线400-810-0504寻求帮助。 3硬件类故障处理 3.1系统类故障 3.1.1终端无显示或显示乱码 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当AP采用PoE供电方式时，本类故障的常见原因包括：网线不符合要求、PoE交换机重启、触发PoE交换机过载保护断电功能。 当AP通过电源适配器或PoE注入器供电时，本类故障的常见原因包括：供电设备不符合要求和供电设备损坏。 3.故障分析 本类故障的诊断流程如图6-1、图6-2所示。 图6-1设备掉电重启的故障诊断流程图（PoE供电方式） 图6-2设备掉电重启的故障诊断流程图（电源适配器或PoE注入器供电方式） 4.处理步骤 当AP采用PoE供电方式时，建议按照如下步骤排查： (1)检查线缆状况 a.检查网线规格 查看网线规格是否符合要求：一般要求使用超五类及以上线缆。2.5/5GE接口请务必使用超五类线（CAT5E）以上标准的线缆。10GE接口请务必使用六类线（CAT6）及以上标准的线缆。如果未满足，请更换符合要求的网线。如果满足，则执行步骤b。 b.检查网线是否损坏查看连接设备的网线水晶头是否松动，使用全新网线后观察一段时间，查看AP是否仍然有重启现象。如果问题得到解决，则为网线损坏。如果问题未解决，则执行步骤c。 c.检查PoE供电距离是否超出正常距离 核实部署AP时，供电距离是否超出可靠供电距离，供电距离一般建议在90米以内，最大不应超过100米。如果超出正常距离，建议缩短供电设备（PSE）与受电设备（PD）之间的距离或尝试其他供电方式。 (2)检查PoE交换机供电状况 a.检查PoE交换机是否重启在PoE交换机上执行displayversion命令，可以查看交换机的运行时间。 &lt;Sysname&gt;displayversion H3CComwareSoftware,Version7.1.070,Feature2607 Copyright(c)2004-2017NewH3CTechnologiesCo.,Ltd.Allrightsreserved. H3CXXXuptimeis0weeks,0days,2hours,14minutes Lastrebootreason:Coldreboot Bootimage:flash:/XXX-cmw710-boot-f2607.bin 显示信息略…… 通过对比交换机的运行时间和AP的运行时间是否相近，可以判断是否是交换机重启造成的AP重启。 b.检查是否触发过载保护断电功能 IEEE先后发布了802.3af（PoE）、802.3at（PoE+）和802.3bt（PoE++）PoE标准，后发布的标准兼容先发布的标准。 表6-2供电技术及对应参数 供电技术PoEPoE+PoE++ 遵循标准IEEE802.3afIEEE802.3atIEEE802.3bt PSE输出功率≤15.4W≤30W≤90W PD最大功率12.95W25.5W71.3W 线缆要求无超五类线（CAT5E）以上标准的线缆超五类线（CAT5E）以上标准的线缆 访问H3C官网查看无线接入点对应的安装指导，获取AP受电口遵循的标准和整机功耗等信息。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果AP的整机功耗不超过12.95W，则支持PoE功能的交换机即可满足供电要求； </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果AP的整机功耗大于12.95W，但小于等于25.5W，则可以通过PoE+交换机或电源注入器供电； </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果AP的整机功耗超过25.5W，则需要支持PoE++的交换机或对外供电60W的PoE注入器供电。 如果AP和PoE交换机实际协商遵循IEEE802.3af标准时，则交换机单端口最大输出功率为15.4W。在接入用户数增多的场景下，AP的实际功率可能会超过15.4W，此时会触发交换机上的过载保护断电功能，用户可以尝试通过poemax-powermax-power命令调高PoE接口的最大功率。 (3)如果排查以上方面后，问题得不到解决，请拨打H3C客户服务热线400-810-0504寻求帮助。 当AP通过电源适配器或PoE注入器供电时，建议按照如下步骤进行排查： (1)检查供电设备规格 查看电源适配器或PoE注入器的输出功率（电压和电流）是否满足AP安装手册中的电压要 求。如果未满足，请更换符合要求的电源适配器或PoE注入器。如果满足，则执行步骤(2)。 (2)检查供电设备是否损坏。 更换同型号的电源适配器或PoE注入器进行交叉测试。如果问题得到解决，则为供电侧故障，请更换供电设备。 (3)如果排查以上方面后，问题得不到解决，请拨打H3C客户服务热线400-810-0504寻求帮助。 6.5人为重启 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">软件重启的主要原因包括内核异常、内存泄漏、看门狗重启和版本自动升级等。此外，无法判断的重启原因也归类为软件重启，例如CPU异常等。 3.故障分析 本类故障建议用户查看产品对应的版本说明书，尝试将设备升级至最新版本后，观察问题是否得到解决。 4.处理步骤 本类问题建议按照如下步骤排查： (1)升级设备版本 查看产品版本说明书中，是否有针对重启问题的解决问题列表或遗留问题列表，如果产品后续版本中将对应重启问题列入“解决问题列表”，则需要对设备进行版本升级。 (2)如果无法通过版本升级解决问题，请拨打H3C客户服务热线400-810-0504寻求帮助。 2故障处理 2.1搜不到无线服务 2.1.1故障描述 无线终端无法搜索到设备上配置的无线服务。 2.1.2常见原因 搜索不到无线服务的常见原因如下： •无线网络布置不合理。 •无线功能配置不正确。 •设备故障。 2.1.3故障处理步骤 无线终端搜索不到无线服务的故障处理流程如下： 图2-1搜不到无线服务的故障处理流程图 (1)确认无线网络布置是否合理。 如果无线终端离设备过远，或者二者中间有遮挡物，会导致无线网络信号强度低，请尝试将终端靠近设备并绕过遮挡物。 如果无线终端的Wi-Fi功能无故障，且无线网络信号强度高，请继续执行步骤。 (2)检查设备指示灯状态，判断设备是否正常工作。 设备指示灯状态请参见表1-2和表1-3。若云网关PWR/SYS指示灯为绿色闪烁或云AP指示灯为黄色闪烁，则按照步骤(5)对设备进行恢复，否则请继续执行步骤(3)。 (3)检查设备的配置。如果设备已关联云平台，请登录云平台检查无线服务是否开启、SSID是否隐藏、射频是否开启。如果无线服务和射频关闭，则设备无法提供无线接入功能，SSID隐藏会导致终端只能手动输入SSID进行接入。如果射频的2.4GHz频段未开启，则仅支持2.4GHz频段的无线客户端无法搜索到无线服务。 查看设备配置的具体步骤如下： •如果设备关联至云平台。 在[网络管理/配置/云AP/无线配置/Wi-Fi配置]中，查看云AP无线服务的配置。 图2-2云平台上云AP的无线服务配置 在[网络管理/配置/云AP/无线配置/射频配置]中，查看云AP射频的配置。 图2-3云平台上云AP的射频配置 在[网络管理/配置/云网关/Wi-Fi配置]中，查看云网关以上功能的配置，仅对云网关自身射频生效。 图2-4云平台上云网关的无线服务配置 在云平台的[网络管理/配置/云网关/射频配置]中，查看云网关以上功能的配置，仅对云网关自身射频生效。与云AP的射频配置类似，故不赘述。 •如果设备未关联云平台，则在本地网管页面检查无线服务是否开启、SSID是否隐藏、射频是否开启等。 在设备的Wi-Fi配置页面和射频配置页面查看配置是否合理，云网关和云AP的页面类似，以下图为例。 图2-5本地Web页面的无线服务配置 图2-6本地Web页面的射频配置 如果设备的配置不正确，请修改设备配置。 如果设备的配置正确，请继续执行步骤(4)。 (4)判断5GHz终端是否符合区域码CN信道使用要求。区域码规定了射频的可用信道，如果终端不符合区域码CN信道要求，可能导致部分5GHz信道不可用。 如果终端不符合区域码CN信道使用要求，请将终端的区域码修改为CN，或者使用其他符合区域码CN信道使用要求的终端接入。 如果设备的配置正确，请继续执行步骤(5)。 (5)若确认配置无误，则尝试以下步骤进行恢复： 关闭无线服务，约半分钟后再开启无线服务，待云AP指示灯常亮、云网关2.4GHz或5GHz指示灯绿色常亮后查看是否可以搜到无线服务。若搜索不到或指示灯异常，请尝试下一步。 重启设备，重启完成后待云AP指示灯常亮、云网关2.4GHz或5GHz指示灯绿色常亮后，查看是否可以搜到无线服务。若搜索不到或指示灯异常，请尝试下一步。 记录上网配置信息（如PPPoE账号和密码等）后，恢复出厂设置。重新配置上网方式后，待云AP指示灯常亮、云网关2.4GHz或5GHz指示灯绿色常亮后，查看是否可以搜到无线服务。 (6)如以上方法均无法解决问题，请获取系统日志，并联系我们。 2.2无线终端无法接入 2.2.1故障描述 无线终端可以搜索到设备上配置的无线服务，但无法接入无线服务。 2.2.2常见原因 终端无法接入的常见原因如下： •无线网络布置不合理。 •无线功能配置不合理。 •设备故障。 2.2.3故障处理步骤 无线终端无法接入的故障处理步骤如下： 图2-7无线终端无法接入的故障处理流程图 (1)检查无线网络布置是否合理。 如果无线终端离设备过远，或者二者中间有遮挡物，会导致无线网络信号强度低，请尝试将终端靠近设备并绕过遮挡物。 如果无线终端的Wi-Fi功能无故障，且无线网络信号强度高，请继续执行步骤(2)。 (2)查看现场是否存在SSID相同但加密和认证配置不同的无线服务。 如果存在同名但加密和认证配置不同的无线服务时，终端可能会尝试接入错误的无线服务，此时会接入失败。可以通过云平台或本地Web页面查看设备的无线服务配置，也可以通过无线终端搜索其他设备是否存在同名的无线服务。 图2-8云平台上查看设备的无线服务 图2-9本地Web页面上查看设备的无线服务 如果存在同名但加密和认证配置不同的无线服务，请依据实际情况区分无线服务的名称，或者统一无线服务的加密与认证配置。 如果不存在同名但加密与认证配置不同的无线服务，请继续执行步骤(3)。 (3)确认是否开启一键网优拨码开关或云平台5G优先功能。 •云网关的一键网优/5G优先功能仅对自身射频生效，不对云AP的射频生效。 •仅部分型号的云网关和云AP支持云平台5G优先功能。 •拨码开关的优先级更高。 部分自身具备射频功能的云网关，前面板带有拨码开关。开启一键网优拨码开关时，如果云网关自身的射频同时开启了5GHz和2.4GHz频段，云网关会拒绝支持双频的终端接入2.4GHz，使终端接入5GHz频段。此时终端可能被2.4GHz射频拒绝，但未能成功接入5GHz射频。 云平台的5G优先功能与一键网优拨码开关相同，云AP可以通过云平台开启本功能。 云平台5G优先功能具体查看步骤如下： 在[网络管理/配置/云AP/无线配置/网络优化]中，查看云AP是否开启5G优先功能。 图2-10云平台上云AP开启5G优先功能 在[网络管理/配置/云网关/无线配置]中，查看云网关是否开启5G优先功能。 图2-11云平台上云网关开启5G优先功能 如果开启一键网优拨码开关或云平台5G优先功能，请配置关闭再尝试接入。 如果未开启/关闭一键网优拨码开关或云平台5G优先功能后仍无法接入，请继续执行步骤 (4)。 (4)确认是否开启弱信号终端优化功能。 弱信号终端优化功能会使得信号较弱的终端无法接入。当前仅支持通过本地Web页面配置本功能。 图2-12本地Web页面查看弱信号终端优化功能 如果开启弱信号终端优化功能，请配置关闭，或配置较小的接入门限和重连接门限值，再尝试接入。 如果未开启/关闭如果开启弱信号终端优化功能后仍无法接入，请继续执行步骤(5)。 (5)如以上方法均无法解决问题，请获取系统日志，并联系我们。 2.3网速慢 2.3.1故障描述 无线终端可以访问网络，但网速慢且ping有丢包。 2.3.2常见原因 网速慢的常见原因如下： •无线网络布置不合理。 •上行网络不稳定。上行网络不稳定时，一定出现此类故障。 •无线功能配置不合理。如果上行网络无问题，但无线配置不合理，也会造成此类故障。 2.3.3故障处理步骤 网速慢的故障处理流程如下： 图2-13网速慢的故障处理流程图 (1)检查无线网络布置是否合理。 检查无线终端是否离设备过远、无线终端和设备之间是否有遮挡物等。 如果无线终端离设备过远，或者二者中间有遮挡物，会导致无线网络信号强度低，请尝试将终端靠近设备并绕过遮挡物。 如果所有无线网络布置无问题，请继续执行步骤(2)。 (2)确认网络的出口带宽是否足够。 若网络内存在某台无线终端在占用大量网络资源，或有大量使用网络的无线终端在线，会导致网络抢占问题。此时可以停用占用大量网络的终端，或考虑升级网络带宽。 若网络内不存在占用大量网络资源的终端，且在线终端数量少，请继续执行步骤(3)。 (3)判断故障源于上行有线网络还是无线网络。 如下两种方式均可以判断故障来源： •将有线终端接入设备，使用尝试ping之前的地址，并查看丢包情况。 若有线终端也存在明显丢包问题，则说明故障源于上行有线网络。若有线终端不存在明显丢包问题，则说明故障源于无线网络。 •获取系统日志，查看网络状态日志uplinkquality.log是否有如下log信息： [FriDec110:21:07CST2020]Good [FriDec110:21:31CST2020]Busy [FriDec110:21:42CST2020]Busy [FriDec110:21:56CST2020]Unreachable [FriDec110:22:20CST2020]Good [FriDec110:22:45CST2020]Busy[FriDec110:23:09CST2020]Busy 若存在以上log信息，即存在上行网络Busy或Unreachable的信息，则说明故障源于上行有线网络。若不存在以上log信息，即上行网络无异常，说明故障源于无线网络。 若故障源于上行有线网络，请继续执行步骤(4)。 若故障源于无线网络，请执行步骤(5)排查无线网络的故障。 (4)查看设备首页组网图，若处于正常工作状态，且上网方式为PPPoE方式，则观察PPPoE连接经常断开。 若PPPoE经常断开，则联系上行网络的运营商排查问题。 若PPPoE未断开，则继续执行步骤(5)。 (5)检查云网关是否配置了限速功能。 云网关可以为下挂的云AP配置用户限速功能，对接入AP的客户端进行限速。静态限速基于每终端进行限速，动态限速基于无线服务整体进行限速；上行对终端发送至设备的流量限速，下行对设备发送至终端的流量限速。限速值配置不合理会导致终端网速慢。 在云平台的[网络管理/配置/云网关/Wi-Fi配置/无线服务配置]中，查看限速功能的配置。 图2-14云平台查看用户限速功能配置 若开启了用户限速功能或配置值不合理，请尝试关闭限速功能或者将限速值调高。 若未开启用户限速功能或配置值合理，则继续执行步骤(6)。 (6)请检查5GHz是否开启，若未开启且无特别的不开启原因，请开启5GHz频段。 如果设备在云平台上线，在[网络管理/配置/云AP/无线配置/射频配置]中，查看云AP的射频配置，在[网络管理/配置/云网关/Wi-Fi配置/Radio配置]中，查看云网关自身射频的配置。二者配置类似，以下图云AP配置为例。 图2-15云平台上查看云AP射频配置 如果设备通过本地管理，可以通过本地Web页面查看射频配置。 图2-16本地Web页面上查看射频配置 若未开启5GHz频段，请配置开启。 若开启开启5GHz频段，则继续执行步骤(7)。 (7)尝试修改工作信道和频宽。 在无线空口资源较为紧张的场景下，可能出现信道拥挤的情况，可以尝试修改射频的信道和频宽解决问题。 配置的具体步骤可以参考图2-15和图2-16中的信道和频宽配置项。若修改后未能解决问题，请继续执行步骤(8)。 (8)如以上方法均无法解决问题，请获取系统日志，并联系我们 2.4设备未关联云平台 2.4.1故障描述 通过云平台查看设备不在线。 2.4.2常见原因 设备未关联云平台的常见原因如下： •云网关开启独立运行拨码开关，无法连接至云平台。 •设备上行链路不通，无法与云简网络通信。 •设备的本地Web页面配置了自定义云连接地址。 •设备已绑定至其他云平台账号。 2.4.3故障处理步骤 设备未关联云平台的故障处理流程如下： 图2-17设备未关联云平台的故障处理流程图 (1)检查云网关是否开启独立运行拨码开关。 部分型号云网关的前面板带有拨码开关，如果开启了独立运行拨码开关，云网关将无法在云简网络上线，请确保云网关的独立运行拨码开关处于关闭状态。如果已经关闭独立运行开关，请继续执行步骤(2)。 (2)检查设备上行链路是否畅通，若设备不通外网，则无法关联至云平台。 有两种方式查看设备上行链路是否畅通： 查看本地Web的主页组网图，上行链路出现感叹号说明上行链路不通，没有感叹号说明畅通。 图2-18主页组网图查看到上行链路不通 在本地Web页面的&lt;高级功能&gt;页面，通过上行链路检测功能，检测设备是否能够与云平台联通。 图2-19上行链路检测功能 若上行链路不通，请检查网络配置，保证设备可以连接外网。 若上行链路通常，则执行步骤(3)。 (3)在本地Web页面的&lt;高级功能&gt;页面检查是否配置了自定义的云连接地址，云平台管理配置是否正确，下图为正确配置。需要注意的是，所有上行设备均不能禁止H3C云平台的端口号，否则设备无法连接至云平台。 图2-20云管理功能 若云管理功能配置不正确，请按照上图修改配置。 若云管理配置正确，则执行步骤(4)。 (4)判断是否需要解绑定。 把设备添加到云平台上时，如果提示设备已经绑定至其他云平台账户，则需要在原账户解绑设备，再绑定至现账户。登录原账户，删除设备完成解绑，在无法登录原账户的场景，可以在现账户使用设备解绑定功能将设备从原账户解绑。 设备解绑定的配置步骤如下： 在现云平台中的[网络管理/设置/设备解绑]中，输入设备的序列号，获取解绑码。 图2-21云平台获取解绑码 在本地Web页面的&lt;高级功能&gt;页面找到设备解绑定功能，输入解绑码，点击&lt;确定&gt;按钮完成解绑。此时可以在现云平台账户添加设备。 图2-22本地Web页面输入解绑码 如果未提示设备绑定至其他云平台账户，则继续执行步骤(5)。 (5)如以上方法均无法解决问题，请获取系统日志，并联系我们。 2.5无线经常断开 2.5.1故障描述 无线终端经常断开Wi-Fi连接。 2.5.2常见原因 无线终端的常见原因如下： •无线终端自身原因或网络布置不合理。 •上行网络的原因。如果上行网络不稳定，则无线网络一定出现此类故障。 •无线环境的原因。如果上行网络无问题，但无线配置不合理，也会造成此类故障。 2.5.3故障处理步骤 无线经常断开的故障处理流程如下： 图2-23无线经常断开的故障处理流程图 (1)检查无线网络布置是否合理。 确认无线终端是否离设备较远，或者二者中间有遮挡物。通过改变无线终端的位置，判断终端是否处于多台设备的覆盖交叉区域。 如果无线终端离设备过远、二者中间有遮挡物或终端处于多台设备的覆盖交叉区域，会导致无线网络信号强度低，请尝试将终端靠近设备并绕过遮挡物。 如果无线网络布置无问题，请继续执行步骤(2)。 (2)确认周围环境中是否有其他无线接入设备提供了同名的无线服务。 当其他无线设备存在同名无线服务时，客户端可能会尝试漫游至其他无线服务。如果同名的无线服务，加密和认证配置却不同，则终端将漫游失败，可能出现与一个无线服务断开，却不能接入另一个无线服务的情况。 如果周围有同名无线服务，请区分无线服务的名称，或统一无线服务的加密和认证配置。 如果周围没有同名无线服务，请继续执行步骤(3)。 (3)确认接入的无线客户端是否已经通过认证。 没有通过认证的客户端，即使连接了无线服务，也无法访问网络，此时终端可能会断开Wi-Fi连接。 如果客户端未认证，请手动认证。 如果客户端已经通过认证，请执行步骤(4)。 (4)切换设备信道，尝试切换信道后无线终端是否能正常稳定接入。 如果周围环境存在较多的无线设备和无线客户端，可能出现无线信道拥堵的情况，严重时可能导致Wi-Fi连接断开。请根据设备的管理方式选择在云平台或本地Web页面进行配置。 图2-24云平台的射频配置 图2-25本地Web页面的射频配置 如果修改射频配置无法解决问题，请执行步骤(6)。 (5)获取系统日志，如果条件允许，请提供客户端掉线前后的无线抓包，并联系我们。 2.6无线终端分配不到IP地址 2.6.1故障描述 无线终端可以接入无线网络，但分配不到IP地址。 2.6.2故障处理步骤 (1)首先请确认无线终端是否离设备过远、其它终端是否能接入此无线服务并正确分配IP地址。 (2)确认组网环境是否创建了对应的VLAN，且VLAN划分正确。 (3)检查对应的VLAN是否开启了DHCPServer。 (4)检查DHCPServer地址是否全部被占用。 (5)检查网络连通性，例如，将终端配置一个与DHCPServer相同网段的静态IP，尝试ping一下DHCPServer。 (6)确认环境中是否有干扰。 2.7无线终端无法上网 2.7.1故障描述 无线终端可以接入无线网络，但无法上网。 2.7.2故障处理步骤 无线终端无法上网的故障处理流程如下： 图2-26无线终端无法上网的故障处理流程图 (1)查看网管页面主页组网图，若上行链路不通，请检查线路，排除线路故障。 (2)排除线路故障后，检查是否所有网址都不能上网，是否有黑名单或有相关安全限制，详细参见 2.8个别网页或软件无法使用。 (3)确认是否所有无线终端都无法正常上网、无线终端是否离设备过远、无线终端和设备之间是否有遮挡物等。 (4)检查IP地址分配方式及结果是否正确： 静态IP方式需要检查IP地址、子网掩码、网关地址、DNS等配置是否正确。 DHCP方式配置了自定义DNS服务器，请检查自定义DNS是否填写正确。 若设备为云AP，检查终端IP是否为上行网络分配，检查上行网络VLAN配置是否正确。 (5)检查客户端是否成功获取IP地址，检查终端上是否有特殊配置，如指定了固定IP、配置了固定DNS等。 (6)在客户端上分别pingWAN口地址、DNS服务器，查看是否可以ping通。 (7)若DNS不可达，需要自定义DNS服务器。 (8)ping任意域名，如www.baidu.com等知名网址，或其他需要使用的特殊域名，若回显为解析地址失败，则配置自定义DNS再次尝试。 (9)检查服务模板是否已开启认证，若开启则检查客户端是否已经通过认证。 (10)检查设备的限速配置。 (11)检查上行网络网速是否过慢，用PC网线直插上行链路网口查看是否能正常上网。 2.8个别网页或软件无法使用 2.8.1故障描述 个别网页无法访问，或个别业务软件无法正常使用，但访问其它公共网络的网址可以正常访问（如百度、新浪、网易等）。 2.8.2故障处理步骤 (1)将终端切换至移动蜂窝网络，检查是否能正常上网。 (2)检查访问的域名是否被加入了域名黑名单中。 (3)客户端从无线服务接入，请确认客户端是否已经通过认证。 (4)请尝试ping该网址或ping软件所使用的域名，若ping不通，提示无法解析IP，请尝试自定义DNS。 (5)若提示能够解析IP但不可达，请确认该域名是否已经失效或对端服务器是否正常。 (6)若可ping通但依然不可访问或不可使用，基本排除网络问题，请尝试其他途径解决。 2.9客户端已认证通过但无法访问网络 2.9.1故障描述 接入的客户端通过认证，但无法正常访问网络资源。 2.9.2故障处理步骤 首先确认网管首页组网是否为正常工作状态，若不是，请首先解决网络不通问题。在网络通畅的情况下，依据本节步骤排查。 (1)认证日志oauth.log 若已经认证过，中途下线切换SSID，需要重新认证，对应的删除放行规则log信息为： authedclient[b8:08:d7:cf:dd:c1]onlineagain,willlogoutbecausessiddifferent [0901_oauthmem_333]! (2)认证日志oauth.log（下线离开超过30分钟） 若已经认证过，中途下线超过30分钟后重新连接，则需要重新认证；删除放行规则log信息为： 认证时触发逃生： Checkusertimeoutclient[b8:08:d7:cf:dd:c1]offlinetimeout Oauthlogoutclient[b8:08:d7:cf:dd:c1] 认证时未触发逃生： Checkusertimeoutclient[b8:08:d7:cf:dd:c1]offlinetimeout Oauthnotifycloudclient[b8:08:d7:cf:dd:c1]offlineandlogout (3)认证日志oauth.log（认证通过后持续在线超过6小时）若已经认证过，认证通过后，持续在线时间超过6小时，则需要重新认证。 删除放行规则log信息为： 认证时触发逃生： Checkusertimeoutclient[b8:08:d7:cf:dd:c1]sessiontimeoutOauthlogoutclient[b8:08:d7:cf:dd:c1] 认证时未触发逃生： Checkusertimeoutclient[b8:08:d7:cf:dd:c1]sessiontimeout Oauthnotifycloudclient[b8:08:d7:cf:dd:c1]offlineandlogout 2.10客户端未认证即可访问网络 2.10.1故障描述 接入的客户端不需要通过认证即可正常访问网络资源。 2.10.2故障处理步骤 根据以下步骤排查放行原因： (1)认证日志oauth.log（下线未超过30分钟） 若已经认证过，中途下线未超过30分钟，重新连接同一无线服务（SSID不变），则不需要重新认证即可访问网络，对应的log信息为： Authedclient[b8:08:d7:dd:c1]at[1510365737]onlineagain,lastofflinetime[1510365737]! (2)认证日志oauth.log（触发逃生） 若此时云平台认证服务器故障，则触发逃生，即客户端不需要认证即可访问网络，对应的log信息为： Authserverisontonline (3)认证日志oauth.log（场所内无感知认证）若场所内无感知认证功能开启，且在开启后已经认证过，若在当天24:00之前重新接入，则认证是无感知的（即不需要用户重新认证），对应的log信息为： [WedNov2219:20:192020][216535][Auth]:Mac_triggerstatusisON,Nextwilljudgeissendrefer. [WedNov2219:20:192020][216695][EVENT]:Clientmacb8:08:d7:cf:dd:c1willsendmacttriggerrequest. [WedNov2219:20:192020][400255][EVENT]:GettheresultisBIND,nextgetaccess_token. 2.11客户端认证失败 2.11.1故障描述 接入的客户端认证失败。 2.11.2故障处理步骤 (1)认证方式：一键认证 a.查看oauth.log日志是否有重定向URL，如下所示： Redirectingclientbrowserto http://oasisauth.h3c.com:80/portal/protocol?response_type=code&amp;redirect_uri=http://192.168.60.1:2060/oauth/auth&amp;nas_id=xb-0-1281397-219801A27VMSG3308091&amp;template_id=552545&amp;ssid=H3C_WiFi_2_22&amp;usermac=1A-B4-DD-E3-B2-94&amp;userip=192.168.60.111&amp;userurl=http%3A%2F%2Fcaptive.apple.com%2Fhotspot-detect.html b.查看是否获取到token和code： Getaccesstokenforclient9a:f5:5c:82:29:17,code[1243077iccacf89d8c414288ab112250] c.查看是否获取到useinfo： Getuserinfoforclient9a:f5:5c:82:29:17 (2)认证方式：短信认证与一键认证的排查方式相同。 2.12配置的域名黑名单不生效 2.12.1故障描述 通过云网关的本地网管页面或云平台配置了域名黑名单，但客户端依然可以访问此域名或地址。 2.12.2故障处理步骤 (1)域名黑名单从配置到生效有一定的延时，请确认设备访问域名是否在此延时范围内。 (2)获取系统日志，查看h3cconfig日志中的域名黑名单，如下所示： SecurityConf Denylist:baidu.com 2.13配置的域名白名单不生效 2.13.1故障描述 通过云网关的本地网管页面或云平台配置了认证后的域名白名单，但客户端访问此域名或地址依然需要认证。 2.13.2故障处理步骤 获取系统日志，查看h3cconfig日志中的域名白名单，如下所示： Portalfreeurllistis: youku.com 2.14配置的无线黑名单不生效 2.14.1故障描述 在云网关本地Web网管页面配置了无线黑名单，但黑名单中的客户端仍然可以连接Wi-Fi。 2.14.2故障处理步骤 获取系统日志，查看h3cconfig日志中的无线黑名单列表，如下所示： macfilter-list‘blacklist’ listmaclist‘4e:91:29:25:d1:ea’ 2.15配置的无线白名单不生效 2.15.1故障描述 在云网关本地Web网管页面配置了无线白名单，但白名单之外的客户端仍然可以连接Wi-Fi。 2.15.2故障处理步骤 获取系统日志，查看h3cconfig日志中的无线白名单列表，如下所示： macfilter-list‘whitelist’ listmaclist‘54:a0:50:70:55:79’ 2.16设备时间信息不准确 2.16.1故障描述 获取系统日志，部分log日志中的时间信息不准确。 2.16.2故障处理步骤 设备启动时是从一个不确定的较早时间开始记录的，设备在网络可用后会通过NTP同步一次网络时间，并把第一次同步网络时间的时间点记录到timesyn.log文件中，如下所示： FriDec110:11:45CST2020 若收集的log日志集中，没有timesyn.log文件： (1)可以先ping任意域名，如www.baidu.com等知名网址或其它需要使用的特殊域名，若回显为解析地址失败，则配置自定义DNS再次尝试，若ping结果显示解析成功，可继续下一步； (2)在与设备相连接的PC的Windows操作系统的命令控制台中输入命令：w32tm/stripchart/computer:registry.h3c.com 若出现下图执行结果，则表示可以通过NTP服务获取时间，需要获取日志进一步分析。 若出现下图执行结果，则表示上行网络问题导致无法通过NTP服务获取时间，请及时联系上行网络运营商解决。 2.17VPN无法建立 2.17.1故障描述 •已按照相关要求完成VPN配置，无法正常建立连接。 •VPN显示已连接成功，设备侧可以访问远端服务设备，但远端服务设备无法访问本设备。 •VPN显示已连接成功，两端也可以相互访问，但经常会出现连接自动断开又自动连接的情况。 2.17.2故障处理步骤 •故障1： 首先排查建立VPN的链路是否通畅，即建立VPN的两端网关设备是否能够正常通信，测试方法为在一端去ping另一端的网关IP；若确认链路连通无问题，接着排查配置是否有误，重点排查IP是否配置正确，两端加密算法是否一致（建立VPN对两端设备的配置校验较为严格），至此可以解决大部分此类问题。 •故障2： 本系列网关设备在建立VPN时默认是强制开启NAT穿透功能的，VPN建立完成后远端设备无法访问本端设备，可能是由于远端设备未配置NAT穿透功能，解决方法是对远端设备开启 VPN的NAT穿透功能。 •故障3： VPN设备两侧配置了不同的PFS分组算法，第一次协商并不会出现问题，在重协商时可能会报PFS分组不一致的错误，注意检查两侧PFS配置是否一致，解决办法是关闭两端设备的 PFS分组算法或将PFS分组算法改成一致。 2.18AP通过CAPWAP无法上线 2.18.1故障描述 在AC上（云网关）无法看到该AP的AP列表，或者该AP的AP列表状态显示为离线；AP的指示灯不是绿灯或绿灯闪烁（注意AP在云平台上线也会呈现绿灯），出现以上两种情形中的任何一种即表明AP没有上线。 2.18.2故障处理步骤 AP通过CAPWAP无法上线的故障处理流程如下： 图2-27AP通过CAPWAP无法上线的故障处理流程图 (1)首先排查AP是否配置了静态的ACIP地址，如果是，请检查该IP是否是目标AC的IP地址。 (2)如果AP是通过OPTION43方式获取到的ACIP地址，请查看DHCPSERVER的配置是否正确。 (3)AP是否在网络中其它AC上线了。 (4)查看AC管理AP的规格是否达到上限。 (5)查看AP是否连接了云平台，如果AP连接云平台就不会在AC上线。 (6)云网关的CAPWAP功能是否开启（AP管理&gt;高级功能&gt;AP管理功能）。 (7)收集日志查看AP是否获取到了br-lan的IP地址。如未获取到请参考2.6无线终端分配不到 IP地址进行排查。 (8)在AP本地Web页面的网络工具中pingAC的IP地址，是否可以ping通。 2硬件类故障处理 2.1.1CPE上电后，串口没有打印信息 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本类故障的常见原因主要包括： •设备的VLAN配置不正确，导致终端获取不到IP地址。 •设备的接口配置不正确，导致终端获取不到IP地址。 •无线终端与DHCPServer中间链路不通。 •无线终端与DHCPServer间的DHCP报文交互流程出现问题，导致终端获取不到IP地址。 •配置基于VLAN的用户隔离功能时，下发给FITAP的网关实际MAC地址与配置的MAC地址不对应，使得DHCP和ARP广播报文被阻断，导致终端获取不到IP地址。 •在需要终端漫游的场景下，AP上行未能放通全部业务VLAN，终端漫游时可能无法上线。 图4-22本地转发下无线终端无法获取IP地址故障排查流程图 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">客户端无法通过Web登录CPE，提示无法显示网页，但是从客户端可以Ping通CPE，也可以Telnet登录到CPE。 2.故障处理步骤 (1)关闭Windows防火墙，Windows系统自带的防火墙开启后偶尔会造成此现象。 (2)Telnet登录到CPE，检查CPE配置，将HTTP服务开启。 (3)如果故障仍然未能排除，请联系技术支持人员。 4.2软件升级故障处理 4.2.1设备启动失败 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1)请检查是否采用系统要求的电源适配器规格，需要确保电源的输入电压在系统规格要求的范围。 (2)AP外观是否有明显被摔痕迹，防止AP内部的器件被摔坏而导致系统不能上电。 (3)AP是否进过水或者设备工作环境温度是否超出规格要求，如果室内型AP被用于室外，有雨 水进入AP或者关键芯片环境温度不满足要求，会导致系统出现工作异常状态，AP无法上电。 3.3AP上电后，串口没有打印信息 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">本类故障的常见原因主要包括： •Telnet客户端和设备间网络不畅通。 •Telnet客户端未启用Telnet相关功能。 •设备未开启Telnet服务。 •VTY用户线下未配置支持Telnet协议。 •登录用户名、密码不正确。 •登录设备的用户数达到了上限。 •设备上配置了对Telnet用户的访问控制，Telnet客户端不在所引用ACL的规则中permit的用户范围之内。 •认证方式配置不正确。 •当Telnet客户端和Telnet服务器均为我司设备时，用户未从Telnet客户端上指定的发送Telnet报文的源地址或源接口登录Telnet服务器。 3.故障分析 本类故障的诊断流程如图37所示。 图37Telnet登录失败的故障诊断流程图 4.处理步骤 (1)检查客户端能否Ping通设备。 用户在Telnet客户端上执行ping命令查看Telnet客户端和设备之间网络连接情况。如果不能Ping通设备的IP地址，表示Telnet客户端和设备无法建立Telnet连接，则Telnet客户端登录将失败。无法Ping通设备，也可能是终端设备禁Ping导致。请参见“Ping和Tracert故障处理手册”继续定位，确保Telnet客户端与设备之间的网络畅通。 (2)检查客户端上是否启用Telnet相关功能。通常，在PC机上新建Telnet连接前，需要在PC上的“打开或关闭Windows功能”中启用“Telnet客户端”功能。移动端等其他类型的设备作为Telnet客户端时，开启Telnet相关功能的详细介绍和使用方法请参见该设备的使用指导。 (3)检查设备侧是否开启Telnet服务。缺省情况下，Telnet服务处于关闭状态。如果系统视图下执行displaythis命令后，没有显示telnetserverenable的配置信息，表示Telnet服务处于关闭状态。请先执行telnetserverenable命令开启Telnet服务，确保设备允许客户端通过Telnet登录。 (4)查看VTY用户线支持的协议是否包含Telnet协议。 在VTY用户线或VTY用户线类视图下执行displaythis命令， 如果显示配置信息中不包含protocolinboundtelnet或protocolinboundall，表示用户线下不支持Telnet协议。 非FIPS模式下，由于系统默认支持所有协议，如果显示配置信息中包含undoprotocolinbound，或者不包含protocolinbound相关配置，表示系统支持所有协议。若用户线下不支持Telnet协议，请配置protocolinboundtelnet或protocolinboundall命令来允许Telnet协议类型的登录用户接入。 &lt;Sysname&gt;system-view [Sysname]linevty063 [Sysname-line-vty0-63]authentication-modescheme [Sysname-line-vty0-63]protocolinboundall 需要注意的是，修改protocolinbound的配置将在用户下次使用该用户线登录时生效。 (5)检查客户端登录设备的用户名和密码是否正确。当用户向设备发起Telnet连接，在Telnet客户端按照提示输入登录设备的用户名和密码后，若系统提示认证失败，则建议重新输入用户名和密码，再次尝试登录设备。如果依旧登录失败， 可以查看LOGIN/5/LOGIN_INVALID_USERNAME_PWD日志，若日志中显示类似如下内容时表示用户输入无效的用户名或密码： LOGIN/5/LOGIN_INVALID_USERNAME_PWD:Invalidusernameorpasswordfromvty0. 如果忘记正确的登录用户名或密码，请修改认证方式为不认证，或重置密码，并通知用户再次 户线类视图下执行authentication-modenone命令，设置用户登 录设备时的认证方式为不认证，用户不需要输入用户名和密码，就可以使用该用户线登录设备，但这种方式存在安全隐患，请谨慎配置。 &lt;Sysname&gt;system-view [Sysname]linevty063 [Sysname-line-vty0-63]authentication-modenone 如果登录用户的认证方式为密码认证，在用户线视图或用户线类视图下执行setauthenticationpassword命令来重新设置认证密码。 &lt;Sysname&gt;system-view [Sysname]linevty063 [Sysname-line-vty0-63]authentication-modepassword [Sysname-line-vty0-63]setauthenticationpasswordsimplehello12345&amp;！ 如果登录用户的认证方式为AAA认证，请参见“AAA&amp;PasswordControl故障处理手册”重置密码。(6)检查登录设备的用户数是否达到了上限。从Console口登录到设备，在任意视图下执行displayusers命令查看当前的Telnet用户数。缺省情况下，同时在线的Telnet用户数上限为32个。可以查看TELNETD/6/TELNETD_REACH_SESSION_LIMIT日志，若日志中显示类似如下内容，表示Telnet登录用户达到上限： TELNETD/6/TELNETD_REACH_SESSION_LIMIT:Telnetclient1.1.1.1failedtologin.ThecurrentnumberofTelnetsessionsis10.Themaximumnumberallowedis(10). 如果登录设备的用户数已经达到了上限，可以先断开其他空闲Telnet用户的连接，或者执行aaasession-limittelnet命令增加允许同时在线的最大用户连接数，然后再向设备发起Telnet连接。(7)查看设备上是否引用了ACL对Telnet用户的访问进行控制。 在系统视图下执行displaythis命令，如果显示telnetserveracl、telnetserveripv6acl相关配置信息，表示引用了ACL对访问设备的Telnet的用户进行控制。 确认所引用的ACL规则中允许了Telnet客户端的IP地址、端口号、协议号等。可以查看TELNETD_ACL_DENY日志，若日志中显示类似如下内容，表示TelnetACL规则限制登录IP地址： TELNETD/5/TELNETD_ACL_DENY:TheTelnetConnection1.2.3.4(vpn1)requestwasdeniedaccordingtoACLrules. 执行undotelnetserveracl或undotelnetserveripv6acl命令来取消 ACL对Telnet用户的访问限制。(8)检查设备上认证方式配置是否正确。在任意视图下执行displayline命令查看用户线下用户登录设备时的认证方式，其中“Auth”字段表示使用该用户线登录的用户的认证方式，取值为“A”表示使用AAA认证方式，取值为“N”表示无需认证，取值为“P”表示使用当前用户线的密码进行认证。 如果使用命令authentication-modepassword配置了VTY用户线下的登录认证方 如果使用命令authentication-modesche(式为密码认证，还需要确保设置了认证密码。)me设置认证方式为AAA，则必须确保已经创建了AAA认证用户。具体请参见“AAA&amp;PasswordControl故障处理手册”。 (9)当Telnet客户端和Telnet服务器均为我司设备时，检查Telnet客户端上是否配置了发送Telnet 在系统视图下执行displ(报文的源地址或源接口。)aythis命令，如果显示中包含telnetclientsource的相关配置信息，表示Telnet客户端上指定了发送Telnet报文的源IPv4地址和源接口，请确保用户从Telnet客户端上指定的源IPv4地址或源接口登录Telnet服务器。若登录失败，请选择以下配置后重新尝试登录： 执行telnetclientsource命令重新配置发送Telnet报文的源IPv4地址或源接口。 执行undotelnetclientsource命令来恢复缺省情况，即不指定发送Telnet报文的源IPv4地址和源接口，使用报文路由出接口的主IPv4地址作为Telnet报文的源地址。需要注意的是， 在用户视图下执行telnet命令也可以指定Telnet报文的源接口或源IPv4地址，若同时使用telnetclientsource命令和telnet命令指定源IPv4地址或源接口，则以telnet命令指定的源IP地址或源接口为准。 在IPv6组网环境下，可以通过用户视图下的telnetipv6命令来指定Telnet报文的源接口或源IPv6地址。 (10)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志 相关告警无 相关日志 •LOGIN/5/LOGIN_FAILED •LOGIN/5/LOGIN_INVALID_USERNAME_PWD •TELNETD/5/TELNETD_ACL_DENY •TELNETD/6/TELNETD_REACH_SESSION_LIMIT 5.2硬件资源管理故障处理 5.2.1CPU占用率高 本类故障的常见原因主要包括： •网络攻击。 •协议震荡，通常为STP震荡、路由协议震荡等。 •网络环路。 •设备上配置了流采样功能，需要处理的流量太大或者设备采样频率太高，导致采样功能占用大量CPU资源。 •设备产生海量日志，设备生成和管理这些日志需要占用大量CPU资源。 3.故障分析 本类故障的诊断流程如图38所示。 图38CPU占用率高的故障诊断流程图 4.处理步骤 (1)确认设备是否受到网络攻击。 现网中，导致设备CPU占用率高最常见的原因是网络攻击。攻击者发起大量非正常网络交互对设备产生冲击，例如短时间内发送大量TCP连接建立请求报文或者ICMP请求报文，设备忙于处理这些攻击报文，导致CPU占用率高，从而影响设备正常业务的运行。 如果受到了网络攻击，则先解决网络攻击问题。 如果未受到网络攻击，则执行步骤(2)。 (2)确认设备是否出现协议震荡。协议震荡会导致设备不断地处理协议报文、计算拓扑、更新表项，引起CPU占用率高。在实际应用中，最常见的协议震荡为STP协议震荡和OSPF协议震荡。 对于STP协议震荡，在系统视图执行stpport-log命令打开端口状态变化日志显示开关，如果命令行界面频繁输出以下日志，则说明出现了STP协议震荡。 STP/6/STP_DETECTED_TC:Instance0'sportGigabitEthernet1/0/1detectedatopologychange. STP/6/STP_DISCARDING:Instance0'sportGigabitEthernet1/0/1hasbeensettodiscardingstate. STP/6/STP_NOTIFIED_TC:Instance0'sportGigabitEthernet1/0/1wasnotifiedatopologychange. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果STP协议震荡，请先排除STP协议震荡问题。 对(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)OSPF协议震荡，执行于displayip(如果STP协议没有震荡，则继续定位。)routing-table命令，查看路由信息。如果路由表项中相同网段的路由条目被频繁反复地创建和删除，则表示路由震荡。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果路由震荡，或者路由一直不存在，则先排除链路问题和IGP路由问题。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果路由没有震荡，则执行步骤(3)。 (3)确认是否存在网络环路。 当以太网接口工作在二层模式并且链路存在环路时，可能出现广播风暴和网络振荡。大量的协议报文上送CPU处理，从而导致CPU占用率升高。当存在网络环路时，设备很多端口的流量会明显变大，且广播和组播报文占比较大。可通过以下步骤来确认设备是否存在网络环路，设备是否存在广播、组播、未知单播报文风暴。a.清除接口的统计信息。 &lt;Sysname&gt;resetcountersinterface b.多次执行displaycountersrateinboundinterface命令查看端口使用率是否 明显增大。 &lt;Sysname&gt;displaycountersrateinboundinterfaceUsage:Bandwidthutilizationinpercentage InterfaceUsage(%)Total(pps)Broadcast(pps)Multicast(pps)GE5/3/00.017----MGE0/31/00.011----MGE0/32/00.015---- VMC1/1/00.0560---- VMC1/2/00.0452---- Overflow:Morethan14digits. --:Notsupported. c.如果端口使用率明显增大，可继续多次执行displaycountersinboundinterface 命令查看接口收到的总报文数、广播和组播报文的数量，分别对应显示信息中Total(pkt)、Broadcast(pkt)、Multicast(pkt)字段的取值。如果广播和组播报文的增长速度快，广播、组播报文在接口收到的总报文数中占比大，则可能出现广播/组播风暴。如果广播和组播报文数量没有明显增加，但是接口收到的总报文数明显增加，则可能出现未知单播报文风暴。 &lt;Sysname&gt;displaycountersinboundinterface InterfaceTotal(pkt)Broadcast(pkt)Multicast(pkt)Err(pkt)GE5/3/0141271110MGE0/31/0274866476960--MGE0/32/010630346848082--VMC1/1/0111577977274558500 VMC1/2/096538985619640520 Overflow:Morethan14digits(7digitsforcolumn"Err"). --:Notsupported. 如链路出现环路，可进行如下处理：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">排查链路连接，避免物理拓扑出现环路。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使用displaystp命令检查STP协议是否使能，配置是否正确。如果配置错误，请 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使用displ(修改配置。)aystpbrief和displaystpabnormal-port命令检查邻接设备STP状态是否正常。请根据displaystpabnormal-port命令显示信息中的BlockReason字段的取值，定位并解决STP异常问题。如STP配置均正确，可能为STP协议计算错误或协议计算正确但端口驱动层没有正常Block阻塞，可以在发生环路的接口上执行shutdown/undoshutdown命令或者拔插网线让STP重新计算来快速恢复STP功能，消除环路。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在以太网接口视图下，使用broadcast-suppression命令开启端口广播风暴抑制功能，使用multicast-suppression命令开启端口组播风暴抑制功能，使用unicast-suppression命令开启端口未知单播风暴抑制功能。或者使用flow-control命令配置流量控制功能。（broadcast-suppression、multicast-suppression、unicast-suppression和flow-control命令仅部 分设备支持，如不支持这些命令请忽略此处理方式）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使用QoS策略针对组播、广播和未知单播报文进行限速。 如未出现环路，请执行步骤(4)或步骤（5）。 (4)对于支持流统计和采样功能的设备：确认是否配置了流统计和采样功能，以及配置的参数是否合适。当设备上配置了NetStream、sFlow等网络流量监控功能后，设备会对网络流量进行统计分析。如果网络流量较高，可能会导致CPU占用率偏高。此时，可进行以下处理：配置过滤条件来精确匹配流量，仅统计分析用户关心的流量。 配置采样器，调整采样比例，使得NetStream、sFlow收集到的统计信息既能基本反映整个网络的状况，又能避免统计报文过多影响设备转发性能。 (5)对于仅支持采样功能的设备：确认是否配置了采样功能，以及配置的参数是否合适。当设备上配置了sFlow等网络流量监控功能后，设备会对网络流量进行统计分析。如果网络流量较高，可能会导致CPU占用率偏高。此时，可进行以下处理：配置采样器，调整采样比例，使得sFlow收集到的统计信息既能基本反映整个网络的状况，又能避免统计报文过多影响设备转发性能。 (6)确认设备当前是否正在生成海量日志。某些异常情况下，例如，设备受到攻击、运行中发生了错误、端口频繁Up/Down等，设备会不停地产生诊断信息或日志信息。此时系统软件要频繁的读写存储器，会造成CPU占用率升高。 允许日志信息输出到当前终端。 &lt;Sysname&gt;terminalmonitor Thecurrentterminalisenabledtodisplaylogs. 配置该命令后，如果有大量异常日志或者重复日志输出到命令行界面，则说明设备正在生 重复执行dis(成海量日志。)playlogbuffersummary命令，如果日志信息总量有明显的增加，再使用displaylogbufferreverse命令查看日志详情，确认是否有大量异常日志或者某一条信息大量重复出现。 &lt;Sysname&gt;displaylogbuffersummary SlotEMERGALERTCRITERRORWARNNOTIFINFODEBUG 1002924121280 5000417282097004211147400 &lt;Sysname&gt;displaylogbufferreverse Logbuffer:Enabled Maxbuffersize:1024 Actualbuffersize:512 Droppedmessages:0 Overwrittenmessages:0 Currentmessages:410 %Jan1508:17:24:2592021SysnameSHELL/6/SHELL_CMD: -Line=vty0-IPAddr=192.168.2.108-User=**;Commandisdisplaylogbuffer %Jan1508:17:19:7432021SysnameSHELL/4/SHELL_CMD_MATCHFAIL: -User=**-IPAddr=192.168.2.108;Commanddisplaylogfileinviewshellfailedtobematched. ... 如果设备正在生成海量日志，可以通过以下方法减少日志的生成： ess命令禁止指定模块日志的输出。 使用info-centerloggingsuppressduplicates命令开启重复日志抑制功能。如果设备未生成海量日志，则执行步骤(6)。 (7)收集CPU占用率相关信息，找到CPU占用率高的业务模块。 a.确定对CPU占用率高的任务。 #在设备上执行displayprocesscpu命令查看一段时间内占用CPU最多的任务。下面以slot1上的操作为例。 &lt;Sysname&gt;displayprocesscpuslot1 CPUutilizationin5secs:0.4%;1min:0.2%;5mins:0.2% JID5Sec1Min5MinName 10.0%0.0%0.0%scmd 25.5%5.1%5.0%[kthreadd]30.0%0.0%0.0%[ksoftirqd/0] ...如果某个进程的CPU占用率高于3%（经验值供参考），则需要针对该进程继续定位。#在设备上执行monitorprocessdumbtty命令实时查看进程在指定CPU上的占用率。下面以slot1CPU0为例。 &lt;Sysname&gt;system-view [Sysname]monitorprocessdumbttyslot1cpu0 206processes;342threads;5134fds Threadstates:4running,338sleeping,0stopped,0zombie CPU0:99.04%idle,0.00%user,0.96%kernel,0.00%interrupt,0.00%steal CPU1:98.06%idle,0.00%user,1.94%kernel,0.00%interrupt,0.00%steal CPU2:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%stealCPU3:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%steal CPU4:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%steal Memory:7940Mtotal,5273Mavailable,pagesize4K JIDPIDPRIStateFDsMEMHH:MM:SSCPUName 322322115R00K01:48:0320.02%[kdrvfwdd2] 323323115R00K01:48:0320.02%[kdrvfwdd3] 324324115R00K01:48:0320.02%[kdrvfwdd4] 376376120S22159288K00:00:070.37%diagd 11120S1830836K00:00:020.18%scmd 379379120S22173492K00:00:110.18%devd 22120S00K00:00:000.00%[kthreadd] 33120S00K00:00:020.00%[ksoftirqd/0] … </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">在monitorprocessdumbtty命令显示信息中找到CPU占用率超过3%（经验值供参考）的进程的JID，再对这些进程执行displayprocessjob命令，收集进程的详细信息，并确认该进程是否运行在控制核上。 如果displayprocessjob命令的显示信息中LAST_CPU字段的取值为控制核的编号（例如0～1），则说明该进程运行在CPU控制核上，则需要进一步定位；如果显示信息中LAST_CPU字段的取值为非控制核的编号，则说明该进程运行在CPU转发核上，无需关注，请执行步骤(7)。下面以pppd进程为例，通过显示信息可以看到，该进程包含多个线程，这些线程都运行在控制核上。 &lt;Sysname&gt;displayprocessnamepppd JobID:515PID:515 ParentJID:1 ParentPID:1 Executablepath:/sbin/pppd Instance:0 Respawn:ON Respawncount:1 Max.spawnsperminute:12 Laststarted:WedNov309:52:002021 Processstate:sleeping Max.core:1 ARGS:--MaxTotalLimit=2000000 --MaxIfLimit=65534--CmdOption=0x01047fbf--bSaveRunDb--pppoechastenflag=1 --pppoechastennum=6--pppoechastenperiod=60--pppoechastenblocktime=300 --pppchastenflag=1--pppchastennum=6--pppchastenperiod=60 --pppchastenblocktime=300--PppoeKChasten--bSoftRateLimit--RateLimitToken=2048 TIDLAST_CPUStackPRIStateHH:MM:SS:MSECName5150136K115S0:0:0:90pppd 5490136K115S0:0:0:0ppp_misc 5570136K115S0:0:0:10ppp_chasten 6100136K115S0:0:0:0ppp_work06111136K115S0:0:0:0ppp_work1 6121136K115S0:0:0:0ppp_work2 6131136K115S0:0:0:0mp_main 6181136K115S0:0:0:110pppoes_main6191136K115S0:0:0:100pppoes_mesh 6201136K115S0:0:0:120l2tp_mesh 6211136K115S0:0:0:20l2tp_main </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对于运行在控制核、CPU占用率超过5%的进程，查看进程的Name字段的取值来确定该进程是否为用户态进程。 如果Process的Name取值中包含“[]”，表示它是内核线程，无需执行monitorthreaddumbtty命令；如果Process的Name取值中未包含“[]”，表示它是用户态进程，它可能包含多个线程。对于多线程的用户态进程，还需要对该用户态进程执行monitorthreaddumbtty命令，如果显示信息中某线程LAST_CPU字段的取值为CPU控制核的编号，且CPU字段取值大于5%，则该线程可能为导致CPU控制核占用率高的线程，需要进一步定位。 &lt;Sysname&gt;monitorthreaddumbttyslot1cpu0 206processes;342threads;5134fds Threadstates:4running,338sleeping,0stopped,0zombie CPU0:98.06%idle,0.97%user,0.97%kernel,0.00%interrupt,0.00%steal CPU1:97.12%idle,0.96%user,0.96%kernel,0.96%interrupt,0.00%steal CPU2:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%stealCPU3:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%steal CPU4:0.00%idle,0.00%user,100.00%kernel,0.00%interrupt,0.00%steal Memory:7940Mtotal,5315Mavailable,pagesize4K JIDTIDLAST_CPUPRIStateHH:MM:SSMAXCPUName 3223222115R00:04:21020.15%[kdrvfwdd2]3233233115R00:04:21020.15%[kdrvfwdd3] 3243244115R00:04:21020.15%[kdrvfwdd4] 111120S00:00:02210.19%scmd 3763761120S00:00:0010.19%diagd220120S00:00:0000.00%[kthreadd] ... b.确认异常任务的调用栈。 在Probe视图下执行followjob命令确认异常任务的调用栈。下面以Sysname上（slot 1）pppd进程（进程编号为515）的操作为例。 &lt;Sysname&gt;system-view [Sysname]probe [Sysname-probe]followjob515slot1 Attachingtoprocess515(pppd) Iteration1of5 ------------------------------ ThreadLWP515:Switches:3205 Userstack: #00x00007fdc2a3aaa8cinepoll_wait+0x14/0x2e #10x0000000000441745inppp_EpollSched+0x35/0x5c #20x0000000000000004in?? Kernelstack: [&lt;ffffffff811f0573&gt;]ep_poll+0x2f3/0x370 [&lt;ffffffff811f06c0&gt;]SyS_epoll_wait+0xd0/0xe0 [&lt;ffffffff814aed79&gt;]system_call_fastpath+0x16/0x1b[&lt;ffffffffffffffff&gt;]0xffffffffffffffff ThreadLWP549:Switches:20 Userstack: #00x00007fdc2a3aaa8cinepoll_wait+0x14/0x2e #10x00000000004435d4inppp_misc_EpollSched+0x44/0x6c Kernelstack: [&lt;ffffffffffffffff&gt;]0xffffffffffffffff ... c.根据a和b步骤找到任务名称，再根据任务名称找到对应的业务模块，定位并处理业务模块的问题。例如，如果任务snmpd的CPU占用率较高，可能是因为设备受到了SNMP攻击，或者NMS对设备的访问太频繁。需要进一步定位SNMP业务模块的问题；如果任务nqad的CPU占用率较高，可能是因为NQA探测太频繁，需要进一步定位NQA业务模块的问题。 (8)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志 相关告警 •hh3cEntityExtCpuUsageThresholdNotfication •hh3cEntityExtCpuUsageThresholdRecover •hh3cCpuUsageSevereNotification •hh3cCpuUsageSevereRecoverNotification •hh3cCpuUsageMinorNotification •hh3cCpuUsageMinorRecoverNotification 相关日志 •DIAG/5/CPU_MINOR_RECOVERY •DIAG/4/CPU_MINOR_THRESHOLD •DIAG/5/CPU_SEVERE_RECOVERY •DIAG/3/CPU_SEVERE_THRESHOLD 5.3软件升级故障处理 5.3.1设备启动失败 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">本类故障的常见原因主要包括： •设备和网管之间路由不可达，或者SNMP功能异常，导致无法建立SNMP连接。 •设备侧和网管侧配置错误，导致网管无法收到设备发送的告警。 •设备侧业务模块没有产生告警。 •告警报文丢失，导致网管未收到设备发送的告警。 •SNMPTrap报文过大，超过SNMP模块对Trap报文大小的限制。 3.故障分析 本类故障的诊断流程如图176所示。 图176网管无法收到设备发送的Trap的故障诊断流程图 4.处理步骤 (1)在系统视图下通过snmp-agenttraplog命令开启SNMP告警日志功能。当设备向网管发 (2)送告警时，会同时在设备buffer|includeSNMP_NOTIFY通过(上生成一条日志来记录该Trap。displaylog)命令可以查看设备上是否生成Trap以及生成的Trap详情。 如果有显示信息，说明设备有Trap生成。请执行步骤(3)。 如果没有显示信息，说明SNMP模块未向外发送Trap。请执行步骤(4)。 (3)如果设备生成了Trap，但网管未收到Trap，请参照以下步骤定位。 a.检查设备是否可以和网管建立SNMP连接。如果连接建立失败，请参见SNMP连接失败 b.故障处isplaycurrent-configuration|(理流程解决SNMP连接建立失败问题。通过d)includesnmp命令查看snmp-agenttarget-hosttrap命令配置是否正确。如果不正确，请修改配置，保证指定的IP地址（VPN参数）和端口号与网管用来接收Trap报文的IP地址（网管所属VPN）和端口号一致，以及设备和网管使用的SNMP协议、安全字一致。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果使用SNMPv1或SNMPv2c版本，则安全字为团体名，请在设备上使用snmp-agentcommunity命令创建SNMP团体。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果使用SNMPv3版本，则安全字为用户名，且设备和网管使用的认证和加密级别必须相同。您需要在设备上使用snmp-agentgroup和snmp-agentusm-userv3命 令创建SNMPv3用户，创建用户时配置的认证和加密模式、认证密码和加密密码（如果用到）必须和网管侧一致，且创建用户时配置的认证和加密级别必须比snmp-agenttarget-hosttrap命令中指定的认证和加密级别高。安全级别分为：不认证不加密、认证不加密和认证加密，安全级别依次升高。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">团体名和用户名可访问的MIBview必须包含对应的MIB告警节点，否则，会因为权限 c.执debuggingudppacket命令打开UDP行(问题导致备不会将Trap报文发送给网管。)报文的调试信息开关，查看设备发送的Trap报文是否过大。如果业务模块封装的数据较多，可能会导致Trap报文大于设备能发送的 SNMP报文的最大长度，这样的Trap报文会被丢弃。此时可结合网络的MTU值以及是否支持分片情况，通过snmp-agentpacketmax-size命令修改设备能发送的SNMP报 文的最大长度。 *Dec2722:35:41:2032021SysnameSOCKET/7/UDP:-MDC=1; UDPOutput: UDPPacket:vrf=0,src=192.168.56.121/30912,dst=192.168.56.1/162len=79,checksum=0xd98fd.检查网络中是否存在防火墙过滤Trap报文。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果防火墙对报文的源IP进行了过滤，可使用snmp-(如果网络中设置了防火墙，可采用以下措施来解决问题：)agenttrapsource命令修改 Trap报文的源IP地址。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">修改防火墙的规则，放行Trap报文。 e.检查网络是否不稳定，存在丢包。 如果网络中存在丢包，可采用以下措施来解决问题： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">检查网络，解决网络丢包问题。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">配置使用Inform报文发送告警信息。Inform有确认机制，比Trap更可靠。Inform仅 SNMPv2c和SNMPv3支持。 (4)SNMP模块未向外发送Trap，请参照以下步骤定位。 a.通过displaysnmp-agenttrap-list查看业务模块的告警功能是否开启。如未开启，可通过snmp-agenttrapenable命令开启。 b.检查是否达到告警条件。例如接口状态告警会在接口状态发生变化时产生，CPU和内存告警会在CPU、内存的利用率超过阈值时产生等。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如未达到告警条件，未产生Trap，属正常现象，无需处理。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果达到告警条件，设备未向外发送Trap，请执行步骤(c)。 c.使用displaysnmp-agenttrapqueue命令查看Trap缓冲区是否被占满。如果 Messagenumber大于Queuesize，表示Trap缓冲区可能被占满，新生成的Trap报文可能被丢弃。此时，可在系统视图下使用snmp-agenttrapqueue-size和snmp-agenttraplife命令来调整Trap缓冲区性能参数。 (5)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警无 相关日志 •SNMP/6/SNMP_NOTIFY •SNMP/3/SNMP_INFORM_LOST 21.6镜像故障处理 21.6.1配置流镜像后监控设备收不到镜像报文 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">本类故障的常见原因主要包括： •SSH客户端与设备之间路由不通，无法建立TCP连接。 •设备未开启SSH服务器功能。 •设备上配置了对SSH客户端的访问控制，且客户端的IP地址不在ACL定义的permit规则范围内。 •客户端指定的服务端口号与服务器端不一致。 •设备上的SSH版本与客户端不兼容。 •设备上未生成本地密钥对。 •服务器主机密钥与设备上缓存的密钥不匹配。 •用户线的认证方式或接入协议配置不正确。 •设备上的本地用户视图下未配置SSH服务。 •SSH用户的服务类型或认证方式配置不正确。 •设备上SSH2协议使用的算法与客户端不匹配。 •设备上VTY用户线资源不足。 •设备上SSH登录用户数达到上限。 3.故障分析 本类故障的诊断流程如图4-44所示。图4-44SSH登录失败故障诊断流程图 4.处理步骤 (1)检查客户端能否Ping通设备。使用ping命令检查网络连接情况。 如果Ping不通，请参见“Ping不通的定位思路”继续定位，确保SSH客户端能Ping通服务器端。 如果可以Ping通，请执行步骤（2）。 (2)检查SSH服务器功能是否开启。 当设备上出现如下日志时，表示SSH服务器功能未开启。 SSHS/6/SSHS_SRV_UNAVAILABLE:TheSCPserverisdisabledortheSCPservicetypeisnotsupported. 可以在设备上执行displaysshserverstatus命令，检查Stelnet服务器功能、SFTP服务器功能、NETCONFoverSSH服务器功能和SCP服务器功能是否按需开启。 &lt;Sysname&gt;displaysshserverstatus Stelnetserver:Disable SSHversion:2.0 SSHauthentication-timeout:60second(s) SSHserverkeygeneratinginterval:0hour(s)SSHauthenticationretries:3time(s) SFTPserver:Disable SFTPServerIdle-Timeout:10minute(s) NETCONFserver:DisableSCPserver:Disable 如果未开启，请在设备上执行如下命令，开启相关的SSH服务器功能。 &lt;Sysname&gt;system-view [Sysname]sshserverenable [Sysname]sftpserverenable [Sysname]scpserverenable[Sysname]netconfsshserverenable 如果已开启，请执行步骤（3）。 (3)检查是否设置了对客户端的访问控制。首先检查设备上是否通过sshserveracl命令设置了对客户端的访问控制。 如果已设置，请检查客户端的IP地址是否在ACL的permit规则中。当设备上出现如下日志时，表示客户端的IP地址不在ACL的permit规则中。 SSHS/5/SSH_ACL_DENY:TheSSHconnectionrequestfrom181.1.1.10wasdeniedbyACLrule(ruleID=20). SSHS/5/SSH_ACL_DENY:TheSSHconnectionrequestfrom181.1.1.11wasdeniedbyACLrule(defaultrule). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果不在，请修改ACL配置，使得客户端的IP地址在ACL的permit规则中。如果对所有SSH客户端都不需要进行访问控制，请删除对客户端的访问控制。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果在，请执行步骤（4）。 如果未设置，请执行步骤（4）。 (4)检查客户端指定的服务端口号是否与服务器端一致。 如果服务器端修改了SSH服务端口号，客户端仍然使用缺省端口号登录时，会出现登录失败。 以我司设备作为客户端为例，会出现如下错误提示信息：Failedtoconnecttohost10.1.1.1port100. 如果客户端登录时指定的端口号与服务器端不一致，请在服务器端设备上执行displaycurrent-configuration|includessh命令查看服务器端配置的端口号，将客户端登录时指定的端口修改为与服务器端一致。 如果客户端登录时指定的端口号与服务器端一致，请执行步骤（5）。 (5)检查服务器的SSH版本与客户端版本是否兼容。 当设备上出现如下日志时，表示设备的SSH版本与客户端版本不兼容。 SSHS/6/SSHS_VERSION_MISMATCH:SSHclient192.168.30.117failedtologinbecauseofversionmismatch. 如果使用SSH1版本的客户端登录设备，可以在设备上执行displaysshserverstatus命令查看SSHversion字段确认SSH版本。 如果SSHversion显示为1.99，则表示设备可以兼容SSH1版本的客户端，请执行步骤（6）。 如果SSHversion显示为2.0，请在设备上执行sshservercompatible-ssh1xenable命令设置设备兼容SSH1版本的客户端。 (6)检查服务器上是否生成了本地密钥对。 设备作为SSH服务器时，必须配置本地非对称密钥对。虽然一个客户端只会采用DSA、ECDSA或RSA公钥算法中的一种来认证服务器，但是由于不同客户端支持的公钥算法不同，为了确保客户端能够成功登录服务器，建议在服务器上生成DSA、ECDSA和RSA三种密钥对。在设备上执行displaypublic-keylocalpublic命令查看当前设备上的密钥对信息。 如果DSA、ECDSA和RSA三种密钥对都不存在，请执行public-keylocalcreate命令依次进行配置。 如果已配置，请执行步骤（7）。 (7)检查服务器主机密钥与客户端上缓存的服务器主机密钥对是否一致。如果客户端首次登录服务器设备时选择保存了服务器端主机密钥，当服务器设备更新本地密钥对后，将会导致客户端认证服务端失败。以我司设备作客户端为例，当客户端登录时，出现如下提示信息，则表示服务器主机密钥与客户端上本地缓存的密钥不一致。 Theserver'shostkeydoesnotmatchthelocalcachedkey.Eithertheserveradministratorhaschangedthehostkey,oryouconnectedtoanotherserverpretendingtobethisserver.Pleaseremovethelocalcachedkey,beforeloggingin! 如果不一致，请执行undopublic-keypeer命令，删除客户端保存的旧的服务端主机密钥。 如果一致，请执行步骤（8）。 (8)查看VTY用户线下配置的认证方式及允许接入的协议是否正确。当客户端为Stelnet客户端和NETCONFoverSSH客户端时，需要在VTY用户线视图下，执行displaythis命令查看配置的认证方式是否为scheme、允许接入的协议是否包含SSH。 [Sysname]linevty063 [Sysname-line-vty0-63]displaythis #linevty063 authentication-modescheme user-rolenetwork-adminidle-timeout00 # 如果认证方式或者接入协议配置不正确，请将认证方式修改为scheme、将允许接入的协议修改为包含SSH。 如果均配置正确，请执行步骤（9）。 (9)检查本地用户是否授权了SSH服务。（仅针对本地认证） 在本地用户视图下，执行displaythis命令查看用户可以使用的服务类型是否包含SSH。 [Sysname]local-usertest [Sysname-luser-manage-test]displaythis # local-usertestclassmanageservice-typesshauthorization-attributeuser-rolenetwork-admin authorization-attributeuser-rolenetwork-operator 不包含，请在本地用户视图下通过service-type命令修改配置。 如果包含，请执行步骤（10）。 如果为远程认证方式，请参见“AAA故障处理”进行定位。 (10)检查是否配置了SSH用户并指定正确的服务类型和认证方式。 SSH支持Stelnet、SFTP、NETCONF和SCP四种用户服务类型。 首先，根据服务器采用的认证类型，根据如下规则，查看设备上是否创建正确的SSH用户。 如果服务器采用了publickey认证，则必须在设备上创建相应的SSH用户，以及同名的本地用户（用于下发授权属性：工作目录、用户角色）。 如果服务器采用了password认证，则必须在设备上创建相应的本地用户（适用于本地认证），或在远程服务器（如RADIUS服务器，适用于远程认证）上创建相应的SSH用户。 这种情况下，并不需要通过本配置创建相应的SSH用户，如果创建了SSH用户，则必须保证指定了正确的服务类型以及认证方式。 如果服务器采用了keyboard-interactive、password-publickey或any认证，则必须在设备上创建相应的SSH用户，以及在设备上创建同名的本地用户（适用于本地认证）或者在远程认证服务器上创建同名的SSH用户（如RADIUS服务器，适用于远程认证）。 接着，根据检查的结果，进行如下操作： 如果未创建且无需创建，请执行步骤（11）；如果未创建但有需求创建，请通过sshuser命令进行配置。 如果已创建，检查SSH用户的服务类型和认证方式。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SSH用户指定的服务类型必须与客户端类型（Stelnet客户端、SFTP客户端、SCP客户端和NETCONFoverSSH客户端）相匹配，否则将会因为服务类型不匹配而登录失败。SSH用户服务类型是否正确，通过如下方式来检查： 以SCP客户端为例，如果设备上出现如下日志，表示服务类型不匹配。 SSHS/6/SSHS_SRV_UNAVAILABLE:TheSCPserverisdisabledortheSCPservicetypeisnotsupported. 请在设备系统视图下执行sshuser命令，修改SSH用户的服务类型。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">请在设备上执行displaysshuser-information命令，查看SSH服务器采用的认证方式，根据具体的认证方式检查设备上SSH用户的配置是否正确。 (11)检查设备上SSH2协议使用的算法列表是否与客户端匹配。 通过displayssh2algorithm命令查看当前SSH2协议使用的算法列表，检查客户端支持的算法是否包含在算法列表中。比如，设备上配置了不使用CBC相关的加密算法，但SSH客户端仅支持CBC相关加密算法，将导致该客户端无法登录服务器。 当设备上出现如下日志信息时，表示设备上SSH2协议使用的算法列表是否与客户端不匹配。 SSHS/6/SSHS_ALGORITHM_MISMATCH:SSHclient192.168.30.117failedtologinbecauseofencryptionalgorithmmismatch. 如果客户端使用的算法与设备上的算法不匹配，可通过如下两种方式进行修改： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">设备可以通过执行ssh2algorithmcipher、ssh2algorithmkey-exchange、ssh2algorithmmac或ssh2algorithmpublic-key命令修改相关算法列表，增加客户端支持的算法。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">在客户端添加服务端支持的相关算法。 如果客户端使用的算法与设备上的算法能够匹配，请执行步骤（12）。 (12)检查设备上VTY用户数是否达到允许用户数的上限。SSH用户与Telnet用户登录均使用VTY用户线，但是VTY用户线是有限资源。若VTY类型用户线都已被占用，则后续使用Stelnet及NETCONFoverSSH服务的客户端将无法登录，使用SFTP及SCP服务的客户端不占用用户线资源，不受影响，仍可登录。当设备上出现如下日志时，表示设备上VTY用户数已达到允许用户数的上限。 SSHS/6/SSHS_REACH_USER_LIMIT:SSHclient192.168.30.117failedtologin,becausethenumberofusersreachedtheupperlimit.通过displayline命令查看VTY用户线资源是否充足。 如果VTY用户线资源不足，可将空闲且非scheme认证方式的VTY类型用户线认证方式修改为scheme认证方式；若所有VTY类型用户线都已是scheme认证方式且均处于active状态，可执行freelinevty命令强制释放VTY用户线，使得新的SSH用户能够上线。 如果VTY用户线资源充足，请执行步骤（13）。(13)检查登录服务器的SSH用户数是否达到允许用户数的上限。通过displaysshserversession命令查看服务器的会话信息，以及查看通过aaasession-limitssh命令配置的SSH最大用户连接数。 当设备上出现如下日志时，表示登录服务器的SSH用户数已达到允许用户数的上限。 SSHS/6/SSHS_REACH_SESSION_LIMIT:SSHclient192.168.30.117failedtologin.ThenumberofSSHsessionsis10,andexceededthelimit(10). 如果SSH会话数已达到上限，可通过执行aaasession-limitssh命令调大上限；如果配置的最大用户连接数已为可配置的最大值，可执行freessh命令强制释放已建立的部分SSH连接或者执行freelinevty命令强制释放VTY用户线，使得新的SSH用户能够上线。 如果未达上限，请执行步骤（14）。 (14)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志 相关告警 模块名：HH3C-SSH-MIB •hh3cSSHVersionNegotiationFailure(1.3.6.1.4.1.25506.2.22.1.3.0.2)相关日志 •SSHS/5/SSH_ACL_DENY •SSHS/6/SSHS_ALGORITHM_MISMATCH •SSHS/6/SSHS_REACH_SESSION_LIMIT •SSHS/6/SSHS_REACH_USER_LIMIT•SSHS/6/SSHS_SRV_UNAVAILABLE •SSHS/6/SSHS_VERSION_MISMATCH 4.15.2设备作为SSH服务器，用户使用password认证方式登录失败 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备上没有开启 IP 组播路由功能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与用户主机网段直连的接口物理状态为 Down。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与用户主机网段直连的接口未配置主 IP 地址。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与用户主机网段直连的接口上未开启 IGMP 或 MLD 功能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组播组 G 属于 SSM 组地址范围，设备上配置的 IGMP 或 MLD 版本不正确。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备上配置了 SSM 组地址过滤规则，但组播组 G 地址不在 ACL 定义的 permit 规则范围内。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备上配置了 IGMP 或 MLD 组播组过滤器，但组播组 G 地址不在 ACL 定义的 permit 规则范围内。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法正常建立IGM表项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC 版本过低，不支持通过 RA 报文下发 IPv6 DNS Server 信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows 终端不支持通过 RA 方式自动获取 IPv6 DNS 信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备侧 RA 配置错误，导致终端获取不到 IPv6 DNS 信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络中设备 VLAN 配置不正确，导致二层网络不通，终端获取不到 IPv6 DNS 信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络中设备的接口配置不正确，导致二层网络不通，终端获取不到 IPv6 DNS 信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线终端与设备间的 RS/RA 报文交互流程出现问题，导致终端获取不到 IPv6 DNS 信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端通过RA方式自动获取IPv7地址失败</t>
+  </si>
+  <si>
+    <t>终端通过RA方式自动获取IPv8地址失败</t>
+  </si>
+  <si>
+    <t>终端通过RA方式自动获取IPv9地址失败</t>
+  </si>
+  <si>
+    <t>终端通过RA方式自动获取IPv10地址失败</t>
+  </si>
+  <si>
+    <t>终端通过RA方式自动获取IPv11地址失败</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">本类故障的常见原因主要包括： •学习到的ARP表项参数异常。 •学习到的ARP表项没有成功下发驱动。 3.故障分析 本类故障的诊断流程如图61所示。 图61已有ARP表项但无法转发流量故障诊断流程图 4.处理步骤 (1)检查ARP表项是否成功创建。通过displaysysteminternaladj4entry命令查看 ARP表项信息，以接口GigabitEthernet1/0/1、对端IP地址为1.1.1.2为例。 &lt;Sysname&gt;system-view [Sysname]probe [Sysname-probe]displaysysteminternaladj4entry1.1.1.2interfacegigabitethernet 1/0/1 ADJ4entry: Entryattribute:0x0 Servicetype:Ethernet Linkmediatype:Broadcast Actiontype:Forwarding Entryflag:0x0Forwardtype:0x0 Slot:0 MTU:1500 Driverflag:2 SequenceNo:17 Physicalinterface:GE1/0/1 Logicalinterface:N/A Virtualcircuitinformation:65535 ADJindex:0xdc731e70 Peeraddress:0.0.0.0 Referencecount:0 ReferenceSequence:9 MicroSegmentID:0 Nexthopdriver[0]:0xffffffff Nexthopdriver[1]:0xffffffff Drivercontext[0]:0xffffffffDrivercontext[1]:0xffffffffDrivercontext[2]:0xffffffff Drivercontext[3]:0xffffffff Drivercontext[4]:0xffffffff Drivercontext[5]:0xffffffff Linkheadinformation(IP):68cb9c3f020668cb978f01060800Linkheadinformation(MPLS):68cb9c3f020668cb978f01068847 如果“Actiontype”字段为“Forwarding”，则代表设备正常转发来自1.1.1.2的流量，设备无故障。 如果“Actiontype”字段为“Drop”，则表示没有成功创建ARP表项。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果“Driverflag”字段为“4”，代表驱动资源不足，请检查驱动的使用情况。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果“Driverflag”字段不为“4”，请继续执行第(2)步。 (2)检查ARP表项是否成功下发到驱动。通过debuggingsysteminternaladj4命令并指定hardware参数打开IPv4邻接表下驱动调试功能。通过resetarp命令清除ARP表项，然后通过ping命令向对端设备发送报文来触发ARP表项的学习，查看ARP表项下发驱动的情况。 &lt;Sysname&gt;system-view [Sysname]probe [Sysname-probe]debuggingsysteminternaladj4hardware [Sysname-probe]ping1.1.1.2 Ping1.1.1.2(1.1.1.2):56databytes,pressCTRL+Ctobreak 56bytesfrom1.1.1.2:icmp_seq=0ttl=255time=2.015ms *Apr2215:57:56:1732022SysnameARP/7/ARP_SEND:-MDC=1;SentanARPmessage,operation:1,senderMAC:68cb-978f-0106,senderIP:1.1.1.1,targetMAC:0000-0000-0000,targetIP:1.1.1.2 *Apr2215:57:56:1732022SysnameARP/7/ARP_RCV:-MDC=1;ReceivedanARPmessage,operation:2,senderMAC:68cb-9c3f-0206,senderIP:1.1.1.2,targetMAC:68cb-978f-0106,targetIP:1.1.1.1 *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_ENTRY:-MDC=1; -------------ADJ4Entry------------ IPaddress:1.1.1.2Routeinterface:GE1/0/1 Servicetype:Ethernet Actiontype:Forwarding Linkmediatype:Broadcast Physicalinterface:GE1/0/1 Logicalinterface:N/A VSIIndex:4294967295 VPNIndex:0 MicroSegmentID:0 MicSegOrigin:5 VirtualCircuitinformation:0xffff Sequence:1Sequenceforaging:1Slot:0 MTU:1500 *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_ENTRY:-MDC=1; AddADJentryfinished,Result:0 *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_HARDWARE:-MDC=1; ====StartADJLINKAdd==== *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_HARDWARE:-MDC=1; ---------------NewEntry-------------Servicetype:Ethernet Linkmediatype:Broadcast Actiontype:Forwarding EntryAttr:0 IPaddress:1.1.1.2Routeinterface:GE1/0/1 Portinterface:N/ASlot:0 MTU:1500 VLANID:65535 SecondVLANID:65535 Physicalinterface:GE1/0/1 Logicalinterface:N/A VRFindex:0 VSIindex:-1 VSIlinkID:65535 UsrID:-1 MACaddress:68cb-9c3f-0206 Linkheadlength(IP):14 Linkheadlength(MPLS):14 Linkheadinformation(IP):68cb9c3f020668cb978f01060800 Linkheadinformation(MPLS):68cb9c3f020668cb978f01068847 *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_HARDWARE:-MDC=1; -----------NewEntryDrvContext--------- Nexthopdriver [0]:0xffffffff[1]:0xffffffffDrivercontext [0]:0xffffffff[1]:0xffffffff[2]:0xffffffff[3]:0xffffffff[4]:0xffffffff[5]:0xffffffff TRILLVNdrivercontext [0]:0xffffffffffffffff[1]:0xffffffffffffffff *Apr2215:57:56:1742022SysnameADJ4/7/ADJ4_HARDWARE:-MDC=1; ====EndADJLINKOperate==== Result:0x0,Referenceflag:0x0,Synflag:0x0 56bytesfrom1.1.1.2:icmp_seq=1ttl=255time=1.061ms 56bytesfrom1.1.1.2:icmp_seq=2ttl=255time=0.908ms 56bytesfrom1.1.1.2:icmp_seq=3ttl=255time=0.625ms 56bytesfrom1.1.1.2:icmp_seq=4ttl=255time=0.580ms ---Pingstatisticsfor1.1.1.2--- 5packet(s)transmitted,5packet(s)received,0.0%packetlossround-tripmin/avg/max/std-dev=0.580/1.038/2.015/0.520ms [Sysname-probe]%Apr2215:57:56:9862022SysnamePING/6/PING_STATISTICS:-MDC=1;Pingstatisticsfor1.1.1.2:5packet(s)transmitted,5packet(s)received,0.0%packetloss,round-tripmin/avg/max/std-dev=0.580/1.038/2.015/0.520ms. 如果“Result”字段为“0x0”，则代表ARP表项成功下发到驱动，请继续执行第(3)步。 如果“Result”字段不为“0x0”，则代表ARP表项没有下发到驱动，请在H3C技术支持工程师的指导下检查硬件资源的使用情况。(3)请执行如下命令，并收集显示信息，发送给H3C技术支持工程师。 执行debuggingsysteminternaladj4命令并指定notify参数。 执行debuggingsysteminternalipv4fibprefix命令。 (4)请收集如下信息，并联系H3C技术支持工程师。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 9.2ND故障处理 9.2.1无法学习到ND表项 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本类故障的常见原因主要包括： •用户已通过其它认证方式上线。 •全局或接口MAC地址认证功能未开启。 •设备配置的认证方式与RADIUS服务器不一致。 •MAC地址认证用户使用的认证域及相关配置错误。 •RADIUS服务器无回应。 •本地认证或RADIUS服务器认证拒绝。 •授权属性下发失败。 •用户MAC地址被设置为静默MAC。 •MAC地址认证在线用户数达到最大值。 3.故障分析 本类故障的诊断流程如图4-23所示。 图4-21MAC地址认证用户认证失败的故障诊断流程图 4.处理步骤 •Debug开关不能在设备正常运行时随意开启，可在故障发生后复现故障场景时打开。 •请及时保存以下步骤的执行结果，以便在故障无法解决时快速收集和反馈信息。 (1)检查用户是否已通过其它认证方式上线。 当前端口默认的认证方式顺序为：802.1X认证-&gt;MAC地址认证-&gt;Web认证。通过displaydot1xconnection命令查看当前MAC地址是否已经通过了802.1X认证 成功上线。如果已经在线，请判断是否需要通过MAC地址认证重新上线，如果需要，则将相应的802.1X用户下线并关闭802.1X认证功能，然后再尝试进行MAC地址认证。 (2)检查全局或接口MAC地址认证功能是否开启。 a.执行displaymac-authentication命令，如果提示“MACauthenticationisnotconfigured.”，表示全局MAC地址认证未开启，需要在系统视图下执行mac-authentication命令。 b.执行displaymac-authentication命令，如果有全局配置信息，无接口下的配置信息显示，则需要在用户认证的接口视图下执行mac-authentication命令。 (3)检查设备上配置的认证方法与RADIUS服务器是否一致。 设备上MAC地址认证支持entication命令查看“执行Authenticatio(两种认证方法：CHAP和PAP。dismac-auth)nmethod”字段显示的当前MAC 地址认证的认证方法与RADIUS服务器上配置的认证方法是否一致。如果不一致，则可以执行mac-authenticationauthentication-method命令修改设备上的配置。 (4)检查认证域及相关是否配置错误。端口上接入的MAC地址认证用户将按照如下先后顺序选择认证域：端口上指定的认证域&gt;系统视图下指定的认证域&gt;系统缺省的认证域。 a.通过在设备上执行displaymac-authentication命令查看系统和认证接口下是否配 置了MAC地址认证用户使用的认证域。 &lt;Sysname&gt;displaymac-authentication GlobalMACauthenticationparameters: MACauthentication:EnabledAuthenticationmethod:PAP Authenticationdomain:Notconfigured,usedefaultdomain … GigabitEthernet1/0/1islink-up MACauthentication:Enabled CarryUser-IP:Disabled Authenticationdomain:Notconfigured … b.如果认证接口下配置了MAC地址认证用户使用的认证域，请执行displaydomain命令检查认证域下的认证方案是否配置准确；如果认证接口下未配置认证域，而系统视图下配置了认证域，则同样通过displaydomain命令检查该认证域下的认证方案。 c.如果认证接口和系统视图下都没有配置MAC地址认证用户使用的认证域，则检查缺省认 d.如果不存在缺(证域的配置。)省认证域，若通过domainif-unknown命令配置了unknown域，则检查unknown域下的认证方案是否正确。 e.如果根据以上原则决定的认证域在设备上都不存在，则用户无法完成认证。 (5)检查RADIUS服务器有无响应。 请参见《AAA故障处理》的“RADIUS服务器无响应”进行故障定位和处理。 (6)检查下线原因是否为认证拒绝。 执行debuggingmac-autheticationevent命令打开MAC地址认证事件调试开关： 若系统打印调试信息“Localauthenticationrequestwasrejected.”，则表示本地认证拒绝。导致本地认证拒绝的原因有本地用户不存在、用户名密码错误、服务类型错误等。 若系统打印调试信息“TheRADIUSserverrejectedtheauthenticationrequest.”，则表示RADIUS服务器认证拒绝。服务器认证拒绝有多种原因，最常见的有服务器上未添加用户名、用户名格式不一致、用户名密码错误、RADIUS服务器授权策略无法匹配等。在设备上通过debuggingradiuserror命令打开RADIUS错误调试信息开关查看相关的Debug信息，并且同时可以在设备上执行test-aaa命令发起RADIUS请求测试，定位故障问题后，调整服务器、设备及客户端配置。 (7)检查授权属性是否下发失败。 通过debuggingmac-authenticationevent命令打开MAC地址认证事件调试开关。 如果设备上打印了“Authorizationfailure.”的调试信息，则表示授权失败。 a.检查设备的系统视图下是否通过port-securityauthorization-failoffline命 令配置了授权失败用户下线功能。如果未配置授权失败用户下线功能，缺省情况下授权失败用户也可以保持在线，则用户不是因为授权失败而导致认证失败，继续定位其它可能原 b.如果(因。)配置了授权失败用户下线功能，执行mac-authenticationaccess-userlogenablefailed-login命令打开MAC地址认证上线失败日志功能，确认授权失败的属性有哪些（例如授权ACL、VLAN）。 c.检查RADIUS服务器上的授权属性设置是否正确，确保服务器下发的授权属性内容准确。 d.通过displayacl或displayvlan等命令查看设备上对应的授权属性是否存在，如 果不存在，需要在设备上创建相应的授权属性，确保用户能够获取到授权的信息。 (8)检查用户的MAC地址是否被设置为静默MAC。 执行displaymac-authentication命令查看“SilentMACusers“字段显示的静默MAC信息。如果用户的MAC地址属于静默MAC，则需要等待静默时间老化后，才能再次进行MAC地址认证。用户可通过mac-authenticationtimerquiet命令重新配置静默时间。 (9)检查MAC地址认证用户数是否达到了最大用户数限制。 a.执行displaymac-authentication查看认证接口下的信息，“Maxonlineusers”字段为该接口下配置的最大用户数，“Currentonlineusers”字段为接口下当前在线用户数，对比两组数据判断MAC地址认证在线用户数是否已经达到最大值。 b.如果已经达到最大用户数，可以执行mac-authenticationmax-user命令增大最多允许同时接入的MAC地址认证用户数。 c.如果MAC地址认证的在线用户数无法再增大，则需要等其他用户下线或切换用户的接入端口。 (10)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 rlogenable命令收集的日志信息。 执行debuggingmac-authenticationall、debuggingradiusall命令收集 的调试信息。 5.告警和日志相关告警无 相关日志 •MACA_ENABLE_NOT_EFFECTIVE •MACA_LOGIN_FAILURE 4.11.2MAC认证用户掉线 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不回应ARP应答报文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口收到的 ARP 请求报文的目的 IP 不是本机 IP。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">端设备发送的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ARP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">请求报文触发了本端的源 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">MAC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">地址固定的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ARP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻击检测功能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">端设备发送的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ARP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">请求报文触发了本端的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ARP Detection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功能。</t>
+    </r>
+  </si>
+  <si>
+    <t>USB设备工作不正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB设备故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB口无法识别插入的USB设备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云AP无法连接至云平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在云平台添加设备时没有正确输入云 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">码，导致云 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加后不能上线。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">云 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">没有连接外网，导致云 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无法在云平台上线。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">云 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">在本地 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Web </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">页面上的云管理配置不正确，导致云 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无法在云平台上线。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">云 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">已经在 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">上线，因为云 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">无法同时在 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与云平台上线，导致在云平台上线失败。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">本类故障的常见原因主要包括： •全局或接口802.1X功能未开启。 •802.1X客户端不能正常发送或接收认证报文。 •设备配置的认证方式与RADIUS服务器不一致。 •802.1X用户使用的认证域及相关配置错误。 •RADIUS服务器无回应。 •RADIUS服务器认证拒绝。 •授权属性下发失败。 •802.1X认证用户的MAC地址被其它端口绑定。 •802.1X用户处于静默状态。 •802.1X在线用户数达到最大值。 3.故障分析 本类故障的诊断流程如图4-23所示。 图4-23802.1X用户认证失败的故障诊断流程图 4.处理步骤 •Debug开关不能在设备正常运行时随意开启，可在故障发生后复现故障场景时打开。 •请及时保存以下步骤的执行结果，以便在故障无法解决时快速收集和反馈信息。 (1)检查设备全局或接口802.1X功能是否开启。 通过在设备上执行displaydot1x命令，检查全局和认证接口上的802.1X功能是否开启。 如果提示“802.1Xisnotconfigured.”，表示全局802.1X功能未开启，请在系统视图下执行dot1x命令，开启全局802.1X认证功能。 如果有全局配置信息，无接口下的配置信息显示，则说明接口下未开启802.1X功能，请在认证接口视图下执行dot1x命令。 (2)检查802.1X客户端是否能正常发送或接收认证报文。 检查802.1X客户端版本是否为设备和服务器支持的版本。 检查设备与802.1X客户端间的链路连接是否正常。 通过抓包检查设备与客户端间是否能正常收发数据报文，分析抓包文件进一步定位故障问题。 (3)检查设备上配置的认证方法与RADIUS服务器是否一致。设备上802.1X系统支持两种认证方法：EAP终结（PAP和CHAP）和EAP中继（EAP），配置EAP认证方法时需要注意以下几点： 保证设备和RADIUS服务器配置的认证方法一致，且客户端支持。 本地认证仅支持EAP终结方式。通过在设备上执行displaydot1x命令查看当前802.1X采用的认证方式。 &lt;Sysname&gt;displaydot1xGlobal802.1Xparameters: 802.1Xauthentication:EnabledDRmemberconfigurationconflict:UnknownEAPauthentication:Enabled 如(…)果与服务器不一致，可通过dot1xauthentication-method命令修改。 (4)检查认证域及相关配置是否正确。 802.1X用户按照如下先后顺序选择认证域：端口上指定的强制ISP域--&gt;用户名中指定的ISP域--&gt;系统缺省的ISP域。 a.通过在设备上执行displaydot1x命令查看认证接口下是否配置了802.1X用户的强制 认证域。 &lt;Sysname&gt;displaydot1x … GigabitEthernet1/0/1islink-up 802.1Xauthentication:Enabled … Multicasttrigger:Enabled Mandatoryauthdomain:Notconfigured … 如果配置了强制认证域，请执行displaydomain命令检查强制认证域下的认证方案是否配置准确。 b.如果没有配置强制认证域，若802.1X用户名中包含域名，请确认域名分隔符与RADIUS服务器支持的域名分隔符保持一致，然后根据用户名中包含的域名找到指定域并检查其配置。 c.如果802.1X用户名中未包含域名，则检查缺省认证域的配置。 d.如果不存在缺省认证域，若通过domainif-unknown命令配置了unknown域，则检查unknown域下的认证方案是否配置准确。 e.如果根据以上原则决定的认证域在设备上都不存在，则用户无法完成认证。 (5)检查RADIUS服务器有无响应。 具体的故障定位操作请参见《AAA故障处理手册》的“RADIUS服务器无响应”。 (6)检查下线原因是否为认证拒绝。 执行debuggingdot1xevent命令打开802.1X认证事件调试开关： 若系统打印调试信息“Localauthenticationrequestwasrejected.”，则表示本地认证拒绝。导致本地认证拒绝的原因有本地用户不存在、用户名密码错误、用户服务类型错误等。 若系统打印调试信息“TheRADIUSserverrejectedtheauthenticationrequest.”，则表示RADIUS服务器认证拒绝。RADIUS服务器认证拒绝有多种原因，最常见的有服务器上 未添加用户名、用户名密码错误、RADIUS服务器授权策略无法匹配等。通过执行 debuggingradiuserror命令打开RADIUS错误调试信息开关查看相关的Debug信息，并且同时可以在设备上执行test-aaa命令发起RADIUS请求测试，定位故障问题后，调整服务器、设备及客户端配置。 (7)检查授权属性是否下发失败。 a.执行debuggingdot1xevent打开802.1X认证事件调试开关。如果系统打印调试信 息“Authorizationfailure.”，则表示授权失败。 b.检查设备上是否通过port-securityauthorization-failoffline命令配置了授 权失败用户下线功能。如果未配置授权失败用户下线功能，缺省情况下授权失败用户也可以保持在线，则用户不是因为授权失败而导致认证失败，继续定位其它故障原因。 c.检查服务器上的授权属性（例如授权ACL、VLAN）设置是否正确，确保服务器下发的授 d.执行displayac(权属性内容准确。)l或displayvlan命令检查设备上对应的授权属性是否存在，如果 不存在，需要在设备上创建相应的授权属性，确保用户能够获取到授权的信息。 (8)检查802.1X用户的MAC地址是否绑定失败。 执行debuggingdot1xevent命令打开802.1X事件调试信息开关。如果系统打印调试信息“MACbindingprocessingfailure.”，则表示802.1X用户的MAC地址绑定处理失败。 (9)检查802.1X用户是否处于静默状态。 在设备上执行displaydot1x命令，显示信息中“Quiettimer”和“Quietperiod”字段显示的是静默定时器的开启状态和静默时长，“Online802.1Xusers”字段下如果用户的“Authstate”显示为“Unauthenticated”时，则表示该用户为802.1X静默用户。 静默期间，设备将不对静默用户进行802.1X认证处理。用户需等待静默时间老化后，重新发 起802.1X认证，同时也可通过执行dot1xtimerquiet-period命令重新设置静默时长。 (10)检查802.1X在线用户数是否达到最大值。 a.在设备上执行displaydot1xinterface查看认证接口下的信息，“Maxonlineusers”字段为该接口下配置的最大用户数，“Online802.1Xusers”字段为接口下当前在线用户数，对比两组数据判断802.1X认证在线用户数是否已经达到最大值。 b.如果接口接入的802.1X用户数达到最大值，可以通过dot1xmax-user命令增大最多允许同时接入的802.1X用户数。 c.如果接口接入的802.1X用户数无法再增加，则需要等其他用户下线或切换用户的接入端口。 (11)如果故障仍然未能排除，请收集如下信息，并联系技术支持人员。 上述步骤的执行结果。 设备的配置文件、日志信息、告警信息。 5.告警与日志相关告警无 相关日志无 4.12.2802.1X用户掉线 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统控制平台无打印信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统控制平台软件异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源指示灯未亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 内部的器件被摔坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未采用电源适配器供电方式供电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDP会话无法Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LSR ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置错误</t>
+    </r>
+  </si>
+  <si>
+    <t>LSR ID 配置错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在 LDP 会话的相关配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输地址配置错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全认证配置错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSP无法Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由问题</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LDP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">会话 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Down</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">资源不足，如 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Label </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>达到上限，内存不足等</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">配置了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">LSP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">触发策略、标签接受控制策略、标签通告控制策略或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Label Mapping </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消息的发送策略</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">路由的出接口与 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">LDP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建立会话的接口不一致</t>
+    </r>
+  </si>
+  <si>
+    <t>AP上电异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">电源适配器或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PoE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注入器输出电压或功率未满足要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PoE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交换机输出功率未满足要求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>侧硬件故障</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">EVPN分布式网关场景，不同VXLAN内的VTEP之间隧道无法建立。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FIT模式下的CPE接入AC后，无法修改其通过自动AP方式生成的AP服务模板。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3VPN流量中断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私网路由下一跳不可达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由策略配置不当导致路由无法发布和接收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签超限导致私网路由无法发布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由超限导致收到的路由被丢弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4VPN流量中断</t>
+  </si>
+  <si>
+    <t>L5VPN流量中断</t>
+  </si>
+  <si>
+    <t>L6VPN流量中断</t>
+  </si>
+  <si>
+    <t>私网路由频繁震荡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公网路由震荡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LDP LSP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>震荡</t>
+    </r>
+  </si>
+  <si>
+    <t>接口震荡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suggestion not provided</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法Ping通不同VPN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE 设备上不同的 VPN 实例绑定的 IP 地址存在冲突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨干网中进行标签转发的公网隧道正常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2021,7 +3467,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2057,6 +3503,27 @@
       <color theme="1"/>
       <name val="Cambria Math"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2094,10 +3561,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2437,16 +3910,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C323"/>
+  <dimension ref="A1:C368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="162.25" customWidth="1"/>
-    <col min="2" max="2" width="67.25" customWidth="1"/>
+    <col min="1" max="1" width="82.125" customWidth="1"/>
+    <col min="2" max="2" width="111.625" customWidth="1"/>
     <col min="3" max="3" width="91.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2463,24 +3936,24 @@
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="C3" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2488,10 +3961,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C4" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2499,351 +3972,351 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C6" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="3.5">
       <c r="A8" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="3.5">
       <c r="A18" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>592</v>
       </c>
       <c r="C18" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B24" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C24" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C25" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B26" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C26" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B28" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C28" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>628</v>
       </c>
       <c r="C31" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>589</v>
       </c>
       <c r="C33" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B36" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C36" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2851,21 +4324,21 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C37" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="B38" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C38" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2873,32 +4346,32 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B40" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C40" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C41" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2906,32 +4379,32 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C42" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="B44" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C44" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2939,21 +4412,21 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>380</v>
+        <v>591</v>
       </c>
       <c r="C45" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B46" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C46" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2961,32 +4434,32 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C47" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="B49" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C49" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2994,868 +4467,868 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C50" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C51" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B52" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C52" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>650</v>
       </c>
       <c r="B61" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C61" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C62" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C63" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B65" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C65" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C66" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C67" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>651</v>
       </c>
       <c r="B68" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C68" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C69" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C70" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C71" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C72" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C73" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C74" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C75" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C76" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C78" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C79" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="B80" t="s">
-        <v>226</v>
+        <v>615</v>
       </c>
       <c r="C80" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C82" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C83" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B84" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C84" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C85" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C86" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C87" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C89" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C90" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B91" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C91" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C92" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C94" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C95" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C96" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B97" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C97" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="B98" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C98" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="B99" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C99" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C100" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C101" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C102" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C103" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C105" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B106" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C106" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C107" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B108" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C108" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B109" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C109" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B110" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C110" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C111" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B112" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B113" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C113" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C114" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C115" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C116" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C117" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C118" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C119" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C120" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C121" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B122" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C122" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C123" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B124" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C124" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C125" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B127" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C127" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B128" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C128" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3863,142 +5336,142 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C129" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C130" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B131" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C131" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B132" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C132" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B133" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B134" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C136" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B137" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C137" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B138" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C138" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C139" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B140" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C140" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B141" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C141" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4006,54 +5479,54 @@
         <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C142" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C143" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B145" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C145" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B146" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4061,87 +5534,87 @@
         <v>13</v>
       </c>
       <c r="B147" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C147" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B148" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C148" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B149" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C149" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C150" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C151" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C152" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B153" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C153" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B154" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C154" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4149,21 +5622,21 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C155" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B156" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C156" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4171,21 +5644,21 @@
         <v>18</v>
       </c>
       <c r="B157" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C157" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B158" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C158" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4193,21 +5666,21 @@
         <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C159" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B160" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C160" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4215,373 +5688,373 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C161" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C162" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B163" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C163" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B164" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C164" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C165" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B166" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C166" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B167" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C167" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B168" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C168" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B169" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C169" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B170" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C170" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B171" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C172" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B173" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C173" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B174" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C174" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B175" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C175" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B176" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C176" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B177" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C177" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B178" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C178" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B179" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C179" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B180" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C180" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B181" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C181" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B182" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C182" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B183" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C183" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B184" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C184" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B185" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C185" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B186" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C186" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="B187" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C187" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>39</v>
+        <v>590</v>
       </c>
       <c r="B188" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C188" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B189" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C189" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B190" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C190" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C191" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B192" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C192" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B193" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C193" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B194" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C194" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4589,197 +6062,197 @@
         <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C195" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B196" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C196" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C197" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B198" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C198" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C199" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B200" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C200" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B201" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C201" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B202" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C202" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="B203" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C203" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="B204" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C204" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B205" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B206" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B207" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C207" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B208" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B210" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C210" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B211" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C211" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B212" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C212" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4787,153 +6260,153 @@
         <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C213" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C214" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B215" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B216" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C216" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B217" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C217" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B218" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C218" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C219" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C220" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B221" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C221" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B222" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C222" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B223" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C223" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="3.5">
       <c r="A224" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B224" t="s">
-        <v>302</v>
+        <v>614</v>
       </c>
       <c r="C224" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B225" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C225" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B226" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C226" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4941,32 +6414,32 @@
         <v>12</v>
       </c>
       <c r="B227" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C227" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B228" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C228" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B229" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C229" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4974,1037 +6447,1526 @@
         <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C230" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B231" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C231" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B232" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C232" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B233" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C233" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B234" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C234" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="99.75" customHeight="1" x14ac:dyDescent="3.5">
       <c r="A235" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B235" t="s">
-        <v>248</v>
+        <v>594</v>
       </c>
       <c r="C235" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B236" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C236" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B237" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C237" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B238" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C238" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B239" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C239" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B240" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C240" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B241" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C241" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B242" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C242" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C243" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B244" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C244" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B245" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C245" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B246" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C246" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B247" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C247" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B248" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C248" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B249" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C249" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B250" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C250" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B251" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C251" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B252" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C252" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="B253" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C253" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="B254" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C254" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="B255" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C255" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B256" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C256" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="3.5">
       <c r="A257" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="B257" t="s">
-        <v>366</v>
+        <v>593</v>
       </c>
       <c r="C257" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B258" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C258" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B259" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C259" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B260" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C260" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B261" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="C261" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B262" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C262" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B263" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C263" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B264" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C264" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B265" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C265" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B266" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C266" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B267" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C267" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B268" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C268" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B269" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C269" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B270" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C270" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B271" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C271" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B272" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C272" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="B273" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C273" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B274" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C274" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B275" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C275" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B276" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C276" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B277" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C277" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B278" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C278" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>22</v>
+        <v>581</v>
       </c>
       <c r="B279" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C279" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B280" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C280" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B281" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C281" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B282" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C282" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B283" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C283" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B284" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C284" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="B285" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C285" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="B286" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C286" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="B287" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C287" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B288" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C288" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B289" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C289" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B290" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C290" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B291" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C291" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="3.5">
       <c r="A292" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B292" t="s">
-        <v>205</v>
+        <v>587</v>
       </c>
       <c r="C292" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B293" t="s">
-        <v>207</v>
+        <v>588</v>
       </c>
       <c r="C293" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="B294" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="C294" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="B295" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C295" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="B296" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C296" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="B297" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C297" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="B298" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C298" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B299" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C299" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B300" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C300" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B301" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C301" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B302" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C302" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B303" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C303" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B304" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C304" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B305" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C305" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B306" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C306" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B307" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C307" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B308" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C308" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B309" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C309" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="B310" t="s">
-        <v>261</v>
+        <v>585</v>
       </c>
       <c r="C310" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B311" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C311" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B312" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C312" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B313" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C313" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B314" t="s">
-        <v>253</v>
+        <v>582</v>
       </c>
       <c r="C314" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="B315" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C315" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>555</v>
+        <v>486</v>
       </c>
       <c r="B316" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C316" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="B317" t="s">
-        <v>200</v>
+        <v>583</v>
       </c>
       <c r="C317" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="B318" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C318" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="B319" t="s">
-        <v>202</v>
+        <v>373</v>
       </c>
       <c r="C319" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="B320" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="C320" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="B321" t="s">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="C321" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>551</v>
+        <v>602</v>
       </c>
       <c r="B322" t="s">
-        <v>267</v>
+        <v>595</v>
       </c>
       <c r="C322" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="B323" t="s">
-        <v>321</v>
+        <v>596</v>
       </c>
       <c r="C323" t="s">
-        <v>379</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" t="s">
+        <v>602</v>
+      </c>
+      <c r="B324" t="s">
+        <v>597</v>
+      </c>
+      <c r="C324" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" t="s">
+        <v>602</v>
+      </c>
+      <c r="B325" t="s">
+        <v>598</v>
+      </c>
+      <c r="C325" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" t="s">
+        <v>602</v>
+      </c>
+      <c r="B326" t="s">
+        <v>599</v>
+      </c>
+      <c r="C326" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" t="s">
+        <v>602</v>
+      </c>
+      <c r="B327" t="s">
+        <v>600</v>
+      </c>
+      <c r="C327" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" t="s">
+        <v>602</v>
+      </c>
+      <c r="B328" t="s">
+        <v>601</v>
+      </c>
+      <c r="C328" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" t="s">
+        <v>488</v>
+      </c>
+      <c r="B329" t="s">
+        <v>603</v>
+      </c>
+      <c r="C329" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" t="s">
+        <v>609</v>
+      </c>
+      <c r="B330" t="s">
+        <v>604</v>
+      </c>
+      <c r="C330" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" t="s">
+        <v>610</v>
+      </c>
+      <c r="B331" t="s">
+        <v>605</v>
+      </c>
+      <c r="C331" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" t="s">
+        <v>611</v>
+      </c>
+      <c r="B332" t="s">
+        <v>606</v>
+      </c>
+      <c r="C332" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" t="s">
+        <v>612</v>
+      </c>
+      <c r="B333" t="s">
+        <v>607</v>
+      </c>
+      <c r="C333" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" t="s">
+        <v>613</v>
+      </c>
+      <c r="B334" t="s">
+        <v>608</v>
+      </c>
+      <c r="C334" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" t="s">
+        <v>616</v>
+      </c>
+      <c r="B335" t="s">
+        <v>617</v>
+      </c>
+      <c r="C335" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" t="s">
+        <v>616</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C336" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" t="s">
+        <v>616</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C337" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A338" t="s">
+        <v>620</v>
+      </c>
+      <c r="B338" t="s">
+        <v>621</v>
+      </c>
+      <c r="C338" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" t="s">
+        <v>620</v>
+      </c>
+      <c r="B339" t="s">
+        <v>622</v>
+      </c>
+      <c r="C339" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" t="s">
+        <v>623</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C340" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" t="s">
+        <v>623</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C341" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" t="s">
+        <v>623</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C342" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" t="s">
+        <v>623</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C343" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" t="s">
+        <v>629</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C344" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" t="s">
+        <v>631</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C345" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" t="s">
+        <v>631</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C346" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" t="s">
+        <v>634</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C347" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" t="s">
+        <v>634</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C348" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" t="s">
+        <v>634</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C349" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" t="s">
+        <v>634</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C350" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" t="s">
+        <v>634</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C351" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" t="s">
+        <v>640</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C352" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" t="s">
+        <v>640</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C353" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" t="s">
+        <v>640</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C354" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" t="s">
+        <v>640</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C355" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
+        <v>640</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C356" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>646</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C357" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" t="s">
+        <v>646</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C358" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
+        <v>646</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C359" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" t="s">
+        <v>652</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C360" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" t="s">
+        <v>657</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C361" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" t="s">
+        <v>658</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C362" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" t="s">
+        <v>659</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C363" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" t="s">
+        <v>660</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C364" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" t="s">
+        <v>660</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C365" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" t="s">
+        <v>660</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" t="s">
+        <v>665</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" t="s">
+        <v>665</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C542">
+  <sortState ref="A2:C539">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
